--- a/data-raw/abs/5601.0/560101.xlsx
+++ b/data-raw/abs/5601.0/560101.xlsx
@@ -12,50 +12,50 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A108268693J">Data1!$I$1:$I$10,Data1!$I$11:$I$243</definedName>
-    <definedName name="A108268693J_Data">Data1!$I$11:$I$243</definedName>
-    <definedName name="A108268693J_Latest">Data1!$I$243</definedName>
-    <definedName name="A108271213V">Data1!$F$1:$F$10,Data1!$F$11:$F$243</definedName>
-    <definedName name="A108271213V_Data">Data1!$F$11:$F$243</definedName>
-    <definedName name="A108271213V_Latest">Data1!$F$243</definedName>
-    <definedName name="A108273775J">Data1!$J$1:$J$10,Data1!$J$11:$J$243</definedName>
-    <definedName name="A108273775J_Data">Data1!$J$11:$J$243</definedName>
-    <definedName name="A108273775J_Latest">Data1!$J$243</definedName>
-    <definedName name="A108276981A">Data1!$D$1:$D$10,Data1!$D$11:$D$243</definedName>
-    <definedName name="A108276981A_Data">Data1!$D$11:$D$243</definedName>
-    <definedName name="A108276981A_Latest">Data1!$D$243</definedName>
-    <definedName name="A108277457X">Data1!$K$1:$K$10,Data1!$K$11:$K$243</definedName>
-    <definedName name="A108277457X_Data">Data1!$K$11:$K$243</definedName>
-    <definedName name="A108277457X_Latest">Data1!$K$243</definedName>
-    <definedName name="A108284387K">Data1!$N$1:$N$10,Data1!$N$11:$N$243</definedName>
-    <definedName name="A108284387K_Data">Data1!$N$11:$N$243</definedName>
-    <definedName name="A108284387K_Latest">Data1!$N$243</definedName>
-    <definedName name="A108284569X">Data1!$L$1:$L$10,Data1!$L$11:$L$243</definedName>
-    <definedName name="A108284569X_Data">Data1!$L$11:$L$243</definedName>
-    <definedName name="A108284569X_Latest">Data1!$L$243</definedName>
-    <definedName name="A108292360K">Data1!$O$1:$O$10,Data1!$O$11:$O$243</definedName>
-    <definedName name="A108292360K_Data">Data1!$O$11:$O$243</definedName>
-    <definedName name="A108292360K_Latest">Data1!$O$243</definedName>
-    <definedName name="A108292822T">Data1!$M$1:$M$10,Data1!$M$11:$M$243</definedName>
-    <definedName name="A108292822T_Data">Data1!$M$11:$M$243</definedName>
-    <definedName name="A108292822T_Latest">Data1!$M$243</definedName>
-    <definedName name="A108294614K">Data1!$G$1:$G$10,Data1!$G$215:$G$243</definedName>
-    <definedName name="A108294614K_Data">Data1!$G$215:$G$243</definedName>
-    <definedName name="A108294614K_Latest">Data1!$G$243</definedName>
-    <definedName name="A108295286C">Data1!$B$1:$B$10,Data1!$B$11:$B$243</definedName>
-    <definedName name="A108295286C_Data">Data1!$B$11:$B$243</definedName>
-    <definedName name="A108295286C_Latest">Data1!$B$243</definedName>
-    <definedName name="A108296973X">Data1!$H$1:$H$10,Data1!$H$11:$H$243</definedName>
-    <definedName name="A108296973X_Data">Data1!$H$11:$H$243</definedName>
-    <definedName name="A108296973X_Latest">Data1!$H$243</definedName>
-    <definedName name="A108299115J">Data1!$C$1:$C$10,Data1!$C$11:$C$243</definedName>
-    <definedName name="A108299115J_Data">Data1!$C$11:$C$243</definedName>
-    <definedName name="A108299115J_Latest">Data1!$C$243</definedName>
-    <definedName name="A108299885C">Data1!$E$1:$E$10,Data1!$E$215:$E$243</definedName>
-    <definedName name="A108299885C_Data">Data1!$E$215:$E$243</definedName>
-    <definedName name="A108299885C_Latest">Data1!$E$243</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$243</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$243</definedName>
+    <definedName name="A108268693J">Data1!$I$1:$I$10,Data1!$I$11:$I$244</definedName>
+    <definedName name="A108268693J_Data">Data1!$I$11:$I$244</definedName>
+    <definedName name="A108268693J_Latest">Data1!$I$244</definedName>
+    <definedName name="A108271213V">Data1!$F$1:$F$10,Data1!$F$11:$F$244</definedName>
+    <definedName name="A108271213V_Data">Data1!$F$11:$F$244</definedName>
+    <definedName name="A108271213V_Latest">Data1!$F$244</definedName>
+    <definedName name="A108273775J">Data1!$J$1:$J$10,Data1!$J$11:$J$244</definedName>
+    <definedName name="A108273775J_Data">Data1!$J$11:$J$244</definedName>
+    <definedName name="A108273775J_Latest">Data1!$J$244</definedName>
+    <definedName name="A108276981A">Data1!$D$1:$D$10,Data1!$D$11:$D$244</definedName>
+    <definedName name="A108276981A_Data">Data1!$D$11:$D$244</definedName>
+    <definedName name="A108276981A_Latest">Data1!$D$244</definedName>
+    <definedName name="A108277457X">Data1!$K$1:$K$10,Data1!$K$11:$K$244</definedName>
+    <definedName name="A108277457X_Data">Data1!$K$11:$K$244</definedName>
+    <definedName name="A108277457X_Latest">Data1!$K$244</definedName>
+    <definedName name="A108284387K">Data1!$N$1:$N$10,Data1!$N$11:$N$244</definedName>
+    <definedName name="A108284387K_Data">Data1!$N$11:$N$244</definedName>
+    <definedName name="A108284387K_Latest">Data1!$N$244</definedName>
+    <definedName name="A108284569X">Data1!$L$1:$L$10,Data1!$L$11:$L$244</definedName>
+    <definedName name="A108284569X_Data">Data1!$L$11:$L$244</definedName>
+    <definedName name="A108284569X_Latest">Data1!$L$244</definedName>
+    <definedName name="A108292360K">Data1!$O$1:$O$10,Data1!$O$11:$O$244</definedName>
+    <definedName name="A108292360K_Data">Data1!$O$11:$O$244</definedName>
+    <definedName name="A108292360K_Latest">Data1!$O$244</definedName>
+    <definedName name="A108292822T">Data1!$M$1:$M$10,Data1!$M$11:$M$244</definedName>
+    <definedName name="A108292822T_Data">Data1!$M$11:$M$244</definedName>
+    <definedName name="A108292822T_Latest">Data1!$M$244</definedName>
+    <definedName name="A108294614K">Data1!$G$1:$G$10,Data1!$G$215:$G$244</definedName>
+    <definedName name="A108294614K_Data">Data1!$G$215:$G$244</definedName>
+    <definedName name="A108294614K_Latest">Data1!$G$244</definedName>
+    <definedName name="A108295286C">Data1!$B$1:$B$10,Data1!$B$11:$B$244</definedName>
+    <definedName name="A108295286C_Data">Data1!$B$11:$B$244</definedName>
+    <definedName name="A108295286C_Latest">Data1!$B$244</definedName>
+    <definedName name="A108296973X">Data1!$H$1:$H$10,Data1!$H$11:$H$244</definedName>
+    <definedName name="A108296973X_Data">Data1!$H$11:$H$244</definedName>
+    <definedName name="A108296973X_Latest">Data1!$H$244</definedName>
+    <definedName name="A108299115J">Data1!$C$1:$C$10,Data1!$C$11:$C$244</definedName>
+    <definedName name="A108299115J_Data">Data1!$C$11:$C$244</definedName>
+    <definedName name="A108299115J_Latest">Data1!$C$244</definedName>
+    <definedName name="A108299885C">Data1!$E$1:$E$10,Data1!$E$215:$E$244</definedName>
+    <definedName name="A108299885C_Data">Data1!$E$215:$E$244</definedName>
+    <definedName name="A108299885C_Latest">Data1!$E$244</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$244</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$244</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -12209,6 +12209,58 @@
       </text>
     </comment>
     <comment ref="O243" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L244" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M244" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N244" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O244" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12360,7 +12412,7 @@
     <t>Freq.</t>
   </si>
   <si>
-    <t>© Commonwealth of Australia  2021</t>
+    <t>© Commonwealth of Australia  2022</t>
   </si>
 </sst>
 </file>
@@ -13060,10 +13112,10 @@
         <v>37438</v>
       </c>
       <c r="G12" s="9">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="H12" s="10">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>15</v>
@@ -13092,10 +13144,10 @@
         <v>37438</v>
       </c>
       <c r="G13" s="9">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="H13" s="10">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>15</v>
@@ -13124,10 +13176,10 @@
         <v>37438</v>
       </c>
       <c r="G14" s="9">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="H14" s="10">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>15</v>
@@ -13156,10 +13208,10 @@
         <v>43647</v>
       </c>
       <c r="G15" s="9">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="H15" s="10">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>15</v>
@@ -13188,10 +13240,10 @@
         <v>37438</v>
       </c>
       <c r="G16" s="9">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="H16" s="10">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>15</v>
@@ -13220,10 +13272,10 @@
         <v>43647</v>
       </c>
       <c r="G17" s="9">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="H17" s="10">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>15</v>
@@ -13252,10 +13304,10 @@
         <v>37438</v>
       </c>
       <c r="G18" s="9">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="H18" s="10">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>15</v>
@@ -13284,10 +13336,10 @@
         <v>37438</v>
       </c>
       <c r="G19" s="9">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="H19" s="10">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>15</v>
@@ -13316,10 +13368,10 @@
         <v>37438</v>
       </c>
       <c r="G20" s="9">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="H20" s="10">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>15</v>
@@ -13348,10 +13400,10 @@
         <v>37438</v>
       </c>
       <c r="G21" s="9">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="H21" s="10">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>15</v>
@@ -13380,10 +13432,10 @@
         <v>37438</v>
       </c>
       <c r="G22" s="9">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="H22" s="10">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>15</v>
@@ -13412,10 +13464,10 @@
         <v>37438</v>
       </c>
       <c r="G23" s="9">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="H23" s="10">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>15</v>
@@ -13444,10 +13496,10 @@
         <v>37438</v>
       </c>
       <c r="G24" s="9">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="H24" s="10">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>15</v>
@@ -13476,10 +13528,10 @@
         <v>37438</v>
       </c>
       <c r="G25" s="9">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="H25" s="10">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>15</v>
@@ -13528,7 +13580,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O243"/>
+  <dimension ref="A1:O244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -13873,46 +13925,46 @@
         <v>12</v>
       </c>
       <c r="B8" s="6">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="C8" s="6">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="D8" s="6">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="E8" s="6">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="F8" s="6">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="G8" s="6">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="H8" s="6">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="I8" s="6">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="J8" s="6">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="K8" s="6">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="L8" s="6">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="M8" s="6">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="N8" s="6">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="O8" s="6">
-        <v>44501</v>
+        <v>44531</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -13920,46 +13972,46 @@
         <v>13</v>
       </c>
       <c r="B9" s="1">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C9" s="1">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D9" s="1">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E9" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F9" s="1">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G9" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H9" s="1">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I9" s="1">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J9" s="1">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K9" s="1">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L9" s="1">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M9" s="1">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N9" s="1">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O9" s="1">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -21871,6 +21923,45 @@
       <c r="M243" s="8"/>
       <c r="N243" s="8"/>
       <c r="O243" s="8"/>
+    </row>
+    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A244" s="9">
+        <v>44531</v>
+      </c>
+      <c r="B244" s="8">
+        <v>36476.5</v>
+      </c>
+      <c r="C244" s="8">
+        <v>24914</v>
+      </c>
+      <c r="D244" s="8">
+        <v>11562.5</v>
+      </c>
+      <c r="E244" s="8">
+        <v>6847.9</v>
+      </c>
+      <c r="F244" s="8">
+        <v>6261.2</v>
+      </c>
+      <c r="G244" s="8">
+        <v>586.70000000000005</v>
+      </c>
+      <c r="H244" s="8">
+        <v>32812</v>
+      </c>
+      <c r="I244" s="8">
+        <v>22471.3</v>
+      </c>
+      <c r="J244" s="8">
+        <v>10340.700000000001</v>
+      </c>
+      <c r="K244" s="8">
+        <v>5666.2</v>
+      </c>
+      <c r="L244" s="8"/>
+      <c r="M244" s="8"/>
+      <c r="N244" s="8"/>
+      <c r="O244" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data-raw/abs/5601.0/560101.xlsx
+++ b/data-raw/abs/5601.0/560101.xlsx
@@ -12,50 +12,50 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A108268693J">Data1!$I$1:$I$10,Data1!$I$11:$I$244</definedName>
-    <definedName name="A108268693J_Data">Data1!$I$11:$I$244</definedName>
-    <definedName name="A108268693J_Latest">Data1!$I$244</definedName>
-    <definedName name="A108271213V">Data1!$F$1:$F$10,Data1!$F$11:$F$244</definedName>
-    <definedName name="A108271213V_Data">Data1!$F$11:$F$244</definedName>
-    <definedName name="A108271213V_Latest">Data1!$F$244</definedName>
-    <definedName name="A108273775J">Data1!$J$1:$J$10,Data1!$J$11:$J$244</definedName>
-    <definedName name="A108273775J_Data">Data1!$J$11:$J$244</definedName>
-    <definedName name="A108273775J_Latest">Data1!$J$244</definedName>
-    <definedName name="A108276981A">Data1!$D$1:$D$10,Data1!$D$11:$D$244</definedName>
-    <definedName name="A108276981A_Data">Data1!$D$11:$D$244</definedName>
-    <definedName name="A108276981A_Latest">Data1!$D$244</definedName>
-    <definedName name="A108277457X">Data1!$K$1:$K$10,Data1!$K$11:$K$244</definedName>
-    <definedName name="A108277457X_Data">Data1!$K$11:$K$244</definedName>
-    <definedName name="A108277457X_Latest">Data1!$K$244</definedName>
-    <definedName name="A108284387K">Data1!$N$1:$N$10,Data1!$N$11:$N$244</definedName>
-    <definedName name="A108284387K_Data">Data1!$N$11:$N$244</definedName>
-    <definedName name="A108284387K_Latest">Data1!$N$244</definedName>
-    <definedName name="A108284569X">Data1!$L$1:$L$10,Data1!$L$11:$L$244</definedName>
-    <definedName name="A108284569X_Data">Data1!$L$11:$L$244</definedName>
-    <definedName name="A108284569X_Latest">Data1!$L$244</definedName>
-    <definedName name="A108292360K">Data1!$O$1:$O$10,Data1!$O$11:$O$244</definedName>
-    <definedName name="A108292360K_Data">Data1!$O$11:$O$244</definedName>
-    <definedName name="A108292360K_Latest">Data1!$O$244</definedName>
-    <definedName name="A108292822T">Data1!$M$1:$M$10,Data1!$M$11:$M$244</definedName>
-    <definedName name="A108292822T_Data">Data1!$M$11:$M$244</definedName>
-    <definedName name="A108292822T_Latest">Data1!$M$244</definedName>
-    <definedName name="A108294614K">Data1!$G$1:$G$10,Data1!$G$215:$G$244</definedName>
-    <definedName name="A108294614K_Data">Data1!$G$215:$G$244</definedName>
-    <definedName name="A108294614K_Latest">Data1!$G$244</definedName>
-    <definedName name="A108295286C">Data1!$B$1:$B$10,Data1!$B$11:$B$244</definedName>
-    <definedName name="A108295286C_Data">Data1!$B$11:$B$244</definedName>
-    <definedName name="A108295286C_Latest">Data1!$B$244</definedName>
-    <definedName name="A108296973X">Data1!$H$1:$H$10,Data1!$H$11:$H$244</definedName>
-    <definedName name="A108296973X_Data">Data1!$H$11:$H$244</definedName>
-    <definedName name="A108296973X_Latest">Data1!$H$244</definedName>
-    <definedName name="A108299115J">Data1!$C$1:$C$10,Data1!$C$11:$C$244</definedName>
-    <definedName name="A108299115J_Data">Data1!$C$11:$C$244</definedName>
-    <definedName name="A108299115J_Latest">Data1!$C$244</definedName>
-    <definedName name="A108299885C">Data1!$E$1:$E$10,Data1!$E$215:$E$244</definedName>
-    <definedName name="A108299885C_Data">Data1!$E$215:$E$244</definedName>
-    <definedName name="A108299885C_Latest">Data1!$E$244</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$244</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$244</definedName>
+    <definedName name="A108268693J">Data1!$I$1:$I$10,Data1!$I$11:$I$245</definedName>
+    <definedName name="A108268693J_Data">Data1!$I$11:$I$245</definedName>
+    <definedName name="A108268693J_Latest">Data1!$I$245</definedName>
+    <definedName name="A108271213V">Data1!$F$1:$F$10,Data1!$F$11:$F$245</definedName>
+    <definedName name="A108271213V_Data">Data1!$F$11:$F$245</definedName>
+    <definedName name="A108271213V_Latest">Data1!$F$245</definedName>
+    <definedName name="A108273775J">Data1!$J$1:$J$10,Data1!$J$11:$J$245</definedName>
+    <definedName name="A108273775J_Data">Data1!$J$11:$J$245</definedName>
+    <definedName name="A108273775J_Latest">Data1!$J$245</definedName>
+    <definedName name="A108276981A">Data1!$D$1:$D$10,Data1!$D$11:$D$245</definedName>
+    <definedName name="A108276981A_Data">Data1!$D$11:$D$245</definedName>
+    <definedName name="A108276981A_Latest">Data1!$D$245</definedName>
+    <definedName name="A108277457X">Data1!$K$1:$K$10,Data1!$K$11:$K$245</definedName>
+    <definedName name="A108277457X_Data">Data1!$K$11:$K$245</definedName>
+    <definedName name="A108277457X_Latest">Data1!$K$245</definedName>
+    <definedName name="A108284387K">Data1!$N$1:$N$10,Data1!$N$11:$N$245</definedName>
+    <definedName name="A108284387K_Data">Data1!$N$11:$N$245</definedName>
+    <definedName name="A108284387K_Latest">Data1!$N$245</definedName>
+    <definedName name="A108284569X">Data1!$L$1:$L$10,Data1!$L$11:$L$245</definedName>
+    <definedName name="A108284569X_Data">Data1!$L$11:$L$245</definedName>
+    <definedName name="A108284569X_Latest">Data1!$L$245</definedName>
+    <definedName name="A108292360K">Data1!$O$1:$O$10,Data1!$O$11:$O$245</definedName>
+    <definedName name="A108292360K_Data">Data1!$O$11:$O$245</definedName>
+    <definedName name="A108292360K_Latest">Data1!$O$245</definedName>
+    <definedName name="A108292822T">Data1!$M$1:$M$10,Data1!$M$11:$M$245</definedName>
+    <definedName name="A108292822T_Data">Data1!$M$11:$M$245</definedName>
+    <definedName name="A108292822T_Latest">Data1!$M$245</definedName>
+    <definedName name="A108294614K">Data1!$G$1:$G$10,Data1!$G$215:$G$245</definedName>
+    <definedName name="A108294614K_Data">Data1!$G$215:$G$245</definedName>
+    <definedName name="A108294614K_Latest">Data1!$G$245</definedName>
+    <definedName name="A108295286C">Data1!$B$1:$B$10,Data1!$B$11:$B$245</definedName>
+    <definedName name="A108295286C_Data">Data1!$B$11:$B$245</definedName>
+    <definedName name="A108295286C_Latest">Data1!$B$245</definedName>
+    <definedName name="A108296973X">Data1!$H$1:$H$10,Data1!$H$11:$H$245</definedName>
+    <definedName name="A108296973X_Data">Data1!$H$11:$H$245</definedName>
+    <definedName name="A108296973X_Latest">Data1!$H$245</definedName>
+    <definedName name="A108299115J">Data1!$C$1:$C$10,Data1!$C$11:$C$245</definedName>
+    <definedName name="A108299115J_Data">Data1!$C$11:$C$245</definedName>
+    <definedName name="A108299115J_Latest">Data1!$C$245</definedName>
+    <definedName name="A108299885C">Data1!$E$1:$E$10,Data1!$E$215:$E$245</definedName>
+    <definedName name="A108299885C_Data">Data1!$E$215:$E$245</definedName>
+    <definedName name="A108299885C_Latest">Data1!$E$245</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$245</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$245</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -12261,6 +12261,58 @@
       </text>
     </comment>
     <comment ref="O244" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L245" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M245" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N245" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O245" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13112,10 +13164,10 @@
         <v>37438</v>
       </c>
       <c r="G12" s="9">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="H12" s="10">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>15</v>
@@ -13144,10 +13196,10 @@
         <v>37438</v>
       </c>
       <c r="G13" s="9">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="H13" s="10">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>15</v>
@@ -13176,10 +13228,10 @@
         <v>37438</v>
       </c>
       <c r="G14" s="9">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="H14" s="10">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>15</v>
@@ -13208,10 +13260,10 @@
         <v>43647</v>
       </c>
       <c r="G15" s="9">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="H15" s="10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>15</v>
@@ -13240,10 +13292,10 @@
         <v>37438</v>
       </c>
       <c r="G16" s="9">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="H16" s="10">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>15</v>
@@ -13272,10 +13324,10 @@
         <v>43647</v>
       </c>
       <c r="G17" s="9">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="H17" s="10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>15</v>
@@ -13304,10 +13356,10 @@
         <v>37438</v>
       </c>
       <c r="G18" s="9">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="H18" s="10">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>15</v>
@@ -13336,10 +13388,10 @@
         <v>37438</v>
       </c>
       <c r="G19" s="9">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="H19" s="10">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>15</v>
@@ -13368,10 +13420,10 @@
         <v>37438</v>
       </c>
       <c r="G20" s="9">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="H20" s="10">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>15</v>
@@ -13400,10 +13452,10 @@
         <v>37438</v>
       </c>
       <c r="G21" s="9">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="H21" s="10">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>15</v>
@@ -13432,10 +13484,10 @@
         <v>37438</v>
       </c>
       <c r="G22" s="9">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="H22" s="10">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>15</v>
@@ -13464,10 +13516,10 @@
         <v>37438</v>
       </c>
       <c r="G23" s="9">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="H23" s="10">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>15</v>
@@ -13496,10 +13548,10 @@
         <v>37438</v>
       </c>
       <c r="G24" s="9">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="H24" s="10">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>15</v>
@@ -13528,10 +13580,10 @@
         <v>37438</v>
       </c>
       <c r="G25" s="9">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="H25" s="10">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>15</v>
@@ -13580,7 +13632,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O244"/>
+  <dimension ref="A1:O245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -13925,46 +13977,46 @@
         <v>12</v>
       </c>
       <c r="B8" s="6">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="C8" s="6">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="D8" s="6">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="E8" s="6">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="F8" s="6">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="G8" s="6">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="H8" s="6">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="I8" s="6">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="J8" s="6">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="K8" s="6">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="L8" s="6">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="M8" s="6">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="N8" s="6">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="O8" s="6">
-        <v>44531</v>
+        <v>44562</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -13972,46 +14024,46 @@
         <v>13</v>
       </c>
       <c r="B9" s="1">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C9" s="1">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D9" s="1">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E9" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9" s="1">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G9" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H9" s="1">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I9" s="1">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J9" s="1">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K9" s="1">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L9" s="1">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M9" s="1">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N9" s="1">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O9" s="1">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -21962,6 +22014,45 @@
       <c r="M244" s="8"/>
       <c r="N244" s="8"/>
       <c r="O244" s="8"/>
+    </row>
+    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A245" s="9">
+        <v>44562</v>
+      </c>
+      <c r="B245" s="8">
+        <v>28281.5</v>
+      </c>
+      <c r="C245" s="8">
+        <v>19169.3</v>
+      </c>
+      <c r="D245" s="8">
+        <v>9112.2000000000007</v>
+      </c>
+      <c r="E245" s="8">
+        <v>4886.1000000000004</v>
+      </c>
+      <c r="F245" s="8">
+        <v>4507.8999999999996</v>
+      </c>
+      <c r="G245" s="8">
+        <v>378.2</v>
+      </c>
+      <c r="H245" s="8">
+        <v>33660</v>
+      </c>
+      <c r="I245" s="8">
+        <v>22686</v>
+      </c>
+      <c r="J245" s="8">
+        <v>10974</v>
+      </c>
+      <c r="K245" s="8">
+        <v>5385.3</v>
+      </c>
+      <c r="L245" s="8"/>
+      <c r="M245" s="8"/>
+      <c r="N245" s="8"/>
+      <c r="O245" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data-raw/abs/5601.0/560101.xlsx
+++ b/data-raw/abs/5601.0/560101.xlsx
@@ -12,50 +12,50 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A108268693J">Data1!$I$1:$I$10,Data1!$I$11:$I$245</definedName>
-    <definedName name="A108268693J_Data">Data1!$I$11:$I$245</definedName>
-    <definedName name="A108268693J_Latest">Data1!$I$245</definedName>
-    <definedName name="A108271213V">Data1!$F$1:$F$10,Data1!$F$11:$F$245</definedName>
-    <definedName name="A108271213V_Data">Data1!$F$11:$F$245</definedName>
-    <definedName name="A108271213V_Latest">Data1!$F$245</definedName>
-    <definedName name="A108273775J">Data1!$J$1:$J$10,Data1!$J$11:$J$245</definedName>
-    <definedName name="A108273775J_Data">Data1!$J$11:$J$245</definedName>
-    <definedName name="A108273775J_Latest">Data1!$J$245</definedName>
-    <definedName name="A108276981A">Data1!$D$1:$D$10,Data1!$D$11:$D$245</definedName>
-    <definedName name="A108276981A_Data">Data1!$D$11:$D$245</definedName>
-    <definedName name="A108276981A_Latest">Data1!$D$245</definedName>
-    <definedName name="A108277457X">Data1!$K$1:$K$10,Data1!$K$11:$K$245</definedName>
-    <definedName name="A108277457X_Data">Data1!$K$11:$K$245</definedName>
-    <definedName name="A108277457X_Latest">Data1!$K$245</definedName>
-    <definedName name="A108284387K">Data1!$N$1:$N$10,Data1!$N$11:$N$245</definedName>
-    <definedName name="A108284387K_Data">Data1!$N$11:$N$245</definedName>
-    <definedName name="A108284387K_Latest">Data1!$N$245</definedName>
-    <definedName name="A108284569X">Data1!$L$1:$L$10,Data1!$L$11:$L$245</definedName>
-    <definedName name="A108284569X_Data">Data1!$L$11:$L$245</definedName>
-    <definedName name="A108284569X_Latest">Data1!$L$245</definedName>
-    <definedName name="A108292360K">Data1!$O$1:$O$10,Data1!$O$11:$O$245</definedName>
-    <definedName name="A108292360K_Data">Data1!$O$11:$O$245</definedName>
-    <definedName name="A108292360K_Latest">Data1!$O$245</definedName>
-    <definedName name="A108292822T">Data1!$M$1:$M$10,Data1!$M$11:$M$245</definedName>
-    <definedName name="A108292822T_Data">Data1!$M$11:$M$245</definedName>
-    <definedName name="A108292822T_Latest">Data1!$M$245</definedName>
-    <definedName name="A108294614K">Data1!$G$1:$G$10,Data1!$G$215:$G$245</definedName>
-    <definedName name="A108294614K_Data">Data1!$G$215:$G$245</definedName>
-    <definedName name="A108294614K_Latest">Data1!$G$245</definedName>
-    <definedName name="A108295286C">Data1!$B$1:$B$10,Data1!$B$11:$B$245</definedName>
-    <definedName name="A108295286C_Data">Data1!$B$11:$B$245</definedName>
-    <definedName name="A108295286C_Latest">Data1!$B$245</definedName>
-    <definedName name="A108296973X">Data1!$H$1:$H$10,Data1!$H$11:$H$245</definedName>
-    <definedName name="A108296973X_Data">Data1!$H$11:$H$245</definedName>
-    <definedName name="A108296973X_Latest">Data1!$H$245</definedName>
-    <definedName name="A108299115J">Data1!$C$1:$C$10,Data1!$C$11:$C$245</definedName>
-    <definedName name="A108299115J_Data">Data1!$C$11:$C$245</definedName>
-    <definedName name="A108299115J_Latest">Data1!$C$245</definedName>
-    <definedName name="A108299885C">Data1!$E$1:$E$10,Data1!$E$215:$E$245</definedName>
-    <definedName name="A108299885C_Data">Data1!$E$215:$E$245</definedName>
-    <definedName name="A108299885C_Latest">Data1!$E$245</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$245</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$245</definedName>
+    <definedName name="A108268693J">Data1!$I$1:$I$10,Data1!$I$11:$I$246</definedName>
+    <definedName name="A108268693J_Data">Data1!$I$11:$I$246</definedName>
+    <definedName name="A108268693J_Latest">Data1!$I$246</definedName>
+    <definedName name="A108271213V">Data1!$F$1:$F$10,Data1!$F$11:$F$246</definedName>
+    <definedName name="A108271213V_Data">Data1!$F$11:$F$246</definedName>
+    <definedName name="A108271213V_Latest">Data1!$F$246</definedName>
+    <definedName name="A108273775J">Data1!$J$1:$J$10,Data1!$J$11:$J$246</definedName>
+    <definedName name="A108273775J_Data">Data1!$J$11:$J$246</definedName>
+    <definedName name="A108273775J_Latest">Data1!$J$246</definedName>
+    <definedName name="A108276981A">Data1!$D$1:$D$10,Data1!$D$11:$D$246</definedName>
+    <definedName name="A108276981A_Data">Data1!$D$11:$D$246</definedName>
+    <definedName name="A108276981A_Latest">Data1!$D$246</definedName>
+    <definedName name="A108277457X">Data1!$K$1:$K$10,Data1!$K$11:$K$246</definedName>
+    <definedName name="A108277457X_Data">Data1!$K$11:$K$246</definedName>
+    <definedName name="A108277457X_Latest">Data1!$K$246</definedName>
+    <definedName name="A108284387K">Data1!$N$1:$N$10,Data1!$N$11:$N$246</definedName>
+    <definedName name="A108284387K_Data">Data1!$N$11:$N$246</definedName>
+    <definedName name="A108284387K_Latest">Data1!$N$246</definedName>
+    <definedName name="A108284569X">Data1!$L$1:$L$10,Data1!$L$11:$L$246</definedName>
+    <definedName name="A108284569X_Data">Data1!$L$11:$L$246</definedName>
+    <definedName name="A108284569X_Latest">Data1!$L$246</definedName>
+    <definedName name="A108292360K">Data1!$O$1:$O$10,Data1!$O$11:$O$246</definedName>
+    <definedName name="A108292360K_Data">Data1!$O$11:$O$246</definedName>
+    <definedName name="A108292360K_Latest">Data1!$O$246</definedName>
+    <definedName name="A108292822T">Data1!$M$1:$M$10,Data1!$M$11:$M$246</definedName>
+    <definedName name="A108292822T_Data">Data1!$M$11:$M$246</definedName>
+    <definedName name="A108292822T_Latest">Data1!$M$246</definedName>
+    <definedName name="A108294614K">Data1!$G$1:$G$10,Data1!$G$215:$G$246</definedName>
+    <definedName name="A108294614K_Data">Data1!$G$215:$G$246</definedName>
+    <definedName name="A108294614K_Latest">Data1!$G$246</definedName>
+    <definedName name="A108295286C">Data1!$B$1:$B$10,Data1!$B$11:$B$246</definedName>
+    <definedName name="A108295286C_Data">Data1!$B$11:$B$246</definedName>
+    <definedName name="A108295286C_Latest">Data1!$B$246</definedName>
+    <definedName name="A108296973X">Data1!$H$1:$H$10,Data1!$H$11:$H$246</definedName>
+    <definedName name="A108296973X_Data">Data1!$H$11:$H$246</definedName>
+    <definedName name="A108296973X_Latest">Data1!$H$246</definedName>
+    <definedName name="A108299115J">Data1!$C$1:$C$10,Data1!$C$11:$C$246</definedName>
+    <definedName name="A108299115J_Data">Data1!$C$11:$C$246</definedName>
+    <definedName name="A108299115J_Latest">Data1!$C$246</definedName>
+    <definedName name="A108299885C">Data1!$E$1:$E$10,Data1!$E$215:$E$246</definedName>
+    <definedName name="A108299885C_Data">Data1!$E$215:$E$246</definedName>
+    <definedName name="A108299885C_Latest">Data1!$E$246</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$246</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$246</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -12313,6 +12313,58 @@
       </text>
     </comment>
     <comment ref="O245" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L246" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M246" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N246" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O246" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13164,10 +13216,10 @@
         <v>37438</v>
       </c>
       <c r="G12" s="9">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="H12" s="10">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>15</v>
@@ -13196,10 +13248,10 @@
         <v>37438</v>
       </c>
       <c r="G13" s="9">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="H13" s="10">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>15</v>
@@ -13228,10 +13280,10 @@
         <v>37438</v>
       </c>
       <c r="G14" s="9">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="H14" s="10">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>15</v>
@@ -13260,10 +13312,10 @@
         <v>43647</v>
       </c>
       <c r="G15" s="9">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="H15" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>15</v>
@@ -13292,10 +13344,10 @@
         <v>37438</v>
       </c>
       <c r="G16" s="9">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="H16" s="10">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>15</v>
@@ -13324,10 +13376,10 @@
         <v>43647</v>
       </c>
       <c r="G17" s="9">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="H17" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>15</v>
@@ -13356,10 +13408,10 @@
         <v>37438</v>
       </c>
       <c r="G18" s="9">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="H18" s="10">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>15</v>
@@ -13388,10 +13440,10 @@
         <v>37438</v>
       </c>
       <c r="G19" s="9">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="H19" s="10">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>15</v>
@@ -13420,10 +13472,10 @@
         <v>37438</v>
       </c>
       <c r="G20" s="9">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="H20" s="10">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>15</v>
@@ -13452,10 +13504,10 @@
         <v>37438</v>
       </c>
       <c r="G21" s="9">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="H21" s="10">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>15</v>
@@ -13484,10 +13536,10 @@
         <v>37438</v>
       </c>
       <c r="G22" s="9">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="H22" s="10">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>15</v>
@@ -13516,10 +13568,10 @@
         <v>37438</v>
       </c>
       <c r="G23" s="9">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="H23" s="10">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>15</v>
@@ -13548,10 +13600,10 @@
         <v>37438</v>
       </c>
       <c r="G24" s="9">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="H24" s="10">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>15</v>
@@ -13580,10 +13632,10 @@
         <v>37438</v>
       </c>
       <c r="G25" s="9">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="H25" s="10">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>15</v>
@@ -13632,7 +13684,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O245"/>
+  <dimension ref="A1:O246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -13977,46 +14029,46 @@
         <v>12</v>
       </c>
       <c r="B8" s="6">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="C8" s="6">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="D8" s="6">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="E8" s="6">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="F8" s="6">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="G8" s="6">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="H8" s="6">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="I8" s="6">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="J8" s="6">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="K8" s="6">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="L8" s="6">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="M8" s="6">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="N8" s="6">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="O8" s="6">
-        <v>44562</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -14024,46 +14076,46 @@
         <v>13</v>
       </c>
       <c r="B9" s="1">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C9" s="1">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D9" s="1">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E9" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9" s="1">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G9" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H9" s="1">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I9" s="1">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J9" s="1">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K9" s="1">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L9" s="1">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M9" s="1">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N9" s="1">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O9" s="1">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -21864,34 +21916,34 @@
         <v>44440</v>
       </c>
       <c r="B241" s="8">
-        <v>30954</v>
+        <v>30903.9</v>
       </c>
       <c r="C241" s="8">
-        <v>21134.1</v>
+        <v>21096.400000000001</v>
       </c>
       <c r="D241" s="8">
-        <v>9819.9</v>
+        <v>9807.6</v>
       </c>
       <c r="E241" s="8">
-        <v>6037.1</v>
+        <v>6037.2</v>
       </c>
       <c r="F241" s="8">
-        <v>5568.6</v>
+        <v>5569</v>
       </c>
       <c r="G241" s="8">
-        <v>468.5</v>
+        <v>468.2</v>
       </c>
       <c r="H241" s="8">
-        <v>30310.3</v>
+        <v>30261.7</v>
       </c>
       <c r="I241" s="8">
-        <v>20689</v>
+        <v>20652.5</v>
       </c>
       <c r="J241" s="8">
-        <v>9621.4</v>
+        <v>9609.2000000000007</v>
       </c>
       <c r="K241" s="8">
-        <v>5447.9</v>
+        <v>5448.4</v>
       </c>
       <c r="L241" s="8"/>
       <c r="M241" s="8"/>
@@ -21903,34 +21955,34 @@
         <v>44470</v>
       </c>
       <c r="B242" s="8">
-        <v>29982.6</v>
+        <v>29948</v>
       </c>
       <c r="C242" s="8">
-        <v>20125.7</v>
+        <v>20095.900000000001</v>
       </c>
       <c r="D242" s="8">
-        <v>9856.9</v>
+        <v>9852.2000000000007</v>
       </c>
       <c r="E242" s="8">
-        <v>5764.5</v>
+        <v>5759.4</v>
       </c>
       <c r="F242" s="8">
-        <v>5285.4</v>
+        <v>5280.4</v>
       </c>
       <c r="G242" s="8">
-        <v>479.2</v>
+        <v>478.9</v>
       </c>
       <c r="H242" s="8">
-        <v>29567.3</v>
+        <v>29533</v>
       </c>
       <c r="I242" s="8">
-        <v>19836.7</v>
+        <v>19807.099999999999</v>
       </c>
       <c r="J242" s="8">
-        <v>9730.6</v>
+        <v>9725.9</v>
       </c>
       <c r="K242" s="8">
-        <v>5188</v>
+        <v>5183.2</v>
       </c>
       <c r="L242" s="8"/>
       <c r="M242" s="8"/>
@@ -21942,34 +21994,34 @@
         <v>44501</v>
       </c>
       <c r="B243" s="8">
-        <v>36167</v>
+        <v>36092.800000000003</v>
       </c>
       <c r="C243" s="8">
-        <v>24528.5</v>
+        <v>24468.400000000001</v>
       </c>
       <c r="D243" s="8">
-        <v>11638.5</v>
+        <v>11624.4</v>
       </c>
       <c r="E243" s="8">
-        <v>6736.7</v>
+        <v>6729.3</v>
       </c>
       <c r="F243" s="8">
-        <v>6155.4</v>
+        <v>6148.6</v>
       </c>
       <c r="G243" s="8">
-        <v>581.29999999999995</v>
+        <v>580.79999999999995</v>
       </c>
       <c r="H243" s="8">
-        <v>31437.4</v>
+        <v>31372.3</v>
       </c>
       <c r="I243" s="8">
-        <v>21337.3</v>
+        <v>21284.5</v>
       </c>
       <c r="J243" s="8">
-        <v>10100.1</v>
+        <v>10087.799999999999</v>
       </c>
       <c r="K243" s="8">
-        <v>5381.8</v>
+        <v>5375.8</v>
       </c>
       <c r="L243" s="8"/>
       <c r="M243" s="8"/>
@@ -21981,34 +22033,34 @@
         <v>44531</v>
       </c>
       <c r="B244" s="8">
-        <v>36476.5</v>
+        <v>36379.699999999997</v>
       </c>
       <c r="C244" s="8">
-        <v>24914</v>
+        <v>24844</v>
       </c>
       <c r="D244" s="8">
-        <v>11562.5</v>
+        <v>11535.6</v>
       </c>
       <c r="E244" s="8">
-        <v>6847.9</v>
+        <v>6836.7</v>
       </c>
       <c r="F244" s="8">
-        <v>6261.2</v>
+        <v>6251.1</v>
       </c>
       <c r="G244" s="8">
-        <v>586.70000000000005</v>
+        <v>585.6</v>
       </c>
       <c r="H244" s="8">
-        <v>32812</v>
+        <v>32723.1</v>
       </c>
       <c r="I244" s="8">
-        <v>22471.3</v>
+        <v>22406.5</v>
       </c>
       <c r="J244" s="8">
-        <v>10340.700000000001</v>
+        <v>10316.6</v>
       </c>
       <c r="K244" s="8">
-        <v>5666.2</v>
+        <v>5657.1</v>
       </c>
       <c r="L244" s="8"/>
       <c r="M244" s="8"/>
@@ -22020,39 +22072,78 @@
         <v>44562</v>
       </c>
       <c r="B245" s="8">
-        <v>28281.5</v>
+        <v>28173.200000000001</v>
       </c>
       <c r="C245" s="8">
-        <v>19169.3</v>
+        <v>19087.2</v>
       </c>
       <c r="D245" s="8">
-        <v>9112.2000000000007</v>
+        <v>9086</v>
       </c>
       <c r="E245" s="8">
-        <v>4886.1000000000004</v>
+        <v>4875.3</v>
       </c>
       <c r="F245" s="8">
-        <v>4507.8999999999996</v>
+        <v>4497.3999999999996</v>
       </c>
       <c r="G245" s="8">
-        <v>378.2</v>
+        <v>377.9</v>
       </c>
       <c r="H245" s="8">
-        <v>33660</v>
+        <v>33530.9</v>
       </c>
       <c r="I245" s="8">
-        <v>22686</v>
+        <v>22588.400000000001</v>
       </c>
       <c r="J245" s="8">
-        <v>10974</v>
+        <v>10942.5</v>
       </c>
       <c r="K245" s="8">
-        <v>5385.3</v>
+        <v>5372.7</v>
       </c>
       <c r="L245" s="8"/>
       <c r="M245" s="8"/>
       <c r="N245" s="8"/>
       <c r="O245" s="8"/>
+    </row>
+    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A246" s="9">
+        <v>44593</v>
+      </c>
+      <c r="B246" s="8">
+        <v>27083.599999999999</v>
+      </c>
+      <c r="C246" s="8">
+        <v>18129.099999999999</v>
+      </c>
+      <c r="D246" s="8">
+        <v>8954.5</v>
+      </c>
+      <c r="E246" s="8">
+        <v>4467.8</v>
+      </c>
+      <c r="F246" s="8">
+        <v>4134.1000000000004</v>
+      </c>
+      <c r="G246" s="8">
+        <v>333.7</v>
+      </c>
+      <c r="H246" s="8">
+        <v>32283.200000000001</v>
+      </c>
+      <c r="I246" s="8">
+        <v>21532.799999999999</v>
+      </c>
+      <c r="J246" s="8">
+        <v>10750.4</v>
+      </c>
+      <c r="K246" s="8">
+        <v>4853.5</v>
+      </c>
+      <c r="L246" s="8"/>
+      <c r="M246" s="8"/>
+      <c r="N246" s="8"/>
+      <c r="O246" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data-raw/abs/5601.0/560101.xlsx
+++ b/data-raw/abs/5601.0/560101.xlsx
@@ -12,50 +12,50 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A108268693J">Data1!$I$1:$I$10,Data1!$I$11:$I$247</definedName>
-    <definedName name="A108268693J_Data">Data1!$I$11:$I$247</definedName>
-    <definedName name="A108268693J_Latest">Data1!$I$247</definedName>
-    <definedName name="A108271213V">Data1!$F$1:$F$10,Data1!$F$11:$F$247</definedName>
-    <definedName name="A108271213V_Data">Data1!$F$11:$F$247</definedName>
-    <definedName name="A108271213V_Latest">Data1!$F$247</definedName>
-    <definedName name="A108273775J">Data1!$J$1:$J$10,Data1!$J$11:$J$247</definedName>
-    <definedName name="A108273775J_Data">Data1!$J$11:$J$247</definedName>
-    <definedName name="A108273775J_Latest">Data1!$J$247</definedName>
-    <definedName name="A108276981A">Data1!$D$1:$D$10,Data1!$D$11:$D$247</definedName>
-    <definedName name="A108276981A_Data">Data1!$D$11:$D$247</definedName>
-    <definedName name="A108276981A_Latest">Data1!$D$247</definedName>
-    <definedName name="A108277457X">Data1!$K$1:$K$10,Data1!$K$11:$K$247</definedName>
-    <definedName name="A108277457X_Data">Data1!$K$11:$K$247</definedName>
-    <definedName name="A108277457X_Latest">Data1!$K$247</definedName>
-    <definedName name="A108284387K">Data1!$N$1:$N$10,Data1!$N$11:$N$247</definedName>
-    <definedName name="A108284387K_Data">Data1!$N$11:$N$247</definedName>
-    <definedName name="A108284387K_Latest">Data1!$N$247</definedName>
-    <definedName name="A108284569X">Data1!$L$1:$L$10,Data1!$L$11:$L$247</definedName>
-    <definedName name="A108284569X_Data">Data1!$L$11:$L$247</definedName>
-    <definedName name="A108284569X_Latest">Data1!$L$247</definedName>
-    <definedName name="A108292360K">Data1!$O$1:$O$10,Data1!$O$11:$O$247</definedName>
-    <definedName name="A108292360K_Data">Data1!$O$11:$O$247</definedName>
-    <definedName name="A108292360K_Latest">Data1!$O$247</definedName>
-    <definedName name="A108292822T">Data1!$M$1:$M$10,Data1!$M$11:$M$247</definedName>
-    <definedName name="A108292822T_Data">Data1!$M$11:$M$247</definedName>
-    <definedName name="A108292822T_Latest">Data1!$M$247</definedName>
-    <definedName name="A108294614K">Data1!$G$1:$G$10,Data1!$G$215:$G$247</definedName>
-    <definedName name="A108294614K_Data">Data1!$G$215:$G$247</definedName>
-    <definedName name="A108294614K_Latest">Data1!$G$247</definedName>
-    <definedName name="A108295286C">Data1!$B$1:$B$10,Data1!$B$11:$B$247</definedName>
-    <definedName name="A108295286C_Data">Data1!$B$11:$B$247</definedName>
-    <definedName name="A108295286C_Latest">Data1!$B$247</definedName>
-    <definedName name="A108296973X">Data1!$H$1:$H$10,Data1!$H$11:$H$247</definedName>
-    <definedName name="A108296973X_Data">Data1!$H$11:$H$247</definedName>
-    <definedName name="A108296973X_Latest">Data1!$H$247</definedName>
-    <definedName name="A108299115J">Data1!$C$1:$C$10,Data1!$C$11:$C$247</definedName>
-    <definedName name="A108299115J_Data">Data1!$C$11:$C$247</definedName>
-    <definedName name="A108299115J_Latest">Data1!$C$247</definedName>
-    <definedName name="A108299885C">Data1!$E$1:$E$10,Data1!$E$215:$E$247</definedName>
-    <definedName name="A108299885C_Data">Data1!$E$215:$E$247</definedName>
-    <definedName name="A108299885C_Latest">Data1!$E$247</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$247</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$247</definedName>
+    <definedName name="A108268693J">Data1!$I$1:$I$10,Data1!$I$11:$I$248</definedName>
+    <definedName name="A108268693J_Data">Data1!$I$11:$I$248</definedName>
+    <definedName name="A108268693J_Latest">Data1!$I$248</definedName>
+    <definedName name="A108271213V">Data1!$F$1:$F$10,Data1!$F$11:$F$248</definedName>
+    <definedName name="A108271213V_Data">Data1!$F$11:$F$248</definedName>
+    <definedName name="A108271213V_Latest">Data1!$F$248</definedName>
+    <definedName name="A108273775J">Data1!$J$1:$J$10,Data1!$J$11:$J$248</definedName>
+    <definedName name="A108273775J_Data">Data1!$J$11:$J$248</definedName>
+    <definedName name="A108273775J_Latest">Data1!$J$248</definedName>
+    <definedName name="A108276981A">Data1!$D$1:$D$10,Data1!$D$11:$D$248</definedName>
+    <definedName name="A108276981A_Data">Data1!$D$11:$D$248</definedName>
+    <definedName name="A108276981A_Latest">Data1!$D$248</definedName>
+    <definedName name="A108277457X">Data1!$K$1:$K$10,Data1!$K$11:$K$248</definedName>
+    <definedName name="A108277457X_Data">Data1!$K$11:$K$248</definedName>
+    <definedName name="A108277457X_Latest">Data1!$K$248</definedName>
+    <definedName name="A108284387K">Data1!$N$1:$N$10,Data1!$N$11:$N$248</definedName>
+    <definedName name="A108284387K_Data">Data1!$N$11:$N$248</definedName>
+    <definedName name="A108284387K_Latest">Data1!$N$248</definedName>
+    <definedName name="A108284569X">Data1!$L$1:$L$10,Data1!$L$11:$L$248</definedName>
+    <definedName name="A108284569X_Data">Data1!$L$11:$L$248</definedName>
+    <definedName name="A108284569X_Latest">Data1!$L$248</definedName>
+    <definedName name="A108292360K">Data1!$O$1:$O$10,Data1!$O$11:$O$248</definedName>
+    <definedName name="A108292360K_Data">Data1!$O$11:$O$248</definedName>
+    <definedName name="A108292360K_Latest">Data1!$O$248</definedName>
+    <definedName name="A108292822T">Data1!$M$1:$M$10,Data1!$M$11:$M$248</definedName>
+    <definedName name="A108292822T_Data">Data1!$M$11:$M$248</definedName>
+    <definedName name="A108292822T_Latest">Data1!$M$248</definedName>
+    <definedName name="A108294614K">Data1!$G$1:$G$10,Data1!$G$215:$G$248</definedName>
+    <definedName name="A108294614K_Data">Data1!$G$215:$G$248</definedName>
+    <definedName name="A108294614K_Latest">Data1!$G$248</definedName>
+    <definedName name="A108295286C">Data1!$B$1:$B$10,Data1!$B$11:$B$248</definedName>
+    <definedName name="A108295286C_Data">Data1!$B$11:$B$248</definedName>
+    <definedName name="A108295286C_Latest">Data1!$B$248</definedName>
+    <definedName name="A108296973X">Data1!$H$1:$H$10,Data1!$H$11:$H$248</definedName>
+    <definedName name="A108296973X_Data">Data1!$H$11:$H$248</definedName>
+    <definedName name="A108296973X_Latest">Data1!$H$248</definedName>
+    <definedName name="A108299115J">Data1!$C$1:$C$10,Data1!$C$11:$C$248</definedName>
+    <definedName name="A108299115J_Data">Data1!$C$11:$C$248</definedName>
+    <definedName name="A108299115J_Latest">Data1!$C$248</definedName>
+    <definedName name="A108299885C">Data1!$E$1:$E$10,Data1!$E$215:$E$248</definedName>
+    <definedName name="A108299885C_Data">Data1!$E$215:$E$248</definedName>
+    <definedName name="A108299885C_Latest">Data1!$E$248</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$248</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$248</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -12417,6 +12417,58 @@
       </text>
     </comment>
     <comment ref="O247" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L248" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M248" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N248" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O248" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13268,10 +13320,10 @@
         <v>37438</v>
       </c>
       <c r="G12" s="9">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="H12" s="10">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>15</v>
@@ -13300,10 +13352,10 @@
         <v>37438</v>
       </c>
       <c r="G13" s="9">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="H13" s="10">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>15</v>
@@ -13332,10 +13384,10 @@
         <v>37438</v>
       </c>
       <c r="G14" s="9">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="H14" s="10">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>15</v>
@@ -13364,10 +13416,10 @@
         <v>43647</v>
       </c>
       <c r="G15" s="9">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="H15" s="10">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>15</v>
@@ -13396,10 +13448,10 @@
         <v>37438</v>
       </c>
       <c r="G16" s="9">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="H16" s="10">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>15</v>
@@ -13428,10 +13480,10 @@
         <v>43647</v>
       </c>
       <c r="G17" s="9">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="H17" s="10">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>15</v>
@@ -13460,10 +13512,10 @@
         <v>37438</v>
       </c>
       <c r="G18" s="9">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="H18" s="10">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>15</v>
@@ -13492,10 +13544,10 @@
         <v>37438</v>
       </c>
       <c r="G19" s="9">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="H19" s="10">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>15</v>
@@ -13524,10 +13576,10 @@
         <v>37438</v>
       </c>
       <c r="G20" s="9">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="H20" s="10">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>15</v>
@@ -13556,10 +13608,10 @@
         <v>37438</v>
       </c>
       <c r="G21" s="9">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="H21" s="10">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>15</v>
@@ -13588,10 +13640,10 @@
         <v>37438</v>
       </c>
       <c r="G22" s="9">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="H22" s="10">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>15</v>
@@ -13620,10 +13672,10 @@
         <v>37438</v>
       </c>
       <c r="G23" s="9">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="H23" s="10">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>15</v>
@@ -13652,10 +13704,10 @@
         <v>37438</v>
       </c>
       <c r="G24" s="9">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="H24" s="10">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>15</v>
@@ -13684,10 +13736,10 @@
         <v>37438</v>
       </c>
       <c r="G25" s="9">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="H25" s="10">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>15</v>
@@ -13736,7 +13788,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O247"/>
+  <dimension ref="A1:O248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -14081,46 +14133,46 @@
         <v>12</v>
       </c>
       <c r="B8" s="6">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="C8" s="6">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="D8" s="6">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="E8" s="6">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="F8" s="6">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="G8" s="6">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="H8" s="6">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="I8" s="6">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="J8" s="6">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="K8" s="6">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="L8" s="6">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="M8" s="6">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="N8" s="6">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="O8" s="6">
-        <v>44621</v>
+        <v>44652</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -14128,46 +14180,46 @@
         <v>13</v>
       </c>
       <c r="B9" s="1">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C9" s="1">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D9" s="1">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E9" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F9" s="1">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G9" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H9" s="1">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I9" s="1">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J9" s="1">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K9" s="1">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L9" s="1">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M9" s="1">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N9" s="1">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O9" s="1">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -14234,16 +14286,16 @@
         <v>1597.6</v>
       </c>
       <c r="H11" s="8">
-        <v>10003.700000000001</v>
+        <v>10002.1</v>
       </c>
       <c r="I11" s="8">
-        <v>6025.1</v>
+        <v>6023.6</v>
       </c>
       <c r="J11" s="8">
         <v>3978.6</v>
       </c>
       <c r="K11" s="8">
-        <v>1466.4</v>
+        <v>1466.1</v>
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
@@ -14267,16 +14319,16 @@
         <v>1456.1</v>
       </c>
       <c r="H12" s="8">
-        <v>9981.7999999999993</v>
+        <v>9982</v>
       </c>
       <c r="I12" s="8">
-        <v>5986.3</v>
+        <v>5986.6</v>
       </c>
       <c r="J12" s="8">
         <v>3995.4</v>
       </c>
       <c r="K12" s="8">
-        <v>1387.3</v>
+        <v>1387.5</v>
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
@@ -14300,16 +14352,16 @@
         <v>1323.8</v>
       </c>
       <c r="H13" s="8">
-        <v>10073.5</v>
+        <v>10073.700000000001</v>
       </c>
       <c r="I13" s="8">
-        <v>6037</v>
+        <v>6037.1</v>
       </c>
       <c r="J13" s="8">
         <v>4036.5</v>
       </c>
       <c r="K13" s="8">
-        <v>1327.4</v>
+        <v>1327.3</v>
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
@@ -14333,10 +14385,10 @@
         <v>1451.5</v>
       </c>
       <c r="H14" s="8">
-        <v>10235.9</v>
+        <v>10236.1</v>
       </c>
       <c r="I14" s="8">
-        <v>6192.3</v>
+        <v>6192.5</v>
       </c>
       <c r="J14" s="8">
         <v>4043.6</v>
@@ -14366,16 +14418,16 @@
         <v>1371.6</v>
       </c>
       <c r="H15" s="8">
-        <v>10323.9</v>
+        <v>10323.6</v>
       </c>
       <c r="I15" s="8">
-        <v>6260.3</v>
+        <v>6260</v>
       </c>
       <c r="J15" s="8">
         <v>4063.6</v>
       </c>
       <c r="K15" s="8">
-        <v>1307.5</v>
+        <v>1307.2</v>
       </c>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
@@ -14399,16 +14451,16 @@
         <v>1296</v>
       </c>
       <c r="H16" s="8">
-        <v>10722.2</v>
+        <v>10723</v>
       </c>
       <c r="I16" s="8">
-        <v>6484.3</v>
+        <v>6485.1</v>
       </c>
       <c r="J16" s="8">
         <v>4237.8999999999996</v>
       </c>
       <c r="K16" s="8">
-        <v>1305</v>
+        <v>1305.0999999999999</v>
       </c>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
@@ -14432,16 +14484,16 @@
         <v>1178.3</v>
       </c>
       <c r="H17" s="8">
-        <v>11336.4</v>
+        <v>11334.7</v>
       </c>
       <c r="I17" s="8">
-        <v>7024.7</v>
+        <v>7023</v>
       </c>
       <c r="J17" s="8">
         <v>4311.7</v>
       </c>
       <c r="K17" s="8">
-        <v>1369.3</v>
+        <v>1369.9</v>
       </c>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
@@ -14465,16 +14517,16 @@
         <v>1268.5</v>
       </c>
       <c r="H18" s="8">
-        <v>11599.9</v>
+        <v>11599.4</v>
       </c>
       <c r="I18" s="8">
-        <v>7012.8</v>
+        <v>7012.3</v>
       </c>
       <c r="J18" s="8">
         <v>4587.2</v>
       </c>
       <c r="K18" s="8">
-        <v>1411.2</v>
+        <v>1411.4</v>
       </c>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
@@ -14498,16 +14550,16 @@
         <v>1425.3</v>
       </c>
       <c r="H19" s="8">
-        <v>11565.7</v>
+        <v>11567.9</v>
       </c>
       <c r="I19" s="8">
-        <v>6927.3</v>
+        <v>6929.4</v>
       </c>
       <c r="J19" s="8">
         <v>4638.3999999999996</v>
       </c>
       <c r="K19" s="8">
-        <v>1433.8</v>
+        <v>1433.6</v>
       </c>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
@@ -14531,16 +14583,16 @@
         <v>1366.7</v>
       </c>
       <c r="H20" s="8">
-        <v>12017.2</v>
+        <v>12017</v>
       </c>
       <c r="I20" s="8">
-        <v>7244</v>
+        <v>7243.7</v>
       </c>
       <c r="J20" s="8">
         <v>4773.3</v>
       </c>
       <c r="K20" s="8">
-        <v>1422.2</v>
+        <v>1422.3</v>
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
@@ -14564,16 +14616,16 @@
         <v>1475.9</v>
       </c>
       <c r="H21" s="8">
-        <v>12351.7</v>
+        <v>12352.6</v>
       </c>
       <c r="I21" s="8">
-        <v>7362.5</v>
+        <v>7363.3</v>
       </c>
       <c r="J21" s="8">
         <v>4989.3</v>
       </c>
       <c r="K21" s="8">
-        <v>1399.4</v>
+        <v>1399.1</v>
       </c>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
@@ -14597,16 +14649,16 @@
         <v>1383.8</v>
       </c>
       <c r="H22" s="8">
-        <v>12620.5</v>
+        <v>12622.3</v>
       </c>
       <c r="I22" s="8">
-        <v>7617</v>
+        <v>7618.7</v>
       </c>
       <c r="J22" s="8">
-        <v>5003.5</v>
+        <v>5003.6000000000004</v>
       </c>
       <c r="K22" s="8">
-        <v>1419.8</v>
+        <v>1419.7</v>
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
@@ -14630,10 +14682,10 @@
         <v>1571.6</v>
       </c>
       <c r="H23" s="8">
-        <v>13571.3</v>
+        <v>13567.6</v>
       </c>
       <c r="I23" s="8">
-        <v>7807.3</v>
+        <v>7803.6</v>
       </c>
       <c r="J23" s="8">
         <v>5764</v>
@@ -14696,10 +14748,10 @@
         <v>1579.6</v>
       </c>
       <c r="H25" s="8">
-        <v>14227.7</v>
+        <v>14228.2</v>
       </c>
       <c r="I25" s="8">
-        <v>8019.9</v>
+        <v>8020.4</v>
       </c>
       <c r="J25" s="8">
         <v>6207.7</v>
@@ -14729,16 +14781,16 @@
         <v>1607.3</v>
       </c>
       <c r="H26" s="8">
-        <v>14435.8</v>
+        <v>14434.8</v>
       </c>
       <c r="I26" s="8">
-        <v>8047.3</v>
+        <v>8046.4</v>
       </c>
       <c r="J26" s="8">
-        <v>6388.5</v>
+        <v>6388.4</v>
       </c>
       <c r="K26" s="8">
-        <v>1474.6</v>
+        <v>1474.3</v>
       </c>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
@@ -14762,16 +14814,16 @@
         <v>1423.7</v>
       </c>
       <c r="H27" s="8">
-        <v>13992.4</v>
+        <v>13992.8</v>
       </c>
       <c r="I27" s="8">
-        <v>7857.7</v>
+        <v>7858.2</v>
       </c>
       <c r="J27" s="8">
         <v>6134.7</v>
       </c>
       <c r="K27" s="8">
-        <v>1416.9</v>
+        <v>1416.8</v>
       </c>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
@@ -14795,10 +14847,10 @@
         <v>1427</v>
       </c>
       <c r="H28" s="8">
-        <v>13298.1</v>
+        <v>13298.4</v>
       </c>
       <c r="I28" s="8">
-        <v>7459.3</v>
+        <v>7459.6</v>
       </c>
       <c r="J28" s="8">
         <v>5838.8</v>
@@ -14828,16 +14880,16 @@
         <v>1080.8</v>
       </c>
       <c r="H29" s="8">
-        <v>12285</v>
+        <v>12285.4</v>
       </c>
       <c r="I29" s="8">
-        <v>6997.7</v>
+        <v>6998.1</v>
       </c>
       <c r="J29" s="8">
-        <v>5287.3</v>
+        <v>5287.2</v>
       </c>
       <c r="K29" s="8">
-        <v>1307.7</v>
+        <v>1308.4000000000001</v>
       </c>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
@@ -14861,10 +14913,10 @@
         <v>1131.0999999999999</v>
       </c>
       <c r="H30" s="8">
-        <v>12318.1</v>
+        <v>12317.1</v>
       </c>
       <c r="I30" s="8">
-        <v>7071.2</v>
+        <v>7070.3</v>
       </c>
       <c r="J30" s="8">
         <v>5246.8</v>
@@ -14894,10 +14946,10 @@
         <v>1371.6</v>
       </c>
       <c r="H31" s="8">
-        <v>12452.9</v>
+        <v>12453.4</v>
       </c>
       <c r="I31" s="8">
-        <v>7170.8</v>
+        <v>7171.4</v>
       </c>
       <c r="J31" s="8">
         <v>5282</v>
@@ -14927,16 +14979,16 @@
         <v>1295.0999999999999</v>
       </c>
       <c r="H32" s="8">
-        <v>12486.5</v>
+        <v>12487.2</v>
       </c>
       <c r="I32" s="8">
-        <v>7240.5</v>
+        <v>7241.2</v>
       </c>
       <c r="J32" s="8">
         <v>5246</v>
       </c>
       <c r="K32" s="8">
-        <v>1350.8</v>
+        <v>1350.6</v>
       </c>
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
@@ -14960,16 +15012,16 @@
         <v>1473.5</v>
       </c>
       <c r="H33" s="8">
-        <v>12347.4</v>
+        <v>12350</v>
       </c>
       <c r="I33" s="8">
-        <v>7270.9</v>
+        <v>7273.5</v>
       </c>
       <c r="J33" s="8">
         <v>5076.5</v>
       </c>
       <c r="K33" s="8">
-        <v>1454.4</v>
+        <v>1454.1</v>
       </c>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
@@ -14993,16 +15045,16 @@
         <v>1536.3</v>
       </c>
       <c r="H34" s="8">
-        <v>11800.1</v>
+        <v>11799.5</v>
       </c>
       <c r="I34" s="8">
-        <v>7256.4</v>
+        <v>7255.6</v>
       </c>
       <c r="J34" s="8">
-        <v>4543.7</v>
+        <v>4543.8</v>
       </c>
       <c r="K34" s="8">
-        <v>1501.4</v>
+        <v>1501.7</v>
       </c>
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
@@ -15026,16 +15078,16 @@
         <v>1650.8</v>
       </c>
       <c r="H35" s="8">
-        <v>12016.6</v>
+        <v>12014.4</v>
       </c>
       <c r="I35" s="8">
-        <v>7320.5</v>
+        <v>7318.3</v>
       </c>
       <c r="J35" s="8">
         <v>4696.1000000000004</v>
       </c>
       <c r="K35" s="8">
-        <v>1584.2</v>
+        <v>1583.7</v>
       </c>
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
@@ -15059,16 +15111,16 @@
         <v>1732</v>
       </c>
       <c r="H36" s="8">
-        <v>12053.1</v>
+        <v>12054</v>
       </c>
       <c r="I36" s="8">
-        <v>7397.8</v>
+        <v>7398.6</v>
       </c>
       <c r="J36" s="8">
         <v>4655.3999999999996</v>
       </c>
       <c r="K36" s="8">
-        <v>1681.8</v>
+        <v>1682.3</v>
       </c>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
@@ -15092,16 +15144,16 @@
         <v>1729.9</v>
       </c>
       <c r="H37" s="8">
-        <v>12217.6</v>
+        <v>12217.3</v>
       </c>
       <c r="I37" s="8">
-        <v>7419.5</v>
+        <v>7419.1</v>
       </c>
       <c r="J37" s="8">
         <v>4798.2</v>
       </c>
       <c r="K37" s="8">
-        <v>1670.3</v>
+        <v>1670.4</v>
       </c>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
@@ -15125,16 +15177,16 @@
         <v>1649.5</v>
       </c>
       <c r="H38" s="8">
-        <v>11970.8</v>
+        <v>11970.3</v>
       </c>
       <c r="I38" s="8">
-        <v>7429</v>
+        <v>7428.5</v>
       </c>
       <c r="J38" s="8">
-        <v>4541.8999999999996</v>
+        <v>4541.8</v>
       </c>
       <c r="K38" s="8">
-        <v>1638.6</v>
+        <v>1638</v>
       </c>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
@@ -15158,10 +15210,10 @@
         <v>1848.5</v>
       </c>
       <c r="H39" s="8">
-        <v>12560.5</v>
+        <v>12561.1</v>
       </c>
       <c r="I39" s="8">
-        <v>7682.5</v>
+        <v>7683.1</v>
       </c>
       <c r="J39" s="8">
         <v>4878</v>
@@ -15191,16 +15243,16 @@
         <v>1880.9</v>
       </c>
       <c r="H40" s="8">
-        <v>12913.8</v>
+        <v>12912.3</v>
       </c>
       <c r="I40" s="8">
-        <v>7902.1</v>
+        <v>7900.6</v>
       </c>
       <c r="J40" s="8">
         <v>5011.7</v>
       </c>
       <c r="K40" s="8">
-        <v>1784.9</v>
+        <v>1784.6</v>
       </c>
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
@@ -15224,16 +15276,16 @@
         <v>1501.7</v>
       </c>
       <c r="H41" s="8">
-        <v>13234.4</v>
+        <v>13236.7</v>
       </c>
       <c r="I41" s="8">
-        <v>8106.8</v>
+        <v>8109.2</v>
       </c>
       <c r="J41" s="8">
         <v>5127.6000000000004</v>
       </c>
       <c r="K41" s="8">
-        <v>1894.9</v>
+        <v>1896.3</v>
       </c>
       <c r="L41" s="8"/>
       <c r="M41" s="8"/>
@@ -15257,16 +15309,16 @@
         <v>1750.9</v>
       </c>
       <c r="H42" s="8">
-        <v>13826.1</v>
+        <v>13825.2</v>
       </c>
       <c r="I42" s="8">
-        <v>8491.2000000000007</v>
+        <v>8490.2999999999993</v>
       </c>
       <c r="J42" s="8">
         <v>5334.9</v>
       </c>
       <c r="K42" s="8">
-        <v>1946.5</v>
+        <v>1946.6</v>
       </c>
       <c r="L42" s="8"/>
       <c r="M42" s="8"/>
@@ -15290,10 +15342,10 @@
         <v>1936.4</v>
       </c>
       <c r="H43" s="8">
-        <v>13520.4</v>
+        <v>13521.6</v>
       </c>
       <c r="I43" s="8">
-        <v>8233.7000000000007</v>
+        <v>8235</v>
       </c>
       <c r="J43" s="8">
         <v>5286.6</v>
@@ -15323,16 +15375,16 @@
         <v>1893.6</v>
       </c>
       <c r="H44" s="8">
-        <v>13308.8</v>
+        <v>13309.4</v>
       </c>
       <c r="I44" s="8">
-        <v>8146.8</v>
+        <v>8147.5</v>
       </c>
       <c r="J44" s="8">
         <v>5162</v>
       </c>
       <c r="K44" s="8">
-        <v>1921.4</v>
+        <v>1921</v>
       </c>
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
@@ -15356,16 +15408,16 @@
         <v>2097.3000000000002</v>
       </c>
       <c r="H45" s="8">
-        <v>12680</v>
+        <v>12681</v>
       </c>
       <c r="I45" s="8">
-        <v>7977.2</v>
+        <v>7978.1</v>
       </c>
       <c r="J45" s="8">
         <v>4702.8999999999996</v>
       </c>
       <c r="K45" s="8">
-        <v>1988.8</v>
+        <v>1988.5</v>
       </c>
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
@@ -15389,16 +15441,16 @@
         <v>2070.3000000000002</v>
       </c>
       <c r="H46" s="8">
-        <v>12686.8</v>
+        <v>12687</v>
       </c>
       <c r="I46" s="8">
-        <v>8153.7</v>
+        <v>8153.9</v>
       </c>
       <c r="J46" s="8">
-        <v>4533</v>
+        <v>4533.1000000000004</v>
       </c>
       <c r="K46" s="8">
-        <v>2025.4</v>
+        <v>2025.9</v>
       </c>
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
@@ -15422,16 +15474,16 @@
         <v>1975</v>
       </c>
       <c r="H47" s="8">
-        <v>12826.8</v>
+        <v>12823.1</v>
       </c>
       <c r="I47" s="8">
-        <v>8079.7</v>
+        <v>8076.1</v>
       </c>
       <c r="J47" s="8">
-        <v>4747.1000000000004</v>
+        <v>4747</v>
       </c>
       <c r="K47" s="8">
-        <v>1973.5</v>
+        <v>1972.5</v>
       </c>
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
@@ -15464,7 +15516,7 @@
         <v>4591.8</v>
       </c>
       <c r="K48" s="8">
-        <v>2111.6</v>
+        <v>2112.6999999999998</v>
       </c>
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
@@ -15488,16 +15540,16 @@
         <v>2287.1999999999998</v>
       </c>
       <c r="H49" s="8">
-        <v>13519.1</v>
+        <v>13518.7</v>
       </c>
       <c r="I49" s="8">
-        <v>8634.9</v>
+        <v>8634.6</v>
       </c>
       <c r="J49" s="8">
         <v>4884.2</v>
       </c>
       <c r="K49" s="8">
-        <v>2214.6</v>
+        <v>2214</v>
       </c>
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
@@ -15521,16 +15573,16 @@
         <v>2231.1999999999998</v>
       </c>
       <c r="H50" s="8">
-        <v>14033.6</v>
+        <v>14036.4</v>
       </c>
       <c r="I50" s="8">
-        <v>8732.4</v>
+        <v>8735.2000000000007</v>
       </c>
       <c r="J50" s="8">
         <v>5301.2</v>
       </c>
       <c r="K50" s="8">
-        <v>2228.4</v>
+        <v>2228.3000000000002</v>
       </c>
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
@@ -15554,16 +15606,16 @@
         <v>2565.9</v>
       </c>
       <c r="H51" s="8">
-        <v>14059.5</v>
+        <v>14056.1</v>
       </c>
       <c r="I51" s="8">
-        <v>8857.5</v>
+        <v>8854.2000000000007</v>
       </c>
       <c r="J51" s="8">
-        <v>5202</v>
+        <v>5201.8999999999996</v>
       </c>
       <c r="K51" s="8">
-        <v>2340</v>
+        <v>2340.4</v>
       </c>
       <c r="L51" s="8"/>
       <c r="M51" s="8"/>
@@ -15587,16 +15639,16 @@
         <v>2373.6</v>
       </c>
       <c r="H52" s="8">
-        <v>14057.9</v>
+        <v>14059</v>
       </c>
       <c r="I52" s="8">
-        <v>8902.6</v>
+        <v>8903.7000000000007</v>
       </c>
       <c r="J52" s="8">
         <v>5155.3</v>
       </c>
       <c r="K52" s="8">
-        <v>2339.8000000000002</v>
+        <v>2339.1</v>
       </c>
       <c r="L52" s="8"/>
       <c r="M52" s="8"/>
@@ -15620,16 +15672,16 @@
         <v>1931.4</v>
       </c>
       <c r="H53" s="8">
-        <v>14278.8</v>
+        <v>14277.5</v>
       </c>
       <c r="I53" s="8">
-        <v>8966</v>
+        <v>8964.6</v>
       </c>
       <c r="J53" s="8">
         <v>5312.9</v>
       </c>
       <c r="K53" s="8">
-        <v>2331.8000000000002</v>
+        <v>2333.1999999999998</v>
       </c>
       <c r="L53" s="8"/>
       <c r="M53" s="8"/>
@@ -15653,10 +15705,10 @@
         <v>2164.9</v>
       </c>
       <c r="H54" s="8">
-        <v>14424.7</v>
+        <v>14423.6</v>
       </c>
       <c r="I54" s="8">
-        <v>9176.2000000000007</v>
+        <v>9175.2000000000007</v>
       </c>
       <c r="J54" s="8">
         <v>5248.5</v>
@@ -15686,16 +15738,16 @@
         <v>2730.2</v>
       </c>
       <c r="H55" s="8">
-        <v>14577.9</v>
+        <v>14581.8</v>
       </c>
       <c r="I55" s="8">
-        <v>9298.1</v>
+        <v>9301.9</v>
       </c>
       <c r="J55" s="8">
         <v>5279.8</v>
       </c>
       <c r="K55" s="8">
-        <v>2551.1999999999998</v>
+        <v>2550.5</v>
       </c>
       <c r="L55" s="8"/>
       <c r="M55" s="8"/>
@@ -15719,16 +15771,16 @@
         <v>2267</v>
       </c>
       <c r="H56" s="8">
-        <v>14509</v>
+        <v>14509.6</v>
       </c>
       <c r="I56" s="8">
-        <v>9258.7000000000007</v>
+        <v>9259.2000000000007</v>
       </c>
       <c r="J56" s="8">
-        <v>5250.3</v>
+        <v>5250.4</v>
       </c>
       <c r="K56" s="8">
-        <v>2553.3000000000002</v>
+        <v>2552.9</v>
       </c>
       <c r="L56" s="8"/>
       <c r="M56" s="8"/>
@@ -15752,16 +15804,16 @@
         <v>2744.9</v>
       </c>
       <c r="H57" s="8">
-        <v>15404.1</v>
+        <v>15405.9</v>
       </c>
       <c r="I57" s="8">
-        <v>9641.7000000000007</v>
+        <v>9643.5</v>
       </c>
       <c r="J57" s="8">
-        <v>5762.5</v>
+        <v>5762.4</v>
       </c>
       <c r="K57" s="8">
-        <v>2484.6999999999998</v>
+        <v>2485.3000000000002</v>
       </c>
       <c r="L57" s="8"/>
       <c r="M57" s="8"/>
@@ -15785,16 +15837,16 @@
         <v>2502.4</v>
       </c>
       <c r="H58" s="8">
-        <v>15543.1</v>
+        <v>15542.3</v>
       </c>
       <c r="I58" s="8">
-        <v>9513.2000000000007</v>
+        <v>9512.4</v>
       </c>
       <c r="J58" s="8">
-        <v>6029.8</v>
+        <v>6029.9</v>
       </c>
       <c r="K58" s="8">
-        <v>2443.6999999999998</v>
+        <v>2443.1</v>
       </c>
       <c r="L58" s="8"/>
       <c r="M58" s="8"/>
@@ -15818,16 +15870,16 @@
         <v>2419.1</v>
       </c>
       <c r="H59" s="8">
-        <v>15256.3</v>
+        <v>15256.5</v>
       </c>
       <c r="I59" s="8">
-        <v>9769.2999999999993</v>
+        <v>9769.5</v>
       </c>
       <c r="J59" s="8">
-        <v>5487.1</v>
+        <v>5487</v>
       </c>
       <c r="K59" s="8">
-        <v>2455.6</v>
+        <v>2455.1</v>
       </c>
       <c r="L59" s="8"/>
       <c r="M59" s="8"/>
@@ -15851,16 +15903,16 @@
         <v>2436.4</v>
       </c>
       <c r="H60" s="8">
-        <v>15039.8</v>
+        <v>15038.6</v>
       </c>
       <c r="I60" s="8">
-        <v>9518.1</v>
+        <v>9516.7999999999993</v>
       </c>
       <c r="J60" s="8">
         <v>5521.7</v>
       </c>
       <c r="K60" s="8">
-        <v>2290.5</v>
+        <v>2291.6999999999998</v>
       </c>
       <c r="L60" s="8"/>
       <c r="M60" s="8"/>
@@ -15884,16 +15936,16 @@
         <v>2413.4</v>
       </c>
       <c r="H61" s="8">
-        <v>14166.1</v>
+        <v>14166.4</v>
       </c>
       <c r="I61" s="8">
-        <v>9178</v>
+        <v>9178.2000000000007</v>
       </c>
       <c r="J61" s="8">
         <v>4988.1000000000004</v>
       </c>
       <c r="K61" s="8">
-        <v>2421.5</v>
+        <v>2421.1999999999998</v>
       </c>
       <c r="L61" s="8"/>
       <c r="M61" s="8"/>
@@ -15917,16 +15969,16 @@
         <v>2524.3000000000002</v>
       </c>
       <c r="H62" s="8">
-        <v>14329.4</v>
+        <v>14328.4</v>
       </c>
       <c r="I62" s="8">
-        <v>9292.7000000000007</v>
+        <v>9291.7000000000007</v>
       </c>
       <c r="J62" s="8">
-        <v>5036.7</v>
+        <v>5036.8</v>
       </c>
       <c r="K62" s="8">
-        <v>2413.6999999999998</v>
+        <v>2413.5</v>
       </c>
       <c r="L62" s="8"/>
       <c r="M62" s="8"/>
@@ -15950,16 +16002,16 @@
         <v>2637.9</v>
       </c>
       <c r="H63" s="8">
-        <v>14199</v>
+        <v>14197.9</v>
       </c>
       <c r="I63" s="8">
-        <v>9227.2000000000007</v>
+        <v>9226.1</v>
       </c>
       <c r="J63" s="8">
-        <v>4971.8</v>
+        <v>4971.8999999999996</v>
       </c>
       <c r="K63" s="8">
-        <v>2410.6999999999998</v>
+        <v>2411.1999999999998</v>
       </c>
       <c r="L63" s="8"/>
       <c r="M63" s="8"/>
@@ -15983,16 +16035,16 @@
         <v>2366.6999999999998</v>
       </c>
       <c r="H64" s="8">
-        <v>14610.5</v>
+        <v>14608.6</v>
       </c>
       <c r="I64" s="8">
-        <v>9429.7000000000007</v>
+        <v>9427.7999999999993</v>
       </c>
       <c r="J64" s="8">
         <v>5180.7</v>
       </c>
       <c r="K64" s="8">
-        <v>2407.5</v>
+        <v>2405.9</v>
       </c>
       <c r="L64" s="8"/>
       <c r="M64" s="8"/>
@@ -16016,16 +16068,16 @@
         <v>2055</v>
       </c>
       <c r="H65" s="8">
-        <v>14927.4</v>
+        <v>14925.9</v>
       </c>
       <c r="I65" s="8">
-        <v>9543.7000000000007</v>
+        <v>9542.2000000000007</v>
       </c>
       <c r="J65" s="8">
         <v>5383.7</v>
       </c>
       <c r="K65" s="8">
-        <v>2389.9</v>
+        <v>2392.1999999999998</v>
       </c>
       <c r="L65" s="8"/>
       <c r="M65" s="8"/>
@@ -16049,16 +16101,16 @@
         <v>2229.6999999999998</v>
       </c>
       <c r="H66" s="8">
-        <v>15398.5</v>
+        <v>15397.2</v>
       </c>
       <c r="I66" s="8">
-        <v>9765.7000000000007</v>
+        <v>9764.2999999999993</v>
       </c>
       <c r="J66" s="8">
         <v>5632.9</v>
       </c>
       <c r="K66" s="8">
-        <v>2488.9</v>
+        <v>2489</v>
       </c>
       <c r="L66" s="8"/>
       <c r="M66" s="8"/>
@@ -16082,16 +16134,16 @@
         <v>2638.2</v>
       </c>
       <c r="H67" s="8">
-        <v>15897.4</v>
+        <v>15906.3</v>
       </c>
       <c r="I67" s="8">
-        <v>10068.6</v>
+        <v>10077.6</v>
       </c>
       <c r="J67" s="8">
         <v>5828.8</v>
       </c>
       <c r="K67" s="8">
-        <v>2576.1999999999998</v>
+        <v>2575</v>
       </c>
       <c r="L67" s="8"/>
       <c r="M67" s="8"/>
@@ -16115,16 +16167,16 @@
         <v>2413.4</v>
       </c>
       <c r="H68" s="8">
-        <v>16362.7</v>
+        <v>16363.6</v>
       </c>
       <c r="I68" s="8">
-        <v>10321.6</v>
+        <v>10322.4</v>
       </c>
       <c r="J68" s="8">
-        <v>6041.1</v>
+        <v>6041.2</v>
       </c>
       <c r="K68" s="8">
-        <v>2631.8</v>
+        <v>2630.5</v>
       </c>
       <c r="L68" s="8"/>
       <c r="M68" s="8"/>
@@ -16148,16 +16200,16 @@
         <v>2927.7</v>
       </c>
       <c r="H69" s="8">
-        <v>17051.7</v>
+        <v>17053</v>
       </c>
       <c r="I69" s="8">
-        <v>10647.3</v>
+        <v>10648.7</v>
       </c>
       <c r="J69" s="8">
-        <v>6404.4</v>
+        <v>6404.3</v>
       </c>
       <c r="K69" s="8">
-        <v>2616.5</v>
+        <v>2618.1</v>
       </c>
       <c r="L69" s="8"/>
       <c r="M69" s="8"/>
@@ -16181,16 +16233,16 @@
         <v>2741.1</v>
       </c>
       <c r="H70" s="8">
-        <v>18302.400000000001</v>
+        <v>18301.400000000001</v>
       </c>
       <c r="I70" s="8">
-        <v>11355.9</v>
+        <v>11355</v>
       </c>
       <c r="J70" s="8">
-        <v>6946.5</v>
+        <v>6946.4</v>
       </c>
       <c r="K70" s="8">
-        <v>2769</v>
+        <v>2768.3</v>
       </c>
       <c r="L70" s="8"/>
       <c r="M70" s="8"/>
@@ -16214,16 +16266,16 @@
         <v>2792</v>
       </c>
       <c r="H71" s="8">
-        <v>17407.3</v>
+        <v>17403.400000000001</v>
       </c>
       <c r="I71" s="8">
-        <v>10769.9</v>
+        <v>10766</v>
       </c>
       <c r="J71" s="8">
         <v>6637.4</v>
       </c>
       <c r="K71" s="8">
-        <v>2712</v>
+        <v>2711.3</v>
       </c>
       <c r="L71" s="8"/>
       <c r="M71" s="8"/>
@@ -16247,16 +16299,16 @@
         <v>2862.5</v>
       </c>
       <c r="H72" s="8">
-        <v>17399</v>
+        <v>17397.599999999999</v>
       </c>
       <c r="I72" s="8">
-        <v>11018.1</v>
+        <v>11016.7</v>
       </c>
       <c r="J72" s="8">
-        <v>6381</v>
+        <v>6380.9</v>
       </c>
       <c r="K72" s="8">
-        <v>2729.5</v>
+        <v>2730.2</v>
       </c>
       <c r="L72" s="8"/>
       <c r="M72" s="8"/>
@@ -16280,13 +16332,13 @@
         <v>2518.3000000000002</v>
       </c>
       <c r="H73" s="8">
-        <v>16829</v>
+        <v>16829.3</v>
       </c>
       <c r="I73" s="8">
-        <v>10516.1</v>
+        <v>10516.5</v>
       </c>
       <c r="J73" s="8">
-        <v>6312.8</v>
+        <v>6312.9</v>
       </c>
       <c r="K73" s="8">
         <v>2638.4</v>
@@ -16313,16 +16365,16 @@
         <v>2952.3</v>
       </c>
       <c r="H74" s="8">
-        <v>16815.599999999999</v>
+        <v>16814.400000000001</v>
       </c>
       <c r="I74" s="8">
-        <v>10738.2</v>
+        <v>10736.8</v>
       </c>
       <c r="J74" s="8">
-        <v>6077.4</v>
+        <v>6077.6</v>
       </c>
       <c r="K74" s="8">
-        <v>2720</v>
+        <v>2721</v>
       </c>
       <c r="L74" s="8"/>
       <c r="M74" s="8"/>
@@ -16346,16 +16398,16 @@
         <v>2983.7</v>
       </c>
       <c r="H75" s="8">
-        <v>16985.7</v>
+        <v>16983.7</v>
       </c>
       <c r="I75" s="8">
-        <v>10653.6</v>
+        <v>10651.3</v>
       </c>
       <c r="J75" s="8">
-        <v>6332.2</v>
+        <v>6332.3</v>
       </c>
       <c r="K75" s="8">
-        <v>2707.6</v>
+        <v>2707.1</v>
       </c>
       <c r="L75" s="8"/>
       <c r="M75" s="8"/>
@@ -16379,16 +16431,16 @@
         <v>2634.8</v>
       </c>
       <c r="H76" s="8">
-        <v>16557.099999999999</v>
+        <v>16559.099999999999</v>
       </c>
       <c r="I76" s="8">
-        <v>10371.299999999999</v>
+        <v>10373.200000000001</v>
       </c>
       <c r="J76" s="8">
-        <v>6185.8</v>
+        <v>6185.9</v>
       </c>
       <c r="K76" s="8">
-        <v>2706.7</v>
+        <v>2704.9</v>
       </c>
       <c r="L76" s="8"/>
       <c r="M76" s="8"/>
@@ -16412,16 +16464,16 @@
         <v>2405.9</v>
       </c>
       <c r="H77" s="8">
-        <v>16898.599999999999</v>
+        <v>16895.400000000001</v>
       </c>
       <c r="I77" s="8">
-        <v>10804.9</v>
+        <v>10801.7</v>
       </c>
       <c r="J77" s="8">
         <v>6093.7</v>
       </c>
       <c r="K77" s="8">
-        <v>2762.4</v>
+        <v>2767.6</v>
       </c>
       <c r="L77" s="8"/>
       <c r="M77" s="8"/>
@@ -16445,16 +16497,16 @@
         <v>2392.9</v>
       </c>
       <c r="H78" s="8">
-        <v>15656</v>
+        <v>15653.6</v>
       </c>
       <c r="I78" s="8">
-        <v>9879.7999999999993</v>
+        <v>9877.2999999999993</v>
       </c>
       <c r="J78" s="8">
-        <v>5776.3</v>
+        <v>5776.2</v>
       </c>
       <c r="K78" s="8">
-        <v>2543.4</v>
+        <v>2541.1</v>
       </c>
       <c r="L78" s="8"/>
       <c r="M78" s="8"/>
@@ -16478,16 +16530,16 @@
         <v>2095</v>
       </c>
       <c r="H79" s="8">
-        <v>14550.3</v>
+        <v>14559.8</v>
       </c>
       <c r="I79" s="8">
-        <v>9137.9</v>
+        <v>9147.5</v>
       </c>
       <c r="J79" s="8">
-        <v>5412.4</v>
+        <v>5412.3</v>
       </c>
       <c r="K79" s="8">
-        <v>2287.8000000000002</v>
+        <v>2285.4</v>
       </c>
       <c r="L79" s="8"/>
       <c r="M79" s="8"/>
@@ -16511,16 +16563,16 @@
         <v>2311.9</v>
       </c>
       <c r="H80" s="8">
-        <v>13904.6</v>
+        <v>13901.5</v>
       </c>
       <c r="I80" s="8">
-        <v>8744.1</v>
+        <v>8740.7999999999993</v>
       </c>
       <c r="J80" s="8">
-        <v>5160.5</v>
+        <v>5160.7</v>
       </c>
       <c r="K80" s="8">
-        <v>2235.6</v>
+        <v>2237.1999999999998</v>
       </c>
       <c r="L80" s="8"/>
       <c r="M80" s="8"/>
@@ -16544,13 +16596,13 @@
         <v>2318.8000000000002</v>
       </c>
       <c r="H81" s="8">
-        <v>12959.6</v>
+        <v>12962.6</v>
       </c>
       <c r="I81" s="8">
-        <v>8168</v>
+        <v>8171.2</v>
       </c>
       <c r="J81" s="8">
-        <v>4791.7</v>
+        <v>4791.3999999999996</v>
       </c>
       <c r="K81" s="8">
         <v>2159.8000000000002</v>
@@ -16577,16 +16629,16 @@
         <v>2126.6999999999998</v>
       </c>
       <c r="H82" s="8">
-        <v>12961.4</v>
+        <v>12962.1</v>
       </c>
       <c r="I82" s="8">
-        <v>8199.1</v>
+        <v>8199.7999999999993</v>
       </c>
       <c r="J82" s="8">
         <v>4762.3</v>
       </c>
       <c r="K82" s="8">
-        <v>2180.8000000000002</v>
+        <v>2179.1999999999998</v>
       </c>
       <c r="L82" s="8"/>
       <c r="M82" s="8"/>
@@ -16610,16 +16662,16 @@
         <v>2412.4</v>
       </c>
       <c r="H83" s="8">
-        <v>12785.9</v>
+        <v>12783.1</v>
       </c>
       <c r="I83" s="8">
-        <v>8136.1</v>
+        <v>8133.4</v>
       </c>
       <c r="J83" s="8">
         <v>4649.7</v>
       </c>
       <c r="K83" s="8">
-        <v>2250.4</v>
+        <v>2252.9</v>
       </c>
       <c r="L83" s="8"/>
       <c r="M83" s="8"/>
@@ -16643,16 +16695,16 @@
         <v>2200</v>
       </c>
       <c r="H84" s="8">
-        <v>12643</v>
+        <v>12642.9</v>
       </c>
       <c r="I84" s="8">
-        <v>7979.5</v>
+        <v>7979.4</v>
       </c>
       <c r="J84" s="8">
-        <v>4663.6000000000004</v>
+        <v>4663.5</v>
       </c>
       <c r="K84" s="8">
-        <v>2261.6</v>
+        <v>2261.1</v>
       </c>
       <c r="L84" s="8"/>
       <c r="M84" s="8"/>
@@ -16676,16 +16728,16 @@
         <v>2436</v>
       </c>
       <c r="H85" s="8">
-        <v>12978.3</v>
+        <v>12975.2</v>
       </c>
       <c r="I85" s="8">
-        <v>8237.2000000000007</v>
+        <v>8234.2000000000007</v>
       </c>
       <c r="J85" s="8">
-        <v>4741.1000000000004</v>
+        <v>4741</v>
       </c>
       <c r="K85" s="8">
-        <v>2360.8000000000002</v>
+        <v>2361</v>
       </c>
       <c r="L85" s="8"/>
       <c r="M85" s="8"/>
@@ -16709,16 +16761,16 @@
         <v>2611.6999999999998</v>
       </c>
       <c r="H86" s="8">
-        <v>13346.7</v>
+        <v>13346.6</v>
       </c>
       <c r="I86" s="8">
-        <v>8538.9</v>
+        <v>8538.2000000000007</v>
       </c>
       <c r="J86" s="8">
-        <v>4807.8</v>
+        <v>4808.3999999999996</v>
       </c>
       <c r="K86" s="8">
-        <v>2406.3000000000002</v>
+        <v>2406</v>
       </c>
       <c r="L86" s="8"/>
       <c r="M86" s="8"/>
@@ -16745,13 +16797,13 @@
         <v>13098.1</v>
       </c>
       <c r="I87" s="8">
-        <v>8605.7999999999993</v>
+        <v>8605.7000000000007</v>
       </c>
       <c r="J87" s="8">
-        <v>4492.3</v>
+        <v>4492.3999999999996</v>
       </c>
       <c r="K87" s="8">
-        <v>3075.4</v>
+        <v>3077.3</v>
       </c>
       <c r="L87" s="8"/>
       <c r="M87" s="8"/>
@@ -16775,16 +16827,16 @@
         <v>3880.5</v>
       </c>
       <c r="H88" s="8">
-        <v>13885.6</v>
+        <v>13882.5</v>
       </c>
       <c r="I88" s="8">
-        <v>9337</v>
+        <v>9334</v>
       </c>
       <c r="J88" s="8">
-        <v>4548.6000000000004</v>
+        <v>4548.5</v>
       </c>
       <c r="K88" s="8">
-        <v>3655.2</v>
+        <v>3652.4</v>
       </c>
       <c r="L88" s="8"/>
       <c r="M88" s="8"/>
@@ -16808,16 +16860,16 @@
         <v>3473.7</v>
       </c>
       <c r="H89" s="8">
-        <v>14894</v>
+        <v>14894.1</v>
       </c>
       <c r="I89" s="8">
-        <v>10233.4</v>
+        <v>10233.299999999999</v>
       </c>
       <c r="J89" s="8">
-        <v>4660.7</v>
+        <v>4660.8</v>
       </c>
       <c r="K89" s="8">
-        <v>4184.3</v>
+        <v>4187.3999999999996</v>
       </c>
       <c r="L89" s="8"/>
       <c r="M89" s="8"/>
@@ -16841,16 +16893,16 @@
         <v>4043.5</v>
       </c>
       <c r="H90" s="8">
-        <v>15365.9</v>
+        <v>15364.9</v>
       </c>
       <c r="I90" s="8">
-        <v>10781.9</v>
+        <v>10780.9</v>
       </c>
       <c r="J90" s="8">
         <v>4584</v>
       </c>
       <c r="K90" s="8">
-        <v>4525.1000000000004</v>
+        <v>4525.5</v>
       </c>
       <c r="L90" s="8"/>
       <c r="M90" s="8"/>
@@ -16874,16 +16926,16 @@
         <v>5237.6000000000004</v>
       </c>
       <c r="H91" s="8">
-        <v>16710.3</v>
+        <v>16718.599999999999</v>
       </c>
       <c r="I91" s="8">
-        <v>11960.9</v>
+        <v>11969.4</v>
       </c>
       <c r="J91" s="8">
-        <v>4749.3999999999996</v>
+        <v>4749.2</v>
       </c>
       <c r="K91" s="8">
-        <v>5083</v>
+        <v>5079</v>
       </c>
       <c r="L91" s="8"/>
       <c r="M91" s="8"/>
@@ -16907,16 +16959,16 @@
         <v>4908.7</v>
       </c>
       <c r="H92" s="8">
-        <v>17040.599999999999</v>
+        <v>17041.2</v>
       </c>
       <c r="I92" s="8">
-        <v>11955.3</v>
+        <v>11955.6</v>
       </c>
       <c r="J92" s="8">
-        <v>5085.3999999999996</v>
+        <v>5085.6000000000004</v>
       </c>
       <c r="K92" s="8">
-        <v>5196.1000000000004</v>
+        <v>5201.5</v>
       </c>
       <c r="L92" s="8"/>
       <c r="M92" s="8"/>
@@ -16940,16 +16992,16 @@
         <v>5297</v>
       </c>
       <c r="H93" s="8">
-        <v>16848.900000000001</v>
+        <v>16852.099999999999</v>
       </c>
       <c r="I93" s="8">
-        <v>11822.1</v>
+        <v>11825.9</v>
       </c>
       <c r="J93" s="8">
-        <v>5026.8</v>
+        <v>5026.2</v>
       </c>
       <c r="K93" s="8">
-        <v>5075.8</v>
+        <v>5069.8</v>
       </c>
       <c r="L93" s="8"/>
       <c r="M93" s="8"/>
@@ -16973,16 +17025,16 @@
         <v>5118.7</v>
       </c>
       <c r="H94" s="8">
-        <v>17207.599999999999</v>
+        <v>17206.099999999999</v>
       </c>
       <c r="I94" s="8">
-        <v>11960.5</v>
+        <v>11959.2</v>
       </c>
       <c r="J94" s="8">
-        <v>5247.1</v>
+        <v>5246.9</v>
       </c>
       <c r="K94" s="8">
-        <v>4935.3999999999996</v>
+        <v>4936.1000000000004</v>
       </c>
       <c r="L94" s="8"/>
       <c r="M94" s="8"/>
@@ -17006,16 +17058,16 @@
         <v>4673.8999999999996</v>
       </c>
       <c r="H95" s="8">
-        <v>17169.2</v>
+        <v>17168.7</v>
       </c>
       <c r="I95" s="8">
-        <v>11729.2</v>
+        <v>11728.8</v>
       </c>
       <c r="J95" s="8">
-        <v>5440</v>
+        <v>5439.9</v>
       </c>
       <c r="K95" s="8">
-        <v>4438.7</v>
+        <v>4435.3999999999996</v>
       </c>
       <c r="L95" s="8"/>
       <c r="M95" s="8"/>
@@ -17039,16 +17091,16 @@
         <v>3965.8</v>
       </c>
       <c r="H96" s="8">
-        <v>17350.599999999999</v>
+        <v>17355.5</v>
       </c>
       <c r="I96" s="8">
-        <v>11644.3</v>
+        <v>11649.3</v>
       </c>
       <c r="J96" s="8">
-        <v>5706.3</v>
+        <v>5706.2</v>
       </c>
       <c r="K96" s="8">
-        <v>4204.7</v>
+        <v>4204.6000000000004</v>
       </c>
       <c r="L96" s="8"/>
       <c r="M96" s="8"/>
@@ -17072,16 +17124,16 @@
         <v>4546.8999999999996</v>
       </c>
       <c r="H97" s="8">
-        <v>17886.2</v>
+        <v>17874.7</v>
       </c>
       <c r="I97" s="8">
-        <v>12180.5</v>
+        <v>12169.3</v>
       </c>
       <c r="J97" s="8">
-        <v>5705.6</v>
+        <v>5705.4</v>
       </c>
       <c r="K97" s="8">
-        <v>4330.6000000000004</v>
+        <v>4335.8999999999996</v>
       </c>
       <c r="L97" s="8"/>
       <c r="M97" s="8"/>
@@ -17105,16 +17157,16 @@
         <v>4490</v>
       </c>
       <c r="H98" s="8">
-        <v>17612</v>
+        <v>17615.900000000001</v>
       </c>
       <c r="I98" s="8">
-        <v>11819.5</v>
+        <v>11821.8</v>
       </c>
       <c r="J98" s="8">
-        <v>5792.5</v>
+        <v>5794.1</v>
       </c>
       <c r="K98" s="8">
-        <v>4267</v>
+        <v>4268.7</v>
       </c>
       <c r="L98" s="8"/>
       <c r="M98" s="8"/>
@@ -17138,16 +17190,16 @@
         <v>3722.9</v>
       </c>
       <c r="H99" s="8">
-        <v>17075.2</v>
+        <v>17077.400000000001</v>
       </c>
       <c r="I99" s="8">
-        <v>11090</v>
+        <v>11092.1</v>
       </c>
       <c r="J99" s="8">
-        <v>5985.2</v>
+        <v>5985.3</v>
       </c>
       <c r="K99" s="8">
-        <v>3549</v>
+        <v>3546</v>
       </c>
       <c r="L99" s="8"/>
       <c r="M99" s="8"/>
@@ -17171,16 +17223,16 @@
         <v>3498.6</v>
       </c>
       <c r="H100" s="8">
-        <v>16501.8</v>
+        <v>16495.5</v>
       </c>
       <c r="I100" s="8">
-        <v>10617</v>
+        <v>10610.7</v>
       </c>
       <c r="J100" s="8">
-        <v>5884.9</v>
+        <v>5884.8</v>
       </c>
       <c r="K100" s="8">
-        <v>3249.5</v>
+        <v>3253.2</v>
       </c>
       <c r="L100" s="8"/>
       <c r="M100" s="8"/>
@@ -17204,16 +17256,16 @@
         <v>2384.1999999999998</v>
       </c>
       <c r="H101" s="8">
-        <v>15954.9</v>
+        <v>15953.7</v>
       </c>
       <c r="I101" s="8">
-        <v>10123.9</v>
+        <v>10122.4</v>
       </c>
       <c r="J101" s="8">
-        <v>5831</v>
+        <v>5831.3</v>
       </c>
       <c r="K101" s="8">
-        <v>2948</v>
+        <v>2945.4</v>
       </c>
       <c r="L101" s="8"/>
       <c r="M101" s="8"/>
@@ -17237,16 +17289,16 @@
         <v>2363.6</v>
       </c>
       <c r="H102" s="8">
-        <v>15669.5</v>
+        <v>15668.9</v>
       </c>
       <c r="I102" s="8">
-        <v>9793.6</v>
+        <v>9793.1</v>
       </c>
       <c r="J102" s="8">
-        <v>5875.9</v>
+        <v>5875.8</v>
       </c>
       <c r="K102" s="8">
-        <v>2646.9</v>
+        <v>2647.2</v>
       </c>
       <c r="L102" s="8"/>
       <c r="M102" s="8"/>
@@ -17270,16 +17322,16 @@
         <v>2447</v>
       </c>
       <c r="H103" s="8">
-        <v>15519.3</v>
+        <v>15523.2</v>
       </c>
       <c r="I103" s="8">
-        <v>9571.6</v>
+        <v>9576.5</v>
       </c>
       <c r="J103" s="8">
-        <v>5947.8</v>
+        <v>5946.7</v>
       </c>
       <c r="K103" s="8">
-        <v>2325.6999999999998</v>
+        <v>2323.8000000000002</v>
       </c>
       <c r="L103" s="8"/>
       <c r="M103" s="8"/>
@@ -17303,16 +17355,16 @@
         <v>2172.6</v>
       </c>
       <c r="H104" s="8">
-        <v>15257.5</v>
+        <v>15254.9</v>
       </c>
       <c r="I104" s="8">
-        <v>9359.5</v>
+        <v>9356.4</v>
       </c>
       <c r="J104" s="8">
-        <v>5898</v>
+        <v>5898.4</v>
       </c>
       <c r="K104" s="8">
-        <v>2272.3000000000002</v>
+        <v>2270.6</v>
       </c>
       <c r="L104" s="8"/>
       <c r="M104" s="8"/>
@@ -17336,16 +17388,16 @@
         <v>2339.9</v>
       </c>
       <c r="H105" s="8">
-        <v>15422.8</v>
+        <v>15428.7</v>
       </c>
       <c r="I105" s="8">
-        <v>9432.6</v>
+        <v>9439.5</v>
       </c>
       <c r="J105" s="8">
-        <v>5990.2</v>
+        <v>5989.2</v>
       </c>
       <c r="K105" s="8">
-        <v>2309.8000000000002</v>
+        <v>2307.9</v>
       </c>
       <c r="L105" s="8"/>
       <c r="M105" s="8"/>
@@ -17369,16 +17421,16 @@
         <v>2237.1999999999998</v>
       </c>
       <c r="H106" s="8">
-        <v>15119.3</v>
+        <v>15117.5</v>
       </c>
       <c r="I106" s="8">
-        <v>9130</v>
+        <v>9128.9</v>
       </c>
       <c r="J106" s="8">
-        <v>5989.3</v>
+        <v>5988.7</v>
       </c>
       <c r="K106" s="8">
-        <v>2101.3000000000002</v>
+        <v>2104.1999999999998</v>
       </c>
       <c r="L106" s="8"/>
       <c r="M106" s="8"/>
@@ -17402,16 +17454,16 @@
         <v>2195.6999999999998</v>
       </c>
       <c r="H107" s="8">
-        <v>15047.9</v>
+        <v>15051.2</v>
       </c>
       <c r="I107" s="8">
-        <v>9291.5</v>
+        <v>9294.4</v>
       </c>
       <c r="J107" s="8">
-        <v>5756.4</v>
+        <v>5756.8</v>
       </c>
       <c r="K107" s="8">
-        <v>2166.6</v>
+        <v>2166.4</v>
       </c>
       <c r="L107" s="8"/>
       <c r="M107" s="8"/>
@@ -17435,16 +17487,16 @@
         <v>2106.4</v>
       </c>
       <c r="H108" s="8">
-        <v>14635.9</v>
+        <v>14637</v>
       </c>
       <c r="I108" s="8">
-        <v>9234.2999999999993</v>
+        <v>9235.7000000000007</v>
       </c>
       <c r="J108" s="8">
-        <v>5401.6</v>
+        <v>5401.3</v>
       </c>
       <c r="K108" s="8">
-        <v>2104.6999999999998</v>
+        <v>2106.8000000000002</v>
       </c>
       <c r="L108" s="8"/>
       <c r="M108" s="8"/>
@@ -17468,16 +17520,16 @@
         <v>2137.6999999999998</v>
       </c>
       <c r="H109" s="8">
-        <v>14617.2</v>
+        <v>14610.3</v>
       </c>
       <c r="I109" s="8">
-        <v>9143.2999999999993</v>
+        <v>9136.2000000000007</v>
       </c>
       <c r="J109" s="8">
-        <v>5473.9</v>
+        <v>5474.1</v>
       </c>
       <c r="K109" s="8">
-        <v>2099.1999999999998</v>
+        <v>2102</v>
       </c>
       <c r="L109" s="8"/>
       <c r="M109" s="8"/>
@@ -17501,16 +17553,16 @@
         <v>2080</v>
       </c>
       <c r="H110" s="8">
-        <v>14657.9</v>
+        <v>14661.5</v>
       </c>
       <c r="I110" s="8">
-        <v>9175.6</v>
+        <v>9176.7999999999993</v>
       </c>
       <c r="J110" s="8">
-        <v>5482.3</v>
+        <v>5484.8</v>
       </c>
       <c r="K110" s="8">
-        <v>2024.5</v>
+        <v>2023</v>
       </c>
       <c r="L110" s="8"/>
       <c r="M110" s="8"/>
@@ -17534,16 +17586,16 @@
         <v>2317.4</v>
       </c>
       <c r="H111" s="8">
-        <v>14710.8</v>
+        <v>14710.3</v>
       </c>
       <c r="I111" s="8">
-        <v>9320.7000000000007</v>
+        <v>9320.4</v>
       </c>
       <c r="J111" s="8">
-        <v>5390.1</v>
+        <v>5389.9</v>
       </c>
       <c r="K111" s="8">
-        <v>2073</v>
+        <v>2074.1</v>
       </c>
       <c r="L111" s="8"/>
       <c r="M111" s="8"/>
@@ -17567,16 +17619,16 @@
         <v>2398</v>
       </c>
       <c r="H112" s="8">
-        <v>14999.5</v>
+        <v>14993.2</v>
       </c>
       <c r="I112" s="8">
-        <v>9426.2999999999993</v>
+        <v>9419.9</v>
       </c>
       <c r="J112" s="8">
-        <v>5573.2</v>
+        <v>5573.3</v>
       </c>
       <c r="K112" s="8">
-        <v>2265.5</v>
+        <v>2260.9</v>
       </c>
       <c r="L112" s="8"/>
       <c r="M112" s="8"/>
@@ -17600,16 +17652,16 @@
         <v>1586.6</v>
       </c>
       <c r="H113" s="8">
-        <v>14159.3</v>
+        <v>14163.3</v>
       </c>
       <c r="I113" s="8">
-        <v>9015.5</v>
+        <v>9019.2999999999993</v>
       </c>
       <c r="J113" s="8">
-        <v>5143.8</v>
+        <v>5144</v>
       </c>
       <c r="K113" s="8">
-        <v>2017.1</v>
+        <v>2015.6</v>
       </c>
       <c r="L113" s="8"/>
       <c r="M113" s="8"/>
@@ -17633,16 +17685,16 @@
         <v>1732.8</v>
       </c>
       <c r="H114" s="8">
-        <v>14064.2</v>
+        <v>14063.7</v>
       </c>
       <c r="I114" s="8">
-        <v>8871.7999999999993</v>
+        <v>8871.6</v>
       </c>
       <c r="J114" s="8">
-        <v>5192.5</v>
+        <v>5192.1000000000004</v>
       </c>
       <c r="K114" s="8">
-        <v>1944.3</v>
+        <v>1944.5</v>
       </c>
       <c r="L114" s="8"/>
       <c r="M114" s="8"/>
@@ -17666,16 +17718,16 @@
         <v>2240.9</v>
       </c>
       <c r="H115" s="8">
-        <v>13627.9</v>
+        <v>13625.4</v>
       </c>
       <c r="I115" s="8">
-        <v>8828.5</v>
+        <v>8826.9</v>
       </c>
       <c r="J115" s="8">
-        <v>4799.5</v>
+        <v>4798.5</v>
       </c>
       <c r="K115" s="8">
-        <v>2085.6999999999998</v>
+        <v>2088.4</v>
       </c>
       <c r="L115" s="8"/>
       <c r="M115" s="8"/>
@@ -17699,16 +17751,16 @@
         <v>1988.4</v>
       </c>
       <c r="H116" s="8">
-        <v>13994</v>
+        <v>13996.2</v>
       </c>
       <c r="I116" s="8">
-        <v>9004.1</v>
+        <v>9006.4</v>
       </c>
       <c r="J116" s="8">
-        <v>4989.8999999999996</v>
+        <v>4989.8</v>
       </c>
       <c r="K116" s="8">
-        <v>2176</v>
+        <v>2172.6999999999998</v>
       </c>
       <c r="L116" s="8"/>
       <c r="M116" s="8"/>
@@ -17732,16 +17784,16 @@
         <v>2331.1</v>
       </c>
       <c r="H117" s="8">
-        <v>14237.7</v>
+        <v>14235.1</v>
       </c>
       <c r="I117" s="8">
-        <v>9081</v>
+        <v>9080</v>
       </c>
       <c r="J117" s="8">
-        <v>5156.8</v>
+        <v>5155</v>
       </c>
       <c r="K117" s="8">
-        <v>2155.4</v>
+        <v>2155</v>
       </c>
       <c r="L117" s="8"/>
       <c r="M117" s="8"/>
@@ -17765,16 +17817,16 @@
         <v>2162.9</v>
       </c>
       <c r="H118" s="8">
-        <v>14136.9</v>
+        <v>14138</v>
       </c>
       <c r="I118" s="8">
-        <v>9098.2999999999993</v>
+        <v>9099.2000000000007</v>
       </c>
       <c r="J118" s="8">
-        <v>5038.6000000000004</v>
+        <v>5038.7</v>
       </c>
       <c r="K118" s="8">
-        <v>2093.4</v>
+        <v>2097.1</v>
       </c>
       <c r="L118" s="8"/>
       <c r="M118" s="8"/>
@@ -17798,16 +17850,16 @@
         <v>2060.6999999999998</v>
       </c>
       <c r="H119" s="8">
-        <v>14085.2</v>
+        <v>14093.5</v>
       </c>
       <c r="I119" s="8">
-        <v>9035</v>
+        <v>9042.2999999999993</v>
       </c>
       <c r="J119" s="8">
-        <v>5050.2</v>
+        <v>5051.2</v>
       </c>
       <c r="K119" s="8">
-        <v>2089</v>
+        <v>2087</v>
       </c>
       <c r="L119" s="8"/>
       <c r="M119" s="8"/>
@@ -17831,16 +17883,16 @@
         <v>2250.9</v>
       </c>
       <c r="H120" s="8">
-        <v>14156.9</v>
+        <v>14164.3</v>
       </c>
       <c r="I120" s="8">
-        <v>9026.2000000000007</v>
+        <v>9034.5</v>
       </c>
       <c r="J120" s="8">
-        <v>5130.7</v>
+        <v>5129.8</v>
       </c>
       <c r="K120" s="8">
-        <v>2188</v>
+        <v>2191.1999999999998</v>
       </c>
       <c r="L120" s="8"/>
       <c r="M120" s="8"/>
@@ -17864,16 +17916,16 @@
         <v>2336.6999999999998</v>
       </c>
       <c r="H121" s="8">
-        <v>13930.9</v>
+        <v>13918.8</v>
       </c>
       <c r="I121" s="8">
-        <v>8793</v>
+        <v>8779.7999999999993</v>
       </c>
       <c r="J121" s="8">
-        <v>5137.8999999999996</v>
+        <v>5138.8999999999996</v>
       </c>
       <c r="K121" s="8">
-        <v>2275</v>
+        <v>2274.3000000000002</v>
       </c>
       <c r="L121" s="8"/>
       <c r="M121" s="8"/>
@@ -17897,16 +17949,16 @@
         <v>2442.8000000000002</v>
       </c>
       <c r="H122" s="8">
-        <v>13857.7</v>
+        <v>13867.8</v>
       </c>
       <c r="I122" s="8">
-        <v>8864.5</v>
+        <v>8871.7000000000007</v>
       </c>
       <c r="J122" s="8">
-        <v>4993.1000000000004</v>
+        <v>4996.1000000000004</v>
       </c>
       <c r="K122" s="8">
-        <v>2439.1999999999998</v>
+        <v>2439.3000000000002</v>
       </c>
       <c r="L122" s="8"/>
       <c r="M122" s="8"/>
@@ -17930,16 +17982,16 @@
         <v>2870</v>
       </c>
       <c r="H123" s="8">
-        <v>14052.3</v>
+        <v>14050.4</v>
       </c>
       <c r="I123" s="8">
-        <v>8972.9</v>
+        <v>8971.1</v>
       </c>
       <c r="J123" s="8">
-        <v>5079.3999999999996</v>
+        <v>5079.3</v>
       </c>
       <c r="K123" s="8">
-        <v>2507.1</v>
+        <v>2511.1</v>
       </c>
       <c r="L123" s="8"/>
       <c r="M123" s="8"/>
@@ -17963,16 +18015,16 @@
         <v>2959.8</v>
       </c>
       <c r="H124" s="8">
-        <v>14729.8</v>
+        <v>14724</v>
       </c>
       <c r="I124" s="8">
-        <v>9405.7000000000007</v>
+        <v>9399.2000000000007</v>
       </c>
       <c r="J124" s="8">
-        <v>5324.1</v>
+        <v>5324.8</v>
       </c>
       <c r="K124" s="8">
-        <v>2892.3</v>
+        <v>2887.1</v>
       </c>
       <c r="L124" s="8"/>
       <c r="M124" s="8"/>
@@ -17996,16 +18048,16 @@
         <v>2300</v>
       </c>
       <c r="H125" s="8">
-        <v>14773.7</v>
+        <v>14767.7</v>
       </c>
       <c r="I125" s="8">
-        <v>9397.4</v>
+        <v>9392.6</v>
       </c>
       <c r="J125" s="8">
-        <v>5376.3</v>
+        <v>5375</v>
       </c>
       <c r="K125" s="8">
-        <v>2743.1</v>
+        <v>2740.6</v>
       </c>
       <c r="L125" s="8"/>
       <c r="M125" s="8"/>
@@ -18029,16 +18081,16 @@
         <v>2082.4</v>
       </c>
       <c r="H126" s="8">
-        <v>14068.4</v>
+        <v>14072.3</v>
       </c>
       <c r="I126" s="8">
-        <v>8666.9</v>
+        <v>8672.2999999999993</v>
       </c>
       <c r="J126" s="8">
-        <v>5401.5</v>
+        <v>5400</v>
       </c>
       <c r="K126" s="8">
-        <v>2235.8000000000002</v>
+        <v>2235.3000000000002</v>
       </c>
       <c r="L126" s="8"/>
       <c r="M126" s="8"/>
@@ -18062,16 +18114,16 @@
         <v>2252.3000000000002</v>
       </c>
       <c r="H127" s="8">
-        <v>14100.7</v>
+        <v>14094.2</v>
       </c>
       <c r="I127" s="8">
-        <v>8711</v>
+        <v>8705.2000000000007</v>
       </c>
       <c r="J127" s="8">
-        <v>5389.7</v>
+        <v>5389</v>
       </c>
       <c r="K127" s="8">
-        <v>2236.1999999999998</v>
+        <v>2232.6999999999998</v>
       </c>
       <c r="L127" s="8"/>
       <c r="M127" s="8"/>
@@ -18095,16 +18147,16 @@
         <v>2022.2</v>
       </c>
       <c r="H128" s="8">
-        <v>14349.2</v>
+        <v>14347</v>
       </c>
       <c r="I128" s="8">
-        <v>8926.4</v>
+        <v>8924.2999999999993</v>
       </c>
       <c r="J128" s="8">
         <v>5422.7</v>
       </c>
       <c r="K128" s="8">
-        <v>2253.3000000000002</v>
+        <v>2252.1999999999998</v>
       </c>
       <c r="L128" s="8"/>
       <c r="M128" s="8"/>
@@ -18128,16 +18180,16 @@
         <v>2656.1</v>
       </c>
       <c r="H129" s="8">
-        <v>14509.7</v>
+        <v>14506.9</v>
       </c>
       <c r="I129" s="8">
-        <v>9106.2000000000007</v>
+        <v>9106</v>
       </c>
       <c r="J129" s="8">
-        <v>5403.5</v>
+        <v>5400.9</v>
       </c>
       <c r="K129" s="8">
-        <v>2363.6</v>
+        <v>2365.4</v>
       </c>
       <c r="L129" s="8"/>
       <c r="M129" s="8"/>
@@ -18161,16 +18213,16 @@
         <v>2485.3000000000002</v>
       </c>
       <c r="H130" s="8">
-        <v>14735.8</v>
+        <v>14737.7</v>
       </c>
       <c r="I130" s="8">
-        <v>9251.5</v>
+        <v>9254</v>
       </c>
       <c r="J130" s="8">
-        <v>5484.3</v>
+        <v>5483.7</v>
       </c>
       <c r="K130" s="8">
-        <v>2463.9</v>
+        <v>2462.9</v>
       </c>
       <c r="L130" s="8"/>
       <c r="M130" s="8"/>
@@ -18194,16 +18246,16 @@
         <v>2580</v>
       </c>
       <c r="H131" s="8">
-        <v>14770.7</v>
+        <v>14778.8</v>
       </c>
       <c r="I131" s="8">
-        <v>9271.7999999999993</v>
+        <v>9279.6</v>
       </c>
       <c r="J131" s="8">
-        <v>5498.9</v>
+        <v>5499.1</v>
       </c>
       <c r="K131" s="8">
-        <v>2526.1</v>
+        <v>2529.9</v>
       </c>
       <c r="L131" s="8"/>
       <c r="M131" s="8"/>
@@ -18227,16 +18279,16 @@
         <v>2606.1</v>
       </c>
       <c r="H132" s="8">
-        <v>14859.2</v>
+        <v>14869.1</v>
       </c>
       <c r="I132" s="8">
-        <v>9426.9</v>
+        <v>9436.2999999999993</v>
       </c>
       <c r="J132" s="8">
-        <v>5432.3</v>
+        <v>5432.7</v>
       </c>
       <c r="K132" s="8">
-        <v>2558.6999999999998</v>
+        <v>2564</v>
       </c>
       <c r="L132" s="8"/>
       <c r="M132" s="8"/>
@@ -18260,16 +18312,16 @@
         <v>2454.6999999999998</v>
       </c>
       <c r="H133" s="8">
-        <v>15094.9</v>
+        <v>15102.3</v>
       </c>
       <c r="I133" s="8">
-        <v>9493.2999999999993</v>
+        <v>9496.6</v>
       </c>
       <c r="J133" s="8">
-        <v>5601.6</v>
+        <v>5605.7</v>
       </c>
       <c r="K133" s="8">
-        <v>2535.4</v>
+        <v>2538.6999999999998</v>
       </c>
       <c r="L133" s="8"/>
       <c r="M133" s="8"/>
@@ -18293,16 +18345,16 @@
         <v>2765.2</v>
       </c>
       <c r="H134" s="8">
-        <v>14884.8</v>
+        <v>14893.9</v>
       </c>
       <c r="I134" s="8">
-        <v>9371</v>
+        <v>9377.5</v>
       </c>
       <c r="J134" s="8">
-        <v>5513.8</v>
+        <v>5516.3</v>
       </c>
       <c r="K134" s="8">
-        <v>2507.4</v>
+        <v>2509</v>
       </c>
       <c r="L134" s="8"/>
       <c r="M134" s="8"/>
@@ -18326,16 +18378,16 @@
         <v>2639.7</v>
       </c>
       <c r="H135" s="8">
-        <v>15213.3</v>
+        <v>15194.9</v>
       </c>
       <c r="I135" s="8">
-        <v>9463</v>
+        <v>9442.4</v>
       </c>
       <c r="J135" s="8">
-        <v>5750.3</v>
+        <v>5752.5</v>
       </c>
       <c r="K135" s="8">
-        <v>2373.3000000000002</v>
+        <v>2372.9</v>
       </c>
       <c r="L135" s="8"/>
       <c r="M135" s="8"/>
@@ -18359,16 +18411,16 @@
         <v>2239.6999999999998</v>
       </c>
       <c r="H136" s="8">
-        <v>15374.3</v>
+        <v>15373.5</v>
       </c>
       <c r="I136" s="8">
-        <v>9531.5</v>
+        <v>9530.2999999999993</v>
       </c>
       <c r="J136" s="8">
-        <v>5842.8</v>
+        <v>5843.2</v>
       </c>
       <c r="K136" s="8">
-        <v>2281.3000000000002</v>
+        <v>2275</v>
       </c>
       <c r="L136" s="8"/>
       <c r="M136" s="8"/>
@@ -18392,13 +18444,13 @@
         <v>2052.1</v>
       </c>
       <c r="H137" s="8">
-        <v>15901.8</v>
+        <v>15897.6</v>
       </c>
       <c r="I137" s="8">
-        <v>9798.9</v>
+        <v>9798.1</v>
       </c>
       <c r="J137" s="8">
-        <v>6102.9</v>
+        <v>6099.5</v>
       </c>
       <c r="K137" s="8">
         <v>2358.1999999999998</v>
@@ -18425,16 +18477,16 @@
         <v>2086.4</v>
       </c>
       <c r="H138" s="8">
-        <v>16147.1</v>
+        <v>16137.2</v>
       </c>
       <c r="I138" s="8">
-        <v>9880.5</v>
+        <v>9874.2000000000007</v>
       </c>
       <c r="J138" s="8">
-        <v>6266.6</v>
+        <v>6263</v>
       </c>
       <c r="K138" s="8">
-        <v>2355.8000000000002</v>
+        <v>2354.1</v>
       </c>
       <c r="L138" s="8"/>
       <c r="M138" s="8"/>
@@ -18458,16 +18510,16 @@
         <v>2277.6</v>
       </c>
       <c r="H139" s="8">
-        <v>16880.900000000001</v>
+        <v>16877.3</v>
       </c>
       <c r="I139" s="8">
-        <v>10349.200000000001</v>
+        <v>10345.1</v>
       </c>
       <c r="J139" s="8">
-        <v>6531.7</v>
+        <v>6532.2</v>
       </c>
       <c r="K139" s="8">
-        <v>2432.1</v>
+        <v>2424.4</v>
       </c>
       <c r="L139" s="8"/>
       <c r="M139" s="8"/>
@@ -18491,16 +18543,16 @@
         <v>2405.1</v>
       </c>
       <c r="H140" s="8">
-        <v>16947.400000000001</v>
+        <v>16939.900000000001</v>
       </c>
       <c r="I140" s="8">
-        <v>10304.9</v>
+        <v>10301.9</v>
       </c>
       <c r="J140" s="8">
-        <v>6642.4</v>
+        <v>6638</v>
       </c>
       <c r="K140" s="8">
-        <v>2439.4</v>
+        <v>2439.6999999999998</v>
       </c>
       <c r="L140" s="8"/>
       <c r="M140" s="8"/>
@@ -18524,16 +18576,16 @@
         <v>2760.1</v>
       </c>
       <c r="H141" s="8">
-        <v>17210.099999999999</v>
+        <v>17209.2</v>
       </c>
       <c r="I141" s="8">
-        <v>10407.9</v>
+        <v>10408.9</v>
       </c>
       <c r="J141" s="8">
-        <v>6802.2</v>
+        <v>6800.2</v>
       </c>
       <c r="K141" s="8">
-        <v>2510.6999999999998</v>
+        <v>2506.1</v>
       </c>
       <c r="L141" s="8"/>
       <c r="M141" s="8"/>
@@ -18557,16 +18609,16 @@
         <v>2474</v>
       </c>
       <c r="H142" s="8">
-        <v>17321.7</v>
+        <v>17322.400000000001</v>
       </c>
       <c r="I142" s="8">
-        <v>10495.7</v>
+        <v>10494.6</v>
       </c>
       <c r="J142" s="8">
-        <v>6826.1</v>
+        <v>6827.8</v>
       </c>
       <c r="K142" s="8">
-        <v>2534.1999999999998</v>
+        <v>2539.1999999999998</v>
       </c>
       <c r="L142" s="8"/>
       <c r="M142" s="8"/>
@@ -18590,16 +18642,16 @@
         <v>2714.4</v>
       </c>
       <c r="H143" s="8">
-        <v>17439.8</v>
+        <v>17462.400000000001</v>
       </c>
       <c r="I143" s="8">
-        <v>10483.1</v>
+        <v>10507.6</v>
       </c>
       <c r="J143" s="8">
-        <v>6956.7</v>
+        <v>6954.8</v>
       </c>
       <c r="K143" s="8">
-        <v>2570.4</v>
+        <v>2575.1</v>
       </c>
       <c r="L143" s="8"/>
       <c r="M143" s="8"/>
@@ -18623,16 +18675,16 @@
         <v>2486.1999999999998</v>
       </c>
       <c r="H144" s="8">
-        <v>17365.7</v>
+        <v>17384</v>
       </c>
       <c r="I144" s="8">
-        <v>10240</v>
+        <v>10257.6</v>
       </c>
       <c r="J144" s="8">
-        <v>7125.7</v>
+        <v>7126.3</v>
       </c>
       <c r="K144" s="8">
-        <v>2531</v>
+        <v>2541.1</v>
       </c>
       <c r="L144" s="8"/>
       <c r="M144" s="8"/>
@@ -18656,16 +18708,16 @@
         <v>2483.9</v>
       </c>
       <c r="H145" s="8">
-        <v>18172.5</v>
+        <v>18183</v>
       </c>
       <c r="I145" s="8">
-        <v>10736.7</v>
+        <v>10739.9</v>
       </c>
       <c r="J145" s="8">
-        <v>7435.8</v>
+        <v>7443.2</v>
       </c>
       <c r="K145" s="8">
-        <v>2505.1999999999998</v>
+        <v>2506.8000000000002</v>
       </c>
       <c r="L145" s="8"/>
       <c r="M145" s="8"/>
@@ -18689,16 +18741,16 @@
         <v>2773.6</v>
       </c>
       <c r="H146" s="8">
-        <v>18688.7</v>
+        <v>18692.900000000001</v>
       </c>
       <c r="I146" s="8">
-        <v>10894.6</v>
+        <v>10894.1</v>
       </c>
       <c r="J146" s="8">
-        <v>7794.1</v>
+        <v>7798.8</v>
       </c>
       <c r="K146" s="8">
-        <v>2493.1</v>
+        <v>2502</v>
       </c>
       <c r="L146" s="8"/>
       <c r="M146" s="8"/>
@@ -18722,16 +18774,16 @@
         <v>2753.9</v>
       </c>
       <c r="H147" s="8">
-        <v>19260.5</v>
+        <v>19250</v>
       </c>
       <c r="I147" s="8">
-        <v>11227</v>
+        <v>11209.9</v>
       </c>
       <c r="J147" s="8">
-        <v>8033.5</v>
+        <v>8040.1</v>
       </c>
       <c r="K147" s="8">
-        <v>2532</v>
+        <v>2527.3000000000002</v>
       </c>
       <c r="L147" s="8"/>
       <c r="M147" s="8"/>
@@ -18755,16 +18807,16 @@
         <v>2536.6</v>
       </c>
       <c r="H148" s="8">
-        <v>19008.2</v>
+        <v>18992.099999999999</v>
       </c>
       <c r="I148" s="8">
-        <v>10952.8</v>
+        <v>10937.9</v>
       </c>
       <c r="J148" s="8">
-        <v>8055.3</v>
+        <v>8054.2</v>
       </c>
       <c r="K148" s="8">
-        <v>2435</v>
+        <v>2427.1999999999998</v>
       </c>
       <c r="L148" s="8"/>
       <c r="M148" s="8"/>
@@ -18788,16 +18840,16 @@
         <v>2183.4</v>
       </c>
       <c r="H149" s="8">
-        <v>19147.099999999999</v>
+        <v>19151.099999999999</v>
       </c>
       <c r="I149" s="8">
-        <v>11161.2</v>
+        <v>11163.6</v>
       </c>
       <c r="J149" s="8">
-        <v>7986</v>
+        <v>7987.5</v>
       </c>
       <c r="K149" s="8">
-        <v>2558.5</v>
+        <v>2551.6</v>
       </c>
       <c r="L149" s="8"/>
       <c r="M149" s="8"/>
@@ -18821,16 +18873,16 @@
         <v>2293.5</v>
       </c>
       <c r="H150" s="8">
-        <v>19403.2</v>
+        <v>19371.3</v>
       </c>
       <c r="I150" s="8">
-        <v>11456.9</v>
+        <v>11442.5</v>
       </c>
       <c r="J150" s="8">
-        <v>7946.2</v>
+        <v>7928.7</v>
       </c>
       <c r="K150" s="8">
-        <v>2595.8000000000002</v>
+        <v>2591.3000000000002</v>
       </c>
       <c r="L150" s="8"/>
       <c r="M150" s="8"/>
@@ -18854,16 +18906,16 @@
         <v>2541.6999999999998</v>
       </c>
       <c r="H151" s="8">
-        <v>19494.5</v>
+        <v>19482.099999999999</v>
       </c>
       <c r="I151" s="8">
-        <v>11386.6</v>
+        <v>11373.6</v>
       </c>
       <c r="J151" s="8">
-        <v>8107.8</v>
+        <v>8108.5</v>
       </c>
       <c r="K151" s="8">
-        <v>2616.8000000000002</v>
+        <v>2603.9</v>
       </c>
       <c r="L151" s="8"/>
       <c r="M151" s="8"/>
@@ -18887,16 +18939,16 @@
         <v>2373.6999999999998</v>
       </c>
       <c r="H152" s="8">
-        <v>19600.5</v>
+        <v>19608.400000000001</v>
       </c>
       <c r="I152" s="8">
-        <v>11320.8</v>
+        <v>11331</v>
       </c>
       <c r="J152" s="8">
-        <v>8279.6</v>
+        <v>8277.5</v>
       </c>
       <c r="K152" s="8">
-        <v>2499.1999999999998</v>
+        <v>2501.8000000000002</v>
       </c>
       <c r="L152" s="8"/>
       <c r="M152" s="8"/>
@@ -18920,16 +18972,16 @@
         <v>2706.4</v>
       </c>
       <c r="H153" s="8">
-        <v>19500.7</v>
+        <v>19492.5</v>
       </c>
       <c r="I153" s="8">
-        <v>11228</v>
+        <v>11221.1</v>
       </c>
       <c r="J153" s="8">
-        <v>8272.6</v>
+        <v>8271.4</v>
       </c>
       <c r="K153" s="8">
-        <v>2571.6</v>
+        <v>2566.8000000000002</v>
       </c>
       <c r="L153" s="8"/>
       <c r="M153" s="8"/>
@@ -18953,16 +19005,16 @@
         <v>2627.9</v>
       </c>
       <c r="H154" s="8">
-        <v>19642.7</v>
+        <v>19630.7</v>
       </c>
       <c r="I154" s="8">
-        <v>11392.1</v>
+        <v>11382.5</v>
       </c>
       <c r="J154" s="8">
-        <v>8250.6</v>
+        <v>8248.2000000000007</v>
       </c>
       <c r="K154" s="8">
-        <v>2624.9</v>
+        <v>2627.6</v>
       </c>
       <c r="L154" s="8"/>
       <c r="M154" s="8"/>
@@ -18986,16 +19038,16 @@
         <v>2623.8</v>
       </c>
       <c r="H155" s="8">
-        <v>19814.400000000001</v>
+        <v>19838.5</v>
       </c>
       <c r="I155" s="8">
-        <v>11270.7</v>
+        <v>11298.7</v>
       </c>
       <c r="J155" s="8">
-        <v>8543.7000000000007</v>
+        <v>8539.7999999999993</v>
       </c>
       <c r="K155" s="8">
-        <v>2477.6999999999998</v>
+        <v>2493.4</v>
       </c>
       <c r="L155" s="8"/>
       <c r="M155" s="8"/>
@@ -19019,16 +19071,16 @@
         <v>2375.6999999999998</v>
       </c>
       <c r="H156" s="8">
-        <v>19607.2</v>
+        <v>19648.7</v>
       </c>
       <c r="I156" s="8">
-        <v>10955.3</v>
+        <v>10991.5</v>
       </c>
       <c r="J156" s="8">
-        <v>8651.9</v>
+        <v>8657.2000000000007</v>
       </c>
       <c r="K156" s="8">
-        <v>2469.4</v>
+        <v>2481.3000000000002</v>
       </c>
       <c r="L156" s="8"/>
       <c r="M156" s="8"/>
@@ -19052,16 +19104,16 @@
         <v>2582.6</v>
       </c>
       <c r="H157" s="8">
-        <v>19959</v>
+        <v>19979.5</v>
       </c>
       <c r="I157" s="8">
-        <v>11086.5</v>
+        <v>11103.7</v>
       </c>
       <c r="J157" s="8">
-        <v>8872.4</v>
+        <v>8875.9</v>
       </c>
       <c r="K157" s="8">
-        <v>2473.9</v>
+        <v>2479.9</v>
       </c>
       <c r="L157" s="8"/>
       <c r="M157" s="8"/>
@@ -19085,16 +19137,16 @@
         <v>2734</v>
       </c>
       <c r="H158" s="8">
-        <v>20539.400000000001</v>
+        <v>20553.7</v>
       </c>
       <c r="I158" s="8">
-        <v>11393.7</v>
+        <v>11395.1</v>
       </c>
       <c r="J158" s="8">
-        <v>9145.7000000000007</v>
+        <v>9158.7000000000007</v>
       </c>
       <c r="K158" s="8">
-        <v>2494.9</v>
+        <v>2500.9</v>
       </c>
       <c r="L158" s="8"/>
       <c r="M158" s="8"/>
@@ -19118,16 +19170,16 @@
         <v>2557.9</v>
       </c>
       <c r="H159" s="8">
-        <v>20121.2</v>
+        <v>20104</v>
       </c>
       <c r="I159" s="8">
-        <v>11032.8</v>
+        <v>11000.1</v>
       </c>
       <c r="J159" s="8">
-        <v>9088.4</v>
+        <v>9103.7999999999993</v>
       </c>
       <c r="K159" s="8">
-        <v>2420.9</v>
+        <v>2419.4</v>
       </c>
       <c r="L159" s="8"/>
       <c r="M159" s="8"/>
@@ -19151,16 +19203,16 @@
         <v>2605.3000000000002</v>
       </c>
       <c r="H160" s="8">
-        <v>20435.2</v>
+        <v>20429.400000000001</v>
       </c>
       <c r="I160" s="8">
-        <v>11348</v>
+        <v>11343.5</v>
       </c>
       <c r="J160" s="8">
-        <v>9087.2000000000007</v>
+        <v>9085.9</v>
       </c>
       <c r="K160" s="8">
-        <v>2403.9</v>
+        <v>2389.8000000000002</v>
       </c>
       <c r="L160" s="8"/>
       <c r="M160" s="8"/>
@@ -19184,16 +19236,16 @@
         <v>1936.8</v>
       </c>
       <c r="H161" s="8">
-        <v>20730.3</v>
+        <v>20724.2</v>
       </c>
       <c r="I161" s="8">
-        <v>11562.5</v>
+        <v>11547.5</v>
       </c>
       <c r="J161" s="8">
-        <v>9167.7999999999993</v>
+        <v>9176.7000000000007</v>
       </c>
       <c r="K161" s="8">
-        <v>2362.9</v>
+        <v>2354.3000000000002</v>
       </c>
       <c r="L161" s="8"/>
       <c r="M161" s="8"/>
@@ -19217,16 +19269,16 @@
         <v>2223.3000000000002</v>
       </c>
       <c r="H162" s="8">
-        <v>20166.099999999999</v>
+        <v>20113</v>
       </c>
       <c r="I162" s="8">
-        <v>11304.8</v>
+        <v>11282.8</v>
       </c>
       <c r="J162" s="8">
-        <v>8861.2000000000007</v>
+        <v>8830.1</v>
       </c>
       <c r="K162" s="8">
-        <v>2515.8000000000002</v>
+        <v>2507.9</v>
       </c>
       <c r="L162" s="8"/>
       <c r="M162" s="8"/>
@@ -19250,16 +19302,16 @@
         <v>2590.8000000000002</v>
       </c>
       <c r="H163" s="8">
-        <v>21248</v>
+        <v>21233.5</v>
       </c>
       <c r="I163" s="8">
-        <v>11721.7</v>
+        <v>11714</v>
       </c>
       <c r="J163" s="8">
-        <v>9526.2999999999993</v>
+        <v>9519.6</v>
       </c>
       <c r="K163" s="8">
-        <v>2575.4</v>
+        <v>2563.9</v>
       </c>
       <c r="L163" s="8"/>
       <c r="M163" s="8"/>
@@ -19283,16 +19335,16 @@
         <v>2379.5</v>
       </c>
       <c r="H164" s="8">
-        <v>21917.599999999999</v>
+        <v>21906.6</v>
       </c>
       <c r="I164" s="8">
-        <v>11839.2</v>
+        <v>11834.6</v>
       </c>
       <c r="J164" s="8">
-        <v>10078.5</v>
+        <v>10072</v>
       </c>
       <c r="K164" s="8">
-        <v>2555</v>
+        <v>2554.1</v>
       </c>
       <c r="L164" s="8"/>
       <c r="M164" s="8"/>
@@ -19316,16 +19368,16 @@
         <v>2450.8000000000002</v>
       </c>
       <c r="H165" s="8">
-        <v>20284.8</v>
+        <v>20283</v>
       </c>
       <c r="I165" s="8">
-        <v>11122.2</v>
+        <v>11107.7</v>
       </c>
       <c r="J165" s="8">
-        <v>9162.6</v>
+        <v>9175.2999999999993</v>
       </c>
       <c r="K165" s="8">
-        <v>2409.4</v>
+        <v>2404.9</v>
       </c>
       <c r="L165" s="8"/>
       <c r="M165" s="8"/>
@@ -19349,16 +19401,16 @@
         <v>2610.6</v>
       </c>
       <c r="H166" s="8">
-        <v>21128.2</v>
+        <v>21112.2</v>
       </c>
       <c r="I166" s="8">
-        <v>11977.6</v>
+        <v>11981.3</v>
       </c>
       <c r="J166" s="8">
-        <v>9150.6</v>
+        <v>9130.9</v>
       </c>
       <c r="K166" s="8">
-        <v>2478.9</v>
+        <v>2484.9</v>
       </c>
       <c r="L166" s="8"/>
       <c r="M166" s="8"/>
@@ -19382,16 +19434,16 @@
         <v>2536.6999999999998</v>
       </c>
       <c r="H167" s="8">
-        <v>21120.7</v>
+        <v>21149.1</v>
       </c>
       <c r="I167" s="8">
-        <v>12278.3</v>
+        <v>12309.1</v>
       </c>
       <c r="J167" s="8">
-        <v>8842.4</v>
+        <v>8840.1</v>
       </c>
       <c r="K167" s="8">
-        <v>2417.4</v>
+        <v>2436.8000000000002</v>
       </c>
       <c r="L167" s="8"/>
       <c r="M167" s="8"/>
@@ -19415,16 +19467,16 @@
         <v>2308.5</v>
       </c>
       <c r="H168" s="8">
-        <v>21687.7</v>
+        <v>21738.5</v>
       </c>
       <c r="I168" s="8">
-        <v>13197.2</v>
+        <v>13249</v>
       </c>
       <c r="J168" s="8">
-        <v>8490.4</v>
+        <v>8489.5</v>
       </c>
       <c r="K168" s="8">
-        <v>2403.9</v>
+        <v>2415</v>
       </c>
       <c r="L168" s="8"/>
       <c r="M168" s="8"/>
@@ -19448,16 +19500,16 @@
         <v>2580.8000000000002</v>
       </c>
       <c r="H169" s="8">
-        <v>20880.3</v>
+        <v>20930.7</v>
       </c>
       <c r="I169" s="8">
-        <v>13509.4</v>
+        <v>13552.2</v>
       </c>
       <c r="J169" s="8">
-        <v>7370.8</v>
+        <v>7378.4</v>
       </c>
       <c r="K169" s="8">
-        <v>2440.1</v>
+        <v>2450.6999999999998</v>
       </c>
       <c r="L169" s="8"/>
       <c r="M169" s="8"/>
@@ -19481,16 +19533,16 @@
         <v>2451.9</v>
       </c>
       <c r="H170" s="8">
-        <v>19999.400000000001</v>
+        <v>20031.099999999999</v>
       </c>
       <c r="I170" s="8">
-        <v>13134.4</v>
+        <v>13149.8</v>
       </c>
       <c r="J170" s="8">
-        <v>6865</v>
+        <v>6881.3</v>
       </c>
       <c r="K170" s="8">
-        <v>2322.6999999999998</v>
+        <v>2332.1</v>
       </c>
       <c r="L170" s="8"/>
       <c r="M170" s="8"/>
@@ -19514,16 +19566,16 @@
         <v>2561.8000000000002</v>
       </c>
       <c r="H171" s="8">
-        <v>19680.8</v>
+        <v>19653.3</v>
       </c>
       <c r="I171" s="8">
-        <v>13037.1</v>
+        <v>12998.3</v>
       </c>
       <c r="J171" s="8">
-        <v>6643.7</v>
+        <v>6655</v>
       </c>
       <c r="K171" s="8">
-        <v>2353.3000000000002</v>
+        <v>2347.8000000000002</v>
       </c>
       <c r="L171" s="8"/>
       <c r="M171" s="8"/>
@@ -19547,16 +19599,16 @@
         <v>2676.5</v>
       </c>
       <c r="H172" s="8">
-        <v>19631.8</v>
+        <v>19596.8</v>
       </c>
       <c r="I172" s="8">
-        <v>12936.5</v>
+        <v>12898.5</v>
       </c>
       <c r="J172" s="8">
-        <v>6695.4</v>
+        <v>6698.3</v>
       </c>
       <c r="K172" s="8">
-        <v>2468.6999999999998</v>
+        <v>2454.9</v>
       </c>
       <c r="L172" s="8"/>
       <c r="M172" s="8"/>
@@ -19580,16 +19632,16 @@
         <v>1919.1</v>
       </c>
       <c r="H173" s="8">
-        <v>19132</v>
+        <v>19123.2</v>
       </c>
       <c r="I173" s="8">
-        <v>12547.9</v>
+        <v>12513.3</v>
       </c>
       <c r="J173" s="8">
-        <v>6584.1</v>
+        <v>6610</v>
       </c>
       <c r="K173" s="8">
-        <v>2416.4</v>
+        <v>2408.1999999999998</v>
       </c>
       <c r="L173" s="8"/>
       <c r="M173" s="8"/>
@@ -19613,16 +19665,16 @@
         <v>2231.9</v>
       </c>
       <c r="H174" s="8">
-        <v>19345.8</v>
+        <v>19297.099999999999</v>
       </c>
       <c r="I174" s="8">
-        <v>12688.1</v>
+        <v>12678.7</v>
       </c>
       <c r="J174" s="8">
-        <v>6657.7</v>
+        <v>6618.4</v>
       </c>
       <c r="K174" s="8">
-        <v>2421.1</v>
+        <v>2403.6999999999998</v>
       </c>
       <c r="L174" s="8"/>
       <c r="M174" s="8"/>
@@ -19646,16 +19698,16 @@
         <v>2338.9</v>
       </c>
       <c r="H175" s="8">
-        <v>19117.7</v>
+        <v>19107.900000000001</v>
       </c>
       <c r="I175" s="8">
-        <v>12456.9</v>
+        <v>12452.6</v>
       </c>
       <c r="J175" s="8">
-        <v>6660.8</v>
+        <v>6655.3</v>
       </c>
       <c r="K175" s="8">
-        <v>2361.1999999999998</v>
+        <v>2348.1</v>
       </c>
       <c r="L175" s="8"/>
       <c r="M175" s="8"/>
@@ -19679,16 +19731,16 @@
         <v>2359</v>
       </c>
       <c r="H176" s="8">
-        <v>19712.8</v>
+        <v>19676.8</v>
       </c>
       <c r="I176" s="8">
-        <v>12806.9</v>
+        <v>12773.4</v>
       </c>
       <c r="J176" s="8">
-        <v>6905.9</v>
+        <v>6903.4</v>
       </c>
       <c r="K176" s="8">
-        <v>2493.3000000000002</v>
+        <v>2482.6</v>
       </c>
       <c r="L176" s="8"/>
       <c r="M176" s="8"/>
@@ -19712,16 +19764,16 @@
         <v>2560.1</v>
       </c>
       <c r="H177" s="8">
-        <v>19974.8</v>
+        <v>19931.7</v>
       </c>
       <c r="I177" s="8">
-        <v>12754</v>
+        <v>12726.1</v>
       </c>
       <c r="J177" s="8">
-        <v>7220.7</v>
+        <v>7205.6</v>
       </c>
       <c r="K177" s="8">
-        <v>2442</v>
+        <v>2436.3000000000002</v>
       </c>
       <c r="L177" s="8"/>
       <c r="M177" s="8"/>
@@ -19745,16 +19797,16 @@
         <v>2524</v>
       </c>
       <c r="H178" s="8">
-        <v>20232.099999999999</v>
+        <v>20229.2</v>
       </c>
       <c r="I178" s="8">
-        <v>12707.3</v>
+        <v>12717.4</v>
       </c>
       <c r="J178" s="8">
-        <v>7524.8</v>
+        <v>7511.8</v>
       </c>
       <c r="K178" s="8">
-        <v>2408.8000000000002</v>
+        <v>2421.1</v>
       </c>
       <c r="L178" s="8"/>
       <c r="M178" s="8"/>
@@ -19778,16 +19830,16 @@
         <v>2278.1999999999998</v>
       </c>
       <c r="H179" s="8">
-        <v>20065.900000000001</v>
+        <v>20096</v>
       </c>
       <c r="I179" s="8">
-        <v>12421.3</v>
+        <v>12444.3</v>
       </c>
       <c r="J179" s="8">
-        <v>7644.6</v>
+        <v>7651.7</v>
       </c>
       <c r="K179" s="8">
-        <v>2323.3000000000002</v>
+        <v>2351</v>
       </c>
       <c r="L179" s="8"/>
       <c r="M179" s="8"/>
@@ -19811,16 +19863,16 @@
         <v>2373.5</v>
       </c>
       <c r="H180" s="8">
-        <v>19792.5</v>
+        <v>19866.3</v>
       </c>
       <c r="I180" s="8">
-        <v>12216.4</v>
+        <v>12308.5</v>
       </c>
       <c r="J180" s="8">
-        <v>7576.1</v>
+        <v>7557.8</v>
       </c>
       <c r="K180" s="8">
-        <v>2261.1</v>
+        <v>2277.4</v>
       </c>
       <c r="L180" s="8"/>
       <c r="M180" s="8"/>
@@ -19844,16 +19896,16 @@
         <v>2405.6999999999998</v>
       </c>
       <c r="H181" s="8">
-        <v>20735.599999999999</v>
+        <v>20771.900000000001</v>
       </c>
       <c r="I181" s="8">
-        <v>12439.1</v>
+        <v>12461.3</v>
       </c>
       <c r="J181" s="8">
-        <v>8296.4</v>
+        <v>8310.6</v>
       </c>
       <c r="K181" s="8">
-        <v>2317.9</v>
+        <v>2338.9</v>
       </c>
       <c r="L181" s="8"/>
       <c r="M181" s="8"/>
@@ -19877,16 +19929,16 @@
         <v>2419.6999999999998</v>
       </c>
       <c r="H182" s="8">
-        <v>21077.599999999999</v>
+        <v>21178.9</v>
       </c>
       <c r="I182" s="8">
-        <v>12531.9</v>
+        <v>12597</v>
       </c>
       <c r="J182" s="8">
-        <v>8545.7999999999993</v>
+        <v>8581.9</v>
       </c>
       <c r="K182" s="8">
-        <v>2370.6</v>
+        <v>2378.9</v>
       </c>
       <c r="L182" s="8"/>
       <c r="M182" s="8"/>
@@ -19910,16 +19962,16 @@
         <v>2713</v>
       </c>
       <c r="H183" s="8">
-        <v>21498.1</v>
+        <v>21505.5</v>
       </c>
       <c r="I183" s="8">
-        <v>12717.5</v>
+        <v>12706</v>
       </c>
       <c r="J183" s="8">
-        <v>8780.6</v>
+        <v>8799.5</v>
       </c>
       <c r="K183" s="8">
-        <v>2356.8000000000002</v>
+        <v>2347</v>
       </c>
       <c r="L183" s="8"/>
       <c r="M183" s="8"/>
@@ -19943,16 +19995,16 @@
         <v>2490.6</v>
       </c>
       <c r="H184" s="8">
-        <v>22055.3</v>
+        <v>21982</v>
       </c>
       <c r="I184" s="8">
-        <v>13159.4</v>
+        <v>13058.2</v>
       </c>
       <c r="J184" s="8">
-        <v>8895.9</v>
+        <v>8923.9</v>
       </c>
       <c r="K184" s="8">
-        <v>2397.6</v>
+        <v>2373.1</v>
       </c>
       <c r="L184" s="8"/>
       <c r="M184" s="8"/>
@@ -19976,16 +20028,16 @@
         <v>1955.4</v>
       </c>
       <c r="H185" s="8">
-        <v>22229.3</v>
+        <v>22206.400000000001</v>
       </c>
       <c r="I185" s="8">
-        <v>13234.1</v>
+        <v>13204.1</v>
       </c>
       <c r="J185" s="8">
-        <v>8995.2999999999993</v>
+        <v>9002.4</v>
       </c>
       <c r="K185" s="8">
-        <v>2368.5</v>
+        <v>2355.8000000000002</v>
       </c>
       <c r="L185" s="8"/>
       <c r="M185" s="8"/>
@@ -20009,16 +20061,16 @@
         <v>2061</v>
       </c>
       <c r="H186" s="8">
-        <v>21771.8</v>
+        <v>21704.5</v>
       </c>
       <c r="I186" s="8">
-        <v>13190.5</v>
+        <v>13161.1</v>
       </c>
       <c r="J186" s="8">
-        <v>8581.4</v>
+        <v>8543.4</v>
       </c>
       <c r="K186" s="8">
-        <v>2335.9</v>
+        <v>2319.3000000000002</v>
       </c>
       <c r="L186" s="8"/>
       <c r="M186" s="8"/>
@@ -20042,16 +20094,16 @@
         <v>2543.4</v>
       </c>
       <c r="H187" s="8">
-        <v>22674.799999999999</v>
+        <v>22670.5</v>
       </c>
       <c r="I187" s="8">
-        <v>13776.9</v>
+        <v>13770</v>
       </c>
       <c r="J187" s="8">
-        <v>8897.7999999999993</v>
+        <v>8900.5</v>
       </c>
       <c r="K187" s="8">
-        <v>2435.3000000000002</v>
+        <v>2426.3000000000002</v>
       </c>
       <c r="L187" s="8"/>
       <c r="M187" s="8"/>
@@ -20075,16 +20127,16 @@
         <v>2099.9</v>
       </c>
       <c r="H188" s="8">
-        <v>22256.9</v>
+        <v>22241.4</v>
       </c>
       <c r="I188" s="8">
-        <v>13572.1</v>
+        <v>13546.8</v>
       </c>
       <c r="J188" s="8">
-        <v>8684.7999999999993</v>
+        <v>8694.6</v>
       </c>
       <c r="K188" s="8">
-        <v>2465.8000000000002</v>
+        <v>2451.3000000000002</v>
       </c>
       <c r="L188" s="8"/>
       <c r="M188" s="8"/>
@@ -20108,16 +20160,16 @@
         <v>2713.9</v>
       </c>
       <c r="H189" s="8">
-        <v>22548.3</v>
+        <v>22430.1</v>
       </c>
       <c r="I189" s="8">
-        <v>14102.8</v>
+        <v>14044.2</v>
       </c>
       <c r="J189" s="8">
-        <v>8445.5</v>
+        <v>8385.9</v>
       </c>
       <c r="K189" s="8">
-        <v>2505.3000000000002</v>
+        <v>2481.8000000000002</v>
       </c>
       <c r="L189" s="8"/>
       <c r="M189" s="8"/>
@@ -20141,16 +20193,16 @@
         <v>2752.7</v>
       </c>
       <c r="H190" s="8">
-        <v>22186.1</v>
+        <v>22120.2</v>
       </c>
       <c r="I190" s="8">
-        <v>14005.6</v>
+        <v>13970</v>
       </c>
       <c r="J190" s="8">
-        <v>8180.5</v>
+        <v>8150.2</v>
       </c>
       <c r="K190" s="8">
-        <v>2631.6</v>
+        <v>2665.2</v>
       </c>
       <c r="L190" s="8"/>
       <c r="M190" s="8"/>
@@ -20174,16 +20226,16 @@
         <v>2934.5</v>
       </c>
       <c r="H191" s="8">
-        <v>22086.1</v>
+        <v>22144.5</v>
       </c>
       <c r="I191" s="8">
-        <v>14176.3</v>
+        <v>14250.8</v>
       </c>
       <c r="J191" s="8">
-        <v>7909.8</v>
+        <v>7893.6</v>
       </c>
       <c r="K191" s="8">
-        <v>2995</v>
+        <v>3028.8</v>
       </c>
       <c r="L191" s="8"/>
       <c r="M191" s="8"/>
@@ -20207,16 +20259,16 @@
         <v>3341.9</v>
       </c>
       <c r="H192" s="8">
-        <v>22371.200000000001</v>
+        <v>22487.1</v>
       </c>
       <c r="I192" s="8">
-        <v>14423</v>
+        <v>14554.3</v>
       </c>
       <c r="J192" s="8">
-        <v>7948.2</v>
+        <v>7932.7</v>
       </c>
       <c r="K192" s="8">
-        <v>3185.2</v>
+        <v>3226.1</v>
       </c>
       <c r="L192" s="8"/>
       <c r="M192" s="8"/>
@@ -20240,16 +20292,16 @@
         <v>3089.1</v>
       </c>
       <c r="H193" s="8">
-        <v>22027.200000000001</v>
+        <v>22068.400000000001</v>
       </c>
       <c r="I193" s="8">
-        <v>14267.8</v>
+        <v>14281.4</v>
       </c>
       <c r="J193" s="8">
-        <v>7759.4</v>
+        <v>7787</v>
       </c>
       <c r="K193" s="8">
-        <v>3059.2</v>
+        <v>3071.7</v>
       </c>
       <c r="L193" s="8"/>
       <c r="M193" s="8"/>
@@ -20273,16 +20325,16 @@
         <v>3298.4</v>
       </c>
       <c r="H194" s="8">
-        <v>21435.1</v>
+        <v>21637.7</v>
       </c>
       <c r="I194" s="8">
-        <v>13962.1</v>
+        <v>14120.5</v>
       </c>
       <c r="J194" s="8">
-        <v>7473</v>
+        <v>7517.1</v>
       </c>
       <c r="K194" s="8">
-        <v>3098.6</v>
+        <v>3133.8</v>
       </c>
       <c r="L194" s="8"/>
       <c r="M194" s="8"/>
@@ -20306,16 +20358,16 @@
         <v>3676.9</v>
       </c>
       <c r="H195" s="8">
-        <v>21423.8</v>
+        <v>21532</v>
       </c>
       <c r="I195" s="8">
-        <v>14101.2</v>
+        <v>14151.2</v>
       </c>
       <c r="J195" s="8">
-        <v>7322.6</v>
+        <v>7380.9</v>
       </c>
       <c r="K195" s="8">
-        <v>3233.1</v>
+        <v>3217.8</v>
       </c>
       <c r="L195" s="8"/>
       <c r="M195" s="8"/>
@@ -20339,16 +20391,16 @@
         <v>3298.4</v>
       </c>
       <c r="H196" s="8">
-        <v>21280</v>
+        <v>21137.7</v>
       </c>
       <c r="I196" s="8">
-        <v>14169.6</v>
+        <v>13985.8</v>
       </c>
       <c r="J196" s="8">
-        <v>7110.5</v>
+        <v>7151.9</v>
       </c>
       <c r="K196" s="8">
-        <v>3264.8</v>
+        <v>3227.2</v>
       </c>
       <c r="L196" s="8"/>
       <c r="M196" s="8"/>
@@ -20372,16 +20424,16 @@
         <v>2776.5</v>
       </c>
       <c r="H197" s="8">
-        <v>21135.200000000001</v>
+        <v>21067</v>
       </c>
       <c r="I197" s="8">
-        <v>14182.8</v>
+        <v>14139.1</v>
       </c>
       <c r="J197" s="8">
-        <v>6952.3</v>
+        <v>6927.9</v>
       </c>
       <c r="K197" s="8">
-        <v>3246.8</v>
+        <v>3198.5</v>
       </c>
       <c r="L197" s="8"/>
       <c r="M197" s="8"/>
@@ -20405,16 +20457,16 @@
         <v>2911.4</v>
       </c>
       <c r="H198" s="8">
-        <v>21131.7</v>
+        <v>21055.599999999999</v>
       </c>
       <c r="I198" s="8">
-        <v>14163.4</v>
+        <v>14118.9</v>
       </c>
       <c r="J198" s="8">
-        <v>6968.3</v>
+        <v>6936.7</v>
       </c>
       <c r="K198" s="8">
-        <v>3306.1</v>
+        <v>3275.5</v>
       </c>
       <c r="L198" s="8"/>
       <c r="M198" s="8"/>
@@ -20438,16 +20490,16 @@
         <v>3155.2</v>
       </c>
       <c r="H199" s="8">
-        <v>20442.3</v>
+        <v>20431.7</v>
       </c>
       <c r="I199" s="8">
-        <v>13869.3</v>
+        <v>13826</v>
       </c>
       <c r="J199" s="8">
-        <v>6573.1</v>
+        <v>6605.7</v>
       </c>
       <c r="K199" s="8">
-        <v>3245.1</v>
+        <v>3225.1</v>
       </c>
       <c r="L199" s="8"/>
       <c r="M199" s="8"/>
@@ -20471,16 +20523,16 @@
         <v>2966.6</v>
       </c>
       <c r="H200" s="8">
-        <v>20321.400000000001</v>
+        <v>20311.3</v>
       </c>
       <c r="I200" s="8">
-        <v>13862.6</v>
+        <v>13872.4</v>
       </c>
       <c r="J200" s="8">
-        <v>6458.9</v>
+        <v>6438.9</v>
       </c>
       <c r="K200" s="8">
-        <v>3234.3</v>
+        <v>3231.6</v>
       </c>
       <c r="L200" s="8"/>
       <c r="M200" s="8"/>
@@ -20504,16 +20556,16 @@
         <v>3591.2</v>
       </c>
       <c r="H201" s="8">
-        <v>20921.900000000001</v>
+        <v>20737.3</v>
       </c>
       <c r="I201" s="8">
-        <v>14354</v>
+        <v>14213.8</v>
       </c>
       <c r="J201" s="8">
-        <v>6567.9</v>
+        <v>6523.5</v>
       </c>
       <c r="K201" s="8">
-        <v>3345.1</v>
+        <v>3315.2</v>
       </c>
       <c r="L201" s="8"/>
       <c r="M201" s="8"/>
@@ -20537,16 +20589,16 @@
         <v>3380.3</v>
       </c>
       <c r="H202" s="8">
-        <v>20449.900000000001</v>
+        <v>20300.099999999999</v>
       </c>
       <c r="I202" s="8">
-        <v>14075</v>
+        <v>13979.2</v>
       </c>
       <c r="J202" s="8">
-        <v>6374.9</v>
+        <v>6320.9</v>
       </c>
       <c r="K202" s="8">
-        <v>3342.9</v>
+        <v>3363.9</v>
       </c>
       <c r="L202" s="8"/>
       <c r="M202" s="8"/>
@@ -20570,16 +20622,16 @@
         <v>3356.2</v>
       </c>
       <c r="H203" s="8">
-        <v>20305.400000000001</v>
+        <v>20271.7</v>
       </c>
       <c r="I203" s="8">
-        <v>13930.6</v>
+        <v>13965.4</v>
       </c>
       <c r="J203" s="8">
-        <v>6374.8</v>
+        <v>6306.2</v>
       </c>
       <c r="K203" s="8">
-        <v>3282.2</v>
+        <v>3348.9</v>
       </c>
       <c r="L203" s="8"/>
       <c r="M203" s="8"/>
@@ -20603,16 +20655,16 @@
         <v>3319.8</v>
       </c>
       <c r="H204" s="8">
-        <v>19233.599999999999</v>
+        <v>19395</v>
       </c>
       <c r="I204" s="8">
-        <v>13194.5</v>
+        <v>13363.4</v>
       </c>
       <c r="J204" s="8">
-        <v>6039.1</v>
+        <v>6031.6</v>
       </c>
       <c r="K204" s="8">
-        <v>3167.5</v>
+        <v>3235.5</v>
       </c>
       <c r="L204" s="8"/>
       <c r="M204" s="8"/>
@@ -20636,16 +20688,16 @@
         <v>2998.9</v>
       </c>
       <c r="H205" s="8">
-        <v>18590.599999999999</v>
+        <v>18727.2</v>
       </c>
       <c r="I205" s="8">
-        <v>12808.2</v>
+        <v>12893.1</v>
       </c>
       <c r="J205" s="8">
-        <v>5782.4</v>
+        <v>5834</v>
       </c>
       <c r="K205" s="8">
-        <v>3098.9</v>
+        <v>3109.2</v>
       </c>
       <c r="L205" s="8"/>
       <c r="M205" s="8"/>
@@ -20669,16 +20721,16 @@
         <v>3474.1</v>
       </c>
       <c r="H206" s="8">
-        <v>18485.2</v>
+        <v>18792.8</v>
       </c>
       <c r="I206" s="8">
-        <v>12888</v>
+        <v>13148.5</v>
       </c>
       <c r="J206" s="8">
-        <v>5597.2</v>
+        <v>5644.2</v>
       </c>
       <c r="K206" s="8">
-        <v>3150</v>
+        <v>3174.1</v>
       </c>
       <c r="L206" s="8"/>
       <c r="M206" s="8"/>
@@ -20702,16 +20754,16 @@
         <v>3570.6</v>
       </c>
       <c r="H207" s="8">
-        <v>17716.099999999999</v>
+        <v>17817.900000000001</v>
       </c>
       <c r="I207" s="8">
-        <v>12454.5</v>
+        <v>12479.8</v>
       </c>
       <c r="J207" s="8">
-        <v>5261.6</v>
+        <v>5338.1</v>
       </c>
       <c r="K207" s="8">
-        <v>3125</v>
+        <v>3132.2</v>
       </c>
       <c r="L207" s="8"/>
       <c r="M207" s="8"/>
@@ -20735,16 +20787,16 @@
         <v>2905.1</v>
       </c>
       <c r="H208" s="8">
-        <v>17000.2</v>
+        <v>16911.400000000001</v>
       </c>
       <c r="I208" s="8">
-        <v>11914.9</v>
+        <v>11787.7</v>
       </c>
       <c r="J208" s="8">
-        <v>5085.3</v>
+        <v>5123.8</v>
       </c>
       <c r="K208" s="8">
-        <v>2862.9</v>
+        <v>2805.5</v>
       </c>
       <c r="L208" s="8"/>
       <c r="M208" s="8"/>
@@ -20768,16 +20820,16 @@
         <v>2444.6999999999998</v>
       </c>
       <c r="H209" s="8">
-        <v>16718.099999999999</v>
+        <v>16609.3</v>
       </c>
       <c r="I209" s="8">
-        <v>11790.6</v>
+        <v>11690.7</v>
       </c>
       <c r="J209" s="8">
-        <v>4927.5</v>
+        <v>4918.6000000000004</v>
       </c>
       <c r="K209" s="8">
-        <v>2873</v>
+        <v>2831.3</v>
       </c>
       <c r="L209" s="8"/>
       <c r="M209" s="8"/>
@@ -20801,16 +20853,16 @@
         <v>2651.8</v>
       </c>
       <c r="H210" s="8">
-        <v>17025.900000000001</v>
+        <v>16939.599999999999</v>
       </c>
       <c r="I210" s="8">
-        <v>12115</v>
+        <v>12045.7</v>
       </c>
       <c r="J210" s="8">
-        <v>4910.8999999999996</v>
+        <v>4893.8999999999996</v>
       </c>
       <c r="K210" s="8">
-        <v>3015</v>
+        <v>2981.9</v>
       </c>
       <c r="L210" s="8"/>
       <c r="M210" s="8"/>
@@ -20834,16 +20886,16 @@
         <v>2917.6</v>
       </c>
       <c r="H211" s="8">
-        <v>16488</v>
+        <v>16423.8</v>
       </c>
       <c r="I211" s="8">
-        <v>11657.6</v>
+        <v>11597.7</v>
       </c>
       <c r="J211" s="8">
-        <v>4830.3999999999996</v>
+        <v>4826.1000000000004</v>
       </c>
       <c r="K211" s="8">
-        <v>3009.9</v>
+        <v>2985</v>
       </c>
       <c r="L211" s="8"/>
       <c r="M211" s="8"/>
@@ -20867,16 +20919,16 @@
         <v>2851.7</v>
       </c>
       <c r="H212" s="8">
-        <v>16687.099999999999</v>
+        <v>16623.3</v>
       </c>
       <c r="I212" s="8">
-        <v>11875.5</v>
+        <v>11838.1</v>
       </c>
       <c r="J212" s="8">
-        <v>4811.6000000000004</v>
+        <v>4785.1000000000004</v>
       </c>
       <c r="K212" s="8">
-        <v>3076.5</v>
+        <v>3066.6</v>
       </c>
       <c r="L212" s="8"/>
       <c r="M212" s="8"/>
@@ -20900,16 +20952,16 @@
         <v>3366.3</v>
       </c>
       <c r="H213" s="8">
-        <v>16511.2</v>
+        <v>16294.4</v>
       </c>
       <c r="I213" s="8">
-        <v>11723.6</v>
+        <v>11557.6</v>
       </c>
       <c r="J213" s="8">
-        <v>4787.6000000000004</v>
+        <v>4736.8</v>
       </c>
       <c r="K213" s="8">
-        <v>3160.8</v>
+        <v>3146.6</v>
       </c>
       <c r="L213" s="8"/>
       <c r="M213" s="8"/>
@@ -20933,16 +20985,16 @@
         <v>3110.5</v>
       </c>
       <c r="H214" s="8">
-        <v>16778.8</v>
+        <v>16672.3</v>
       </c>
       <c r="I214" s="8">
-        <v>11967</v>
+        <v>11907.9</v>
       </c>
       <c r="J214" s="8">
-        <v>4811.8</v>
+        <v>4764.5</v>
       </c>
       <c r="K214" s="8">
-        <v>3223</v>
+        <v>3235.7</v>
       </c>
       <c r="L214" s="8"/>
       <c r="M214" s="8"/>
@@ -20972,16 +21024,16 @@
         <v>270</v>
       </c>
       <c r="H215" s="8">
-        <v>17071.099999999999</v>
+        <v>16996.099999999999</v>
       </c>
       <c r="I215" s="8">
-        <v>12124.5</v>
+        <v>12146.9</v>
       </c>
       <c r="J215" s="8">
-        <v>4946.6000000000004</v>
+        <v>4849.2</v>
       </c>
       <c r="K215" s="8">
-        <v>3377</v>
+        <v>3430.5</v>
       </c>
       <c r="L215" s="8"/>
       <c r="M215" s="8"/>
@@ -21011,16 +21063,16 @@
         <v>269.2</v>
       </c>
       <c r="H216" s="8">
-        <v>17688.2</v>
+        <v>17896.5</v>
       </c>
       <c r="I216" s="8">
-        <v>12486.2</v>
+        <v>12659.3</v>
       </c>
       <c r="J216" s="8">
-        <v>5202</v>
+        <v>5237.1000000000004</v>
       </c>
       <c r="K216" s="8">
-        <v>3577.5</v>
+        <v>3662.2</v>
       </c>
       <c r="L216" s="8"/>
       <c r="M216" s="8"/>
@@ -21050,16 +21102,16 @@
         <v>236</v>
       </c>
       <c r="H217" s="8">
-        <v>17795.400000000001</v>
+        <v>18020.900000000001</v>
       </c>
       <c r="I217" s="8">
-        <v>12786.9</v>
+        <v>12976.1</v>
       </c>
       <c r="J217" s="8">
-        <v>5008.5</v>
+        <v>5044.8999999999996</v>
       </c>
       <c r="K217" s="8">
-        <v>3620.2</v>
+        <v>3657.9</v>
       </c>
       <c r="L217" s="8"/>
       <c r="M217" s="8"/>
@@ -21089,16 +21141,16 @@
         <v>267.2</v>
       </c>
       <c r="H218" s="8">
-        <v>18144.2</v>
+        <v>18593.599999999999</v>
       </c>
       <c r="I218" s="8">
-        <v>13116.3</v>
+        <v>13459.8</v>
       </c>
       <c r="J218" s="8">
-        <v>5027.8999999999996</v>
+        <v>5133.8</v>
       </c>
       <c r="K218" s="8">
-        <v>3656.9</v>
+        <v>3704.2</v>
       </c>
       <c r="L218" s="8"/>
       <c r="M218" s="8"/>
@@ -21128,16 +21180,16 @@
         <v>270.89999999999998</v>
       </c>
       <c r="H219" s="8">
-        <v>19167.2</v>
+        <v>19303.7</v>
       </c>
       <c r="I219" s="8">
-        <v>13912.1</v>
+        <v>13951</v>
       </c>
       <c r="J219" s="8">
-        <v>5255.1</v>
+        <v>5352.7</v>
       </c>
       <c r="K219" s="8">
-        <v>3904.2</v>
+        <v>3874.5</v>
       </c>
       <c r="L219" s="8"/>
       <c r="M219" s="8"/>
@@ -21167,16 +21219,16 @@
         <v>256.89999999999998</v>
       </c>
       <c r="H220" s="8">
-        <v>19777.900000000001</v>
+        <v>19572.5</v>
       </c>
       <c r="I220" s="8">
-        <v>14410.6</v>
+        <v>14186.8</v>
       </c>
       <c r="J220" s="8">
-        <v>5367.4</v>
+        <v>5385.7</v>
       </c>
       <c r="K220" s="8">
-        <v>4036.5</v>
+        <v>3970.1</v>
       </c>
       <c r="L220" s="8"/>
       <c r="M220" s="8"/>
@@ -21206,16 +21258,16 @@
         <v>177.8</v>
       </c>
       <c r="H221" s="8">
-        <v>19756.7</v>
+        <v>19515</v>
       </c>
       <c r="I221" s="8">
-        <v>14398</v>
+        <v>14206.7</v>
       </c>
       <c r="J221" s="8">
-        <v>5358.7</v>
+        <v>5308.3</v>
       </c>
       <c r="K221" s="8">
-        <v>4095.3</v>
+        <v>4046.2</v>
       </c>
       <c r="L221" s="8"/>
       <c r="M221" s="8"/>
@@ -21245,16 +21297,16 @@
         <v>163.69999999999999</v>
       </c>
       <c r="H222" s="8">
-        <v>19123.7</v>
+        <v>19000</v>
       </c>
       <c r="I222" s="8">
-        <v>13920.4</v>
+        <v>13788.4</v>
       </c>
       <c r="J222" s="8">
-        <v>5203.2</v>
+        <v>5211.6000000000004</v>
       </c>
       <c r="K222" s="8">
-        <v>4094.1</v>
+        <v>4018.5</v>
       </c>
       <c r="L222" s="8"/>
       <c r="M222" s="8"/>
@@ -21284,16 +21336,16 @@
         <v>196.4</v>
       </c>
       <c r="H223" s="8">
-        <v>19269.2</v>
+        <v>19216.900000000001</v>
       </c>
       <c r="I223" s="8">
-        <v>14200.2</v>
+        <v>14182.8</v>
       </c>
       <c r="J223" s="8">
-        <v>5069</v>
+        <v>5034.1000000000004</v>
       </c>
       <c r="K223" s="8">
-        <v>4197.2</v>
+        <v>4162.5</v>
       </c>
       <c r="L223" s="8"/>
       <c r="M223" s="8"/>
@@ -21323,16 +21375,16 @@
         <v>199</v>
       </c>
       <c r="H224" s="8">
-        <v>18468.900000000001</v>
+        <v>18445.099999999999</v>
       </c>
       <c r="I224" s="8">
-        <v>13526.6</v>
+        <v>13506.1</v>
       </c>
       <c r="J224" s="8">
-        <v>4942.3</v>
+        <v>4938.8999999999996</v>
       </c>
       <c r="K224" s="8">
-        <v>4169.8999999999996</v>
+        <v>4142.6000000000004</v>
       </c>
       <c r="L224" s="8"/>
       <c r="M224" s="8"/>
@@ -21362,16 +21414,16 @@
         <v>196</v>
       </c>
       <c r="H225" s="8">
-        <v>16662.900000000001</v>
+        <v>16360.8</v>
       </c>
       <c r="I225" s="8">
-        <v>12437.7</v>
+        <v>12180.5</v>
       </c>
       <c r="J225" s="8">
-        <v>4225.2</v>
+        <v>4180.3</v>
       </c>
       <c r="K225" s="8">
-        <v>3770.5</v>
+        <v>3736.2</v>
       </c>
       <c r="L225" s="8"/>
       <c r="M225" s="8"/>
@@ -21401,16 +21453,16 @@
         <v>232.9</v>
       </c>
       <c r="H226" s="8">
-        <v>17546.7</v>
+        <v>17383.900000000001</v>
       </c>
       <c r="I226" s="8">
-        <v>12998.3</v>
+        <v>12928.9</v>
       </c>
       <c r="J226" s="8">
-        <v>4548.3999999999996</v>
+        <v>4455</v>
       </c>
       <c r="K226" s="8">
-        <v>3903.3</v>
+        <v>3949</v>
       </c>
       <c r="L226" s="8"/>
       <c r="M226" s="8"/>
@@ -21440,16 +21492,16 @@
         <v>245.1</v>
       </c>
       <c r="H227" s="8">
-        <v>19095.400000000001</v>
+        <v>19005.8</v>
       </c>
       <c r="I227" s="8">
-        <v>14387.6</v>
+        <v>14371</v>
       </c>
       <c r="J227" s="8">
-        <v>4707.8</v>
+        <v>4634.8</v>
       </c>
       <c r="K227" s="8">
-        <v>4291.8999999999996</v>
+        <v>4408.3</v>
       </c>
       <c r="L227" s="8"/>
       <c r="M227" s="8"/>
@@ -21479,16 +21531,16 @@
         <v>251.1</v>
       </c>
       <c r="H228" s="8">
-        <v>20869</v>
+        <v>21306.3</v>
       </c>
       <c r="I228" s="8">
-        <v>15930.2</v>
+        <v>16356.7</v>
       </c>
       <c r="J228" s="8">
-        <v>4938.8999999999996</v>
+        <v>4949.6000000000004</v>
       </c>
       <c r="K228" s="8">
-        <v>4991</v>
+        <v>5085.8</v>
       </c>
       <c r="L228" s="8"/>
       <c r="M228" s="8"/>
@@ -21518,16 +21570,16 @@
         <v>297.89999999999998</v>
       </c>
       <c r="H229" s="8">
-        <v>22374.5</v>
+        <v>22586.400000000001</v>
       </c>
       <c r="I229" s="8">
-        <v>17123.3</v>
+        <v>17317.599999999999</v>
       </c>
       <c r="J229" s="8">
-        <v>5251.2</v>
+        <v>5268.8</v>
       </c>
       <c r="K229" s="8">
-        <v>5394.4</v>
+        <v>5401.5</v>
       </c>
       <c r="L229" s="8"/>
       <c r="M229" s="8"/>
@@ -21557,16 +21609,16 @@
         <v>280.5</v>
       </c>
       <c r="H230" s="8">
-        <v>22363.1</v>
+        <v>22975.7</v>
       </c>
       <c r="I230" s="8">
-        <v>17230.8</v>
+        <v>17665.599999999999</v>
       </c>
       <c r="J230" s="8">
-        <v>5132.3</v>
+        <v>5310.1</v>
       </c>
       <c r="K230" s="8">
-        <v>5428.1</v>
+        <v>5549.6</v>
       </c>
       <c r="L230" s="8"/>
       <c r="M230" s="8"/>
@@ -21596,16 +21648,16 @@
         <v>309.2</v>
       </c>
       <c r="H231" s="8">
-        <v>23606</v>
+        <v>23981.9</v>
       </c>
       <c r="I231" s="8">
-        <v>18202.599999999999</v>
+        <v>18467.8</v>
       </c>
       <c r="J231" s="8">
-        <v>5403.4</v>
+        <v>5514.1</v>
       </c>
       <c r="K231" s="8">
-        <v>5728</v>
+        <v>5696.4</v>
       </c>
       <c r="L231" s="8"/>
       <c r="M231" s="8"/>
@@ -21635,16 +21687,16 @@
         <v>351.8</v>
       </c>
       <c r="H232" s="8">
-        <v>25935.4</v>
+        <v>25603.1</v>
       </c>
       <c r="I232" s="8">
-        <v>19990.7</v>
+        <v>19615.7</v>
       </c>
       <c r="J232" s="8">
-        <v>5944.7</v>
+        <v>5987.4</v>
       </c>
       <c r="K232" s="8">
-        <v>6492</v>
+        <v>6342.6</v>
       </c>
       <c r="L232" s="8"/>
       <c r="M232" s="8"/>
@@ -21674,16 +21726,16 @@
         <v>307.39999999999998</v>
       </c>
       <c r="H233" s="8">
-        <v>28477.3</v>
+        <v>27850.799999999999</v>
       </c>
       <c r="I233" s="8">
-        <v>21936.6</v>
+        <v>21405.1</v>
       </c>
       <c r="J233" s="8">
-        <v>6540.7</v>
+        <v>6445.8</v>
       </c>
       <c r="K233" s="8">
-        <v>7069.7</v>
+        <v>6937</v>
       </c>
       <c r="L233" s="8"/>
       <c r="M233" s="8"/>
@@ -21713,16 +21765,16 @@
         <v>308.10000000000002</v>
       </c>
       <c r="H234" s="8">
-        <v>28659.1</v>
+        <v>28367.5</v>
       </c>
       <c r="I234" s="8">
-        <v>21758.6</v>
+        <v>21478.799999999999</v>
       </c>
       <c r="J234" s="8">
-        <v>6900.5</v>
+        <v>6888.7</v>
       </c>
       <c r="K234" s="8">
-        <v>6839.1</v>
+        <v>6740.9</v>
       </c>
       <c r="L234" s="8"/>
       <c r="M234" s="8"/>
@@ -21752,16 +21804,16 @@
         <v>440.5</v>
       </c>
       <c r="H235" s="8">
-        <v>29951.5</v>
+        <v>29751</v>
       </c>
       <c r="I235" s="8">
-        <v>22061.5</v>
+        <v>21980.7</v>
       </c>
       <c r="J235" s="8">
-        <v>7890</v>
+        <v>7770.3</v>
       </c>
       <c r="K235" s="8">
-        <v>6820.7</v>
+        <v>6705.9</v>
       </c>
       <c r="L235" s="8"/>
       <c r="M235" s="8"/>
@@ -21791,16 +21843,16 @@
         <v>439.1</v>
       </c>
       <c r="H236" s="8">
-        <v>31055.8</v>
+        <v>30911</v>
       </c>
       <c r="I236" s="8">
-        <v>23002.2</v>
+        <v>22828.3</v>
       </c>
       <c r="J236" s="8">
-        <v>8053.6</v>
+        <v>8082.7</v>
       </c>
       <c r="K236" s="8">
-        <v>6689.1</v>
+        <v>6721.8</v>
       </c>
       <c r="L236" s="8"/>
       <c r="M236" s="8"/>
@@ -21830,16 +21882,16 @@
         <v>513.1</v>
       </c>
       <c r="H237" s="8">
-        <v>32564.5</v>
+        <v>32218</v>
       </c>
       <c r="I237" s="8">
-        <v>23437.4</v>
+        <v>23174.1</v>
       </c>
       <c r="J237" s="8">
-        <v>9127.1</v>
+        <v>9043.9</v>
       </c>
       <c r="K237" s="8">
-        <v>6853.4</v>
+        <v>6777.4</v>
       </c>
       <c r="L237" s="8"/>
       <c r="M237" s="8"/>
@@ -21869,16 +21921,16 @@
         <v>550.5</v>
       </c>
       <c r="H238" s="8">
-        <v>32049.200000000001</v>
+        <v>31552.3</v>
       </c>
       <c r="I238" s="8">
-        <v>22860.400000000001</v>
+        <v>22618.5</v>
       </c>
       <c r="J238" s="8">
-        <v>9188.7999999999993</v>
+        <v>8933.7999999999993</v>
       </c>
       <c r="K238" s="8">
-        <v>6321.2</v>
+        <v>6335.1</v>
       </c>
       <c r="L238" s="8"/>
       <c r="M238" s="8"/>
@@ -21908,16 +21960,16 @@
         <v>517.6</v>
       </c>
       <c r="H239" s="8">
-        <v>32123.8</v>
+        <v>31913.9</v>
       </c>
       <c r="I239" s="8">
-        <v>22771.4</v>
+        <v>22612.2</v>
       </c>
       <c r="J239" s="8">
-        <v>9352.4</v>
+        <v>9301.7000000000007</v>
       </c>
       <c r="K239" s="8">
-        <v>5840.2</v>
+        <v>6031.2</v>
       </c>
       <c r="L239" s="8"/>
       <c r="M239" s="8"/>
@@ -21947,16 +21999,16 @@
         <v>524.1</v>
       </c>
       <c r="H240" s="8">
-        <v>30755.8</v>
+        <v>31256</v>
       </c>
       <c r="I240" s="8">
-        <v>21264</v>
+        <v>21794.799999999999</v>
       </c>
       <c r="J240" s="8">
-        <v>9491.7000000000007</v>
+        <v>9461.1</v>
       </c>
       <c r="K240" s="8">
-        <v>5551.6</v>
+        <v>5695.1</v>
       </c>
       <c r="L240" s="8"/>
       <c r="M240" s="8"/>
@@ -21986,16 +22038,16 @@
         <v>474.2</v>
       </c>
       <c r="H241" s="8">
-        <v>30323.5</v>
+        <v>30902.1</v>
       </c>
       <c r="I241" s="8">
-        <v>20635.7</v>
+        <v>21071.7</v>
       </c>
       <c r="J241" s="8">
-        <v>9687.7999999999993</v>
+        <v>9830.4</v>
       </c>
       <c r="K241" s="8">
-        <v>5446.9</v>
+        <v>5499.3</v>
       </c>
       <c r="L241" s="8"/>
       <c r="M241" s="8"/>
@@ -22025,16 +22077,16 @@
         <v>491.1</v>
       </c>
       <c r="H242" s="8">
-        <v>29652.5</v>
+        <v>30422.3</v>
       </c>
       <c r="I242" s="8">
-        <v>19764.400000000001</v>
+        <v>20265.7</v>
       </c>
       <c r="J242" s="8">
-        <v>9888.2000000000007</v>
+        <v>10156.6</v>
       </c>
       <c r="K242" s="8">
-        <v>5179.7</v>
+        <v>5270.8</v>
       </c>
       <c r="L242" s="8"/>
       <c r="M242" s="8"/>
@@ -22064,16 +22116,16 @@
         <v>605</v>
       </c>
       <c r="H243" s="8">
-        <v>31589.8</v>
+        <v>32160.7</v>
       </c>
       <c r="I243" s="8">
-        <v>21252.9</v>
+        <v>21592.400000000001</v>
       </c>
       <c r="J243" s="8">
-        <v>10336.799999999999</v>
+        <v>10568.3</v>
       </c>
       <c r="K243" s="8">
-        <v>5392.1</v>
+        <v>5354.6</v>
       </c>
       <c r="L243" s="8"/>
       <c r="M243" s="8"/>
@@ -22103,16 +22155,16 @@
         <v>618.29999999999995</v>
       </c>
       <c r="H244" s="8">
-        <v>33066.300000000003</v>
+        <v>32712.799999999999</v>
       </c>
       <c r="I244" s="8">
-        <v>22360</v>
+        <v>21943.599999999999</v>
       </c>
       <c r="J244" s="8">
-        <v>10706.3</v>
+        <v>10769.2</v>
       </c>
       <c r="K244" s="8">
-        <v>5662.6</v>
+        <v>5538.7</v>
       </c>
       <c r="L244" s="8"/>
       <c r="M244" s="8"/>
@@ -22142,16 +22194,16 @@
         <v>413.7</v>
       </c>
       <c r="H245" s="8">
-        <v>33925.300000000003</v>
+        <v>33409.300000000003</v>
       </c>
       <c r="I245" s="8">
-        <v>22415.599999999999</v>
+        <v>22098.2</v>
       </c>
       <c r="J245" s="8">
-        <v>11509.7</v>
+        <v>11311.1</v>
       </c>
       <c r="K245" s="8">
-        <v>5346.2</v>
+        <v>5245.2</v>
       </c>
       <c r="L245" s="8"/>
       <c r="M245" s="8"/>
@@ -22181,16 +22233,16 @@
         <v>380.1</v>
       </c>
       <c r="H246" s="8">
-        <v>32750.2</v>
+        <v>32443.599999999999</v>
       </c>
       <c r="I246" s="8">
-        <v>21370.5</v>
+        <v>21084.1</v>
       </c>
       <c r="J246" s="8">
-        <v>11379.7</v>
+        <v>11359.5</v>
       </c>
       <c r="K246" s="8">
-        <v>4814.7</v>
+        <v>4737.8999999999996</v>
       </c>
       <c r="L246" s="8"/>
       <c r="M246" s="8"/>
@@ -22220,21 +22272,60 @@
         <v>477.5</v>
       </c>
       <c r="H247" s="8">
-        <v>33277.800000000003</v>
+        <v>33114.800000000003</v>
       </c>
       <c r="I247" s="8">
-        <v>21570.799999999999</v>
+        <v>21474.400000000001</v>
       </c>
       <c r="J247" s="8">
-        <v>11707</v>
+        <v>11640.4</v>
       </c>
       <c r="K247" s="8">
-        <v>5099.7</v>
+        <v>5040.6000000000004</v>
       </c>
       <c r="L247" s="8"/>
       <c r="M247" s="8"/>
       <c r="N247" s="8"/>
       <c r="O247" s="8"/>
+    </row>
+    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A248" s="9">
+        <v>44652</v>
+      </c>
+      <c r="B248" s="8">
+        <v>28562.400000000001</v>
+      </c>
+      <c r="C248" s="8">
+        <v>18583.8</v>
+      </c>
+      <c r="D248" s="8">
+        <v>9978.6</v>
+      </c>
+      <c r="E248" s="8">
+        <v>4680.7</v>
+      </c>
+      <c r="F248" s="8">
+        <v>4304.5</v>
+      </c>
+      <c r="G248" s="8">
+        <v>376.2</v>
+      </c>
+      <c r="H248" s="8">
+        <v>30988.799999999999</v>
+      </c>
+      <c r="I248" s="8">
+        <v>19905.099999999999</v>
+      </c>
+      <c r="J248" s="8">
+        <v>11083.7</v>
+      </c>
+      <c r="K248" s="8">
+        <v>4725.6000000000004</v>
+      </c>
+      <c r="L248" s="8"/>
+      <c r="M248" s="8"/>
+      <c r="N248" s="8"/>
+      <c r="O248" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data-raw/abs/5601.0/560101.xlsx
+++ b/data-raw/abs/5601.0/560101.xlsx
@@ -12,50 +12,50 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A108268693J">Data1!$I$1:$I$10,Data1!$I$11:$I$248</definedName>
-    <definedName name="A108268693J_Data">Data1!$I$11:$I$248</definedName>
-    <definedName name="A108268693J_Latest">Data1!$I$248</definedName>
-    <definedName name="A108271213V">Data1!$F$1:$F$10,Data1!$F$11:$F$248</definedName>
-    <definedName name="A108271213V_Data">Data1!$F$11:$F$248</definedName>
-    <definedName name="A108271213V_Latest">Data1!$F$248</definedName>
-    <definedName name="A108273775J">Data1!$J$1:$J$10,Data1!$J$11:$J$248</definedName>
-    <definedName name="A108273775J_Data">Data1!$J$11:$J$248</definedName>
-    <definedName name="A108273775J_Latest">Data1!$J$248</definedName>
-    <definedName name="A108276981A">Data1!$D$1:$D$10,Data1!$D$11:$D$248</definedName>
-    <definedName name="A108276981A_Data">Data1!$D$11:$D$248</definedName>
-    <definedName name="A108276981A_Latest">Data1!$D$248</definedName>
-    <definedName name="A108277457X">Data1!$K$1:$K$10,Data1!$K$11:$K$248</definedName>
-    <definedName name="A108277457X_Data">Data1!$K$11:$K$248</definedName>
-    <definedName name="A108277457X_Latest">Data1!$K$248</definedName>
-    <definedName name="A108284387K">Data1!$N$1:$N$10,Data1!$N$11:$N$248</definedName>
-    <definedName name="A108284387K_Data">Data1!$N$11:$N$248</definedName>
-    <definedName name="A108284387K_Latest">Data1!$N$248</definedName>
-    <definedName name="A108284569X">Data1!$L$1:$L$10,Data1!$L$11:$L$248</definedName>
-    <definedName name="A108284569X_Data">Data1!$L$11:$L$248</definedName>
-    <definedName name="A108284569X_Latest">Data1!$L$248</definedName>
-    <definedName name="A108292360K">Data1!$O$1:$O$10,Data1!$O$11:$O$248</definedName>
-    <definedName name="A108292360K_Data">Data1!$O$11:$O$248</definedName>
-    <definedName name="A108292360K_Latest">Data1!$O$248</definedName>
-    <definedName name="A108292822T">Data1!$M$1:$M$10,Data1!$M$11:$M$248</definedName>
-    <definedName name="A108292822T_Data">Data1!$M$11:$M$248</definedName>
-    <definedName name="A108292822T_Latest">Data1!$M$248</definedName>
-    <definedName name="A108294614K">Data1!$G$1:$G$10,Data1!$G$215:$G$248</definedName>
-    <definedName name="A108294614K_Data">Data1!$G$215:$G$248</definedName>
-    <definedName name="A108294614K_Latest">Data1!$G$248</definedName>
-    <definedName name="A108295286C">Data1!$B$1:$B$10,Data1!$B$11:$B$248</definedName>
-    <definedName name="A108295286C_Data">Data1!$B$11:$B$248</definedName>
-    <definedName name="A108295286C_Latest">Data1!$B$248</definedName>
-    <definedName name="A108296973X">Data1!$H$1:$H$10,Data1!$H$11:$H$248</definedName>
-    <definedName name="A108296973X_Data">Data1!$H$11:$H$248</definedName>
-    <definedName name="A108296973X_Latest">Data1!$H$248</definedName>
-    <definedName name="A108299115J">Data1!$C$1:$C$10,Data1!$C$11:$C$248</definedName>
-    <definedName name="A108299115J_Data">Data1!$C$11:$C$248</definedName>
-    <definedName name="A108299115J_Latest">Data1!$C$248</definedName>
-    <definedName name="A108299885C">Data1!$E$1:$E$10,Data1!$E$215:$E$248</definedName>
-    <definedName name="A108299885C_Data">Data1!$E$215:$E$248</definedName>
-    <definedName name="A108299885C_Latest">Data1!$E$248</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$248</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$248</definedName>
+    <definedName name="A108268693J">Data1!$I$1:$I$10,Data1!$I$11:$I$249</definedName>
+    <definedName name="A108268693J_Data">Data1!$I$11:$I$249</definedName>
+    <definedName name="A108268693J_Latest">Data1!$I$249</definedName>
+    <definedName name="A108271213V">Data1!$F$1:$F$10,Data1!$F$11:$F$249</definedName>
+    <definedName name="A108271213V_Data">Data1!$F$11:$F$249</definedName>
+    <definedName name="A108271213V_Latest">Data1!$F$249</definedName>
+    <definedName name="A108273775J">Data1!$J$1:$J$10,Data1!$J$11:$J$249</definedName>
+    <definedName name="A108273775J_Data">Data1!$J$11:$J$249</definedName>
+    <definedName name="A108273775J_Latest">Data1!$J$249</definedName>
+    <definedName name="A108276981A">Data1!$D$1:$D$10,Data1!$D$11:$D$249</definedName>
+    <definedName name="A108276981A_Data">Data1!$D$11:$D$249</definedName>
+    <definedName name="A108276981A_Latest">Data1!$D$249</definedName>
+    <definedName name="A108277457X">Data1!$K$1:$K$10,Data1!$K$11:$K$249</definedName>
+    <definedName name="A108277457X_Data">Data1!$K$11:$K$249</definedName>
+    <definedName name="A108277457X_Latest">Data1!$K$249</definedName>
+    <definedName name="A108284387K">Data1!$N$1:$N$10,Data1!$N$11:$N$249</definedName>
+    <definedName name="A108284387K_Data">Data1!$N$11:$N$249</definedName>
+    <definedName name="A108284387K_Latest">Data1!$N$249</definedName>
+    <definedName name="A108284569X">Data1!$L$1:$L$10,Data1!$L$11:$L$249</definedName>
+    <definedName name="A108284569X_Data">Data1!$L$11:$L$249</definedName>
+    <definedName name="A108284569X_Latest">Data1!$L$249</definedName>
+    <definedName name="A108292360K">Data1!$O$1:$O$10,Data1!$O$11:$O$249</definedName>
+    <definedName name="A108292360K_Data">Data1!$O$11:$O$249</definedName>
+    <definedName name="A108292360K_Latest">Data1!$O$249</definedName>
+    <definedName name="A108292822T">Data1!$M$1:$M$10,Data1!$M$11:$M$249</definedName>
+    <definedName name="A108292822T_Data">Data1!$M$11:$M$249</definedName>
+    <definedName name="A108292822T_Latest">Data1!$M$249</definedName>
+    <definedName name="A108294614K">Data1!$G$1:$G$10,Data1!$G$215:$G$249</definedName>
+    <definedName name="A108294614K_Data">Data1!$G$215:$G$249</definedName>
+    <definedName name="A108294614K_Latest">Data1!$G$249</definedName>
+    <definedName name="A108295286C">Data1!$B$1:$B$10,Data1!$B$11:$B$249</definedName>
+    <definedName name="A108295286C_Data">Data1!$B$11:$B$249</definedName>
+    <definedName name="A108295286C_Latest">Data1!$B$249</definedName>
+    <definedName name="A108296973X">Data1!$H$1:$H$10,Data1!$H$11:$H$249</definedName>
+    <definedName name="A108296973X_Data">Data1!$H$11:$H$249</definedName>
+    <definedName name="A108296973X_Latest">Data1!$H$249</definedName>
+    <definedName name="A108299115J">Data1!$C$1:$C$10,Data1!$C$11:$C$249</definedName>
+    <definedName name="A108299115J_Data">Data1!$C$11:$C$249</definedName>
+    <definedName name="A108299115J_Latest">Data1!$C$249</definedName>
+    <definedName name="A108299885C">Data1!$E$1:$E$10,Data1!$E$215:$E$249</definedName>
+    <definedName name="A108299885C_Data">Data1!$E$215:$E$249</definedName>
+    <definedName name="A108299885C_Latest">Data1!$E$249</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$249</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$249</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -12469,6 +12469,58 @@
       </text>
     </comment>
     <comment ref="O248" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L249" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M249" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N249" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O249" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13320,10 +13372,10 @@
         <v>37438</v>
       </c>
       <c r="G12" s="9">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="H12" s="10">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>15</v>
@@ -13352,10 +13404,10 @@
         <v>37438</v>
       </c>
       <c r="G13" s="9">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="H13" s="10">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>15</v>
@@ -13384,10 +13436,10 @@
         <v>37438</v>
       </c>
       <c r="G14" s="9">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="H14" s="10">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>15</v>
@@ -13416,10 +13468,10 @@
         <v>43647</v>
       </c>
       <c r="G15" s="9">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="H15" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>15</v>
@@ -13448,10 +13500,10 @@
         <v>37438</v>
       </c>
       <c r="G16" s="9">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="H16" s="10">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>15</v>
@@ -13480,10 +13532,10 @@
         <v>43647</v>
       </c>
       <c r="G17" s="9">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="H17" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>15</v>
@@ -13512,10 +13564,10 @@
         <v>37438</v>
       </c>
       <c r="G18" s="9">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="H18" s="10">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>15</v>
@@ -13544,10 +13596,10 @@
         <v>37438</v>
       </c>
       <c r="G19" s="9">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="H19" s="10">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>15</v>
@@ -13576,10 +13628,10 @@
         <v>37438</v>
       </c>
       <c r="G20" s="9">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="H20" s="10">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>15</v>
@@ -13608,10 +13660,10 @@
         <v>37438</v>
       </c>
       <c r="G21" s="9">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="H21" s="10">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>15</v>
@@ -13640,10 +13692,10 @@
         <v>37438</v>
       </c>
       <c r="G22" s="9">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="H22" s="10">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>15</v>
@@ -13672,10 +13724,10 @@
         <v>37438</v>
       </c>
       <c r="G23" s="9">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="H23" s="10">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>15</v>
@@ -13704,10 +13756,10 @@
         <v>37438</v>
       </c>
       <c r="G24" s="9">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="H24" s="10">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>15</v>
@@ -13736,10 +13788,10 @@
         <v>37438</v>
       </c>
       <c r="G25" s="9">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="H25" s="10">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>15</v>
@@ -13788,7 +13840,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O248"/>
+  <dimension ref="A1:O249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -14133,46 +14185,46 @@
         <v>12</v>
       </c>
       <c r="B8" s="6">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="C8" s="6">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="D8" s="6">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="E8" s="6">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="F8" s="6">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="G8" s="6">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="H8" s="6">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="I8" s="6">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="J8" s="6">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="K8" s="6">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="L8" s="6">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="M8" s="6">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="N8" s="6">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="O8" s="6">
-        <v>44652</v>
+        <v>44682</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -14180,46 +14232,46 @@
         <v>13</v>
       </c>
       <c r="B9" s="1">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C9" s="1">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D9" s="1">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E9" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F9" s="1">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G9" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9" s="1">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I9" s="1">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J9" s="1">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K9" s="1">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L9" s="1">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M9" s="1">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N9" s="1">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O9" s="1">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -14286,16 +14338,16 @@
         <v>1597.6</v>
       </c>
       <c r="H11" s="8">
-        <v>10002.1</v>
+        <v>10035.4</v>
       </c>
       <c r="I11" s="8">
-        <v>6023.6</v>
+        <v>6056.9</v>
       </c>
       <c r="J11" s="8">
         <v>3978.6</v>
       </c>
       <c r="K11" s="8">
-        <v>1466.1</v>
+        <v>1468.2</v>
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
@@ -14319,16 +14371,16 @@
         <v>1456.1</v>
       </c>
       <c r="H12" s="8">
-        <v>9982</v>
+        <v>9978</v>
       </c>
       <c r="I12" s="8">
-        <v>5986.6</v>
+        <v>5982.6</v>
       </c>
       <c r="J12" s="8">
         <v>3995.4</v>
       </c>
       <c r="K12" s="8">
-        <v>1387.5</v>
+        <v>1386.3</v>
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
@@ -14352,16 +14404,16 @@
         <v>1323.8</v>
       </c>
       <c r="H13" s="8">
-        <v>10073.700000000001</v>
+        <v>10075.799999999999</v>
       </c>
       <c r="I13" s="8">
-        <v>6037.1</v>
+        <v>6039.2</v>
       </c>
       <c r="J13" s="8">
         <v>4036.5</v>
       </c>
       <c r="K13" s="8">
-        <v>1327.3</v>
+        <v>1327.6</v>
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
@@ -14385,16 +14437,16 @@
         <v>1451.5</v>
       </c>
       <c r="H14" s="8">
-        <v>10236.1</v>
+        <v>10226.5</v>
       </c>
       <c r="I14" s="8">
-        <v>6192.5</v>
+        <v>6183</v>
       </c>
       <c r="J14" s="8">
         <v>4043.6</v>
       </c>
       <c r="K14" s="8">
-        <v>1338</v>
+        <v>1337.4</v>
       </c>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
@@ -14418,16 +14470,16 @@
         <v>1371.6</v>
       </c>
       <c r="H15" s="8">
-        <v>10323.6</v>
+        <v>10334.6</v>
       </c>
       <c r="I15" s="8">
-        <v>6260</v>
+        <v>6271</v>
       </c>
       <c r="J15" s="8">
         <v>4063.6</v>
       </c>
       <c r="K15" s="8">
-        <v>1307.2</v>
+        <v>1307.7</v>
       </c>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
@@ -14451,16 +14503,16 @@
         <v>1296</v>
       </c>
       <c r="H16" s="8">
-        <v>10723</v>
+        <v>10701.9</v>
       </c>
       <c r="I16" s="8">
-        <v>6485.1</v>
+        <v>6464</v>
       </c>
       <c r="J16" s="8">
         <v>4237.8999999999996</v>
       </c>
       <c r="K16" s="8">
-        <v>1305.0999999999999</v>
+        <v>1305</v>
       </c>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
@@ -14484,16 +14536,16 @@
         <v>1178.3</v>
       </c>
       <c r="H17" s="8">
-        <v>11334.7</v>
+        <v>11393.8</v>
       </c>
       <c r="I17" s="8">
-        <v>7023</v>
+        <v>7082.2</v>
       </c>
       <c r="J17" s="8">
         <v>4311.7</v>
       </c>
       <c r="K17" s="8">
-        <v>1369.9</v>
+        <v>1369.8</v>
       </c>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
@@ -14517,16 +14569,16 @@
         <v>1268.5</v>
       </c>
       <c r="H18" s="8">
-        <v>11599.4</v>
+        <v>11599.2</v>
       </c>
       <c r="I18" s="8">
-        <v>7012.3</v>
+        <v>7012</v>
       </c>
       <c r="J18" s="8">
         <v>4587.2</v>
       </c>
       <c r="K18" s="8">
-        <v>1411.4</v>
+        <v>1411.3</v>
       </c>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
@@ -14550,16 +14602,16 @@
         <v>1425.3</v>
       </c>
       <c r="H19" s="8">
-        <v>11567.9</v>
+        <v>11504.9</v>
       </c>
       <c r="I19" s="8">
-        <v>6929.4</v>
+        <v>6866.4</v>
       </c>
       <c r="J19" s="8">
         <v>4638.3999999999996</v>
       </c>
       <c r="K19" s="8">
-        <v>1433.6</v>
+        <v>1433.5</v>
       </c>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
@@ -14583,16 +14635,16 @@
         <v>1366.7</v>
       </c>
       <c r="H20" s="8">
-        <v>12017</v>
+        <v>11984.1</v>
       </c>
       <c r="I20" s="8">
-        <v>7243.7</v>
+        <v>7210.8</v>
       </c>
       <c r="J20" s="8">
         <v>4773.3</v>
       </c>
       <c r="K20" s="8">
-        <v>1422.3</v>
+        <v>1420.7</v>
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
@@ -14616,16 +14668,16 @@
         <v>1475.9</v>
       </c>
       <c r="H21" s="8">
-        <v>12352.6</v>
+        <v>12393.5</v>
       </c>
       <c r="I21" s="8">
-        <v>7363.3</v>
+        <v>7404.2</v>
       </c>
       <c r="J21" s="8">
         <v>4989.3</v>
       </c>
       <c r="K21" s="8">
-        <v>1399.1</v>
+        <v>1400.2</v>
       </c>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
@@ -14649,16 +14701,16 @@
         <v>1383.8</v>
       </c>
       <c r="H22" s="8">
-        <v>12622.3</v>
+        <v>12625.7</v>
       </c>
       <c r="I22" s="8">
-        <v>7618.7</v>
+        <v>7622.1</v>
       </c>
       <c r="J22" s="8">
         <v>5003.6000000000004</v>
       </c>
       <c r="K22" s="8">
-        <v>1419.7</v>
+        <v>1420.2</v>
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
@@ -14682,16 +14734,16 @@
         <v>1571.6</v>
       </c>
       <c r="H23" s="8">
-        <v>13567.6</v>
+        <v>13572.7</v>
       </c>
       <c r="I23" s="8">
-        <v>7803.6</v>
+        <v>7808.8</v>
       </c>
       <c r="J23" s="8">
         <v>5764</v>
       </c>
       <c r="K23" s="8">
-        <v>1451.9</v>
+        <v>1452.3</v>
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
@@ -14715,16 +14767,16 @@
         <v>1517.9</v>
       </c>
       <c r="H24" s="8">
-        <v>14254.8</v>
+        <v>14251.6</v>
       </c>
       <c r="I24" s="8">
-        <v>7985.5</v>
+        <v>7982.3</v>
       </c>
       <c r="J24" s="8">
         <v>6269.3</v>
       </c>
       <c r="K24" s="8">
-        <v>1513.1</v>
+        <v>1512.6</v>
       </c>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
@@ -14748,16 +14800,16 @@
         <v>1579.6</v>
       </c>
       <c r="H25" s="8">
-        <v>14228.2</v>
+        <v>14226.8</v>
       </c>
       <c r="I25" s="8">
-        <v>8020.4</v>
+        <v>8019</v>
       </c>
       <c r="J25" s="8">
         <v>6207.7</v>
       </c>
       <c r="K25" s="8">
-        <v>1529.5</v>
+        <v>1529.4</v>
       </c>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
@@ -14781,16 +14833,16 @@
         <v>1607.3</v>
       </c>
       <c r="H26" s="8">
-        <v>14434.8</v>
+        <v>14492.4</v>
       </c>
       <c r="I26" s="8">
-        <v>8046.4</v>
+        <v>8104</v>
       </c>
       <c r="J26" s="8">
         <v>6388.4</v>
       </c>
       <c r="K26" s="8">
-        <v>1474.3</v>
+        <v>1475.5</v>
       </c>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
@@ -14814,16 +14866,16 @@
         <v>1423.7</v>
       </c>
       <c r="H27" s="8">
-        <v>13992.8</v>
+        <v>13932.8</v>
       </c>
       <c r="I27" s="8">
-        <v>7858.2</v>
+        <v>7798.1</v>
       </c>
       <c r="J27" s="8">
         <v>6134.7</v>
       </c>
       <c r="K27" s="8">
-        <v>1416.8</v>
+        <v>1415.7</v>
       </c>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
@@ -14847,16 +14899,16 @@
         <v>1427</v>
       </c>
       <c r="H28" s="8">
-        <v>13298.4</v>
+        <v>13310.9</v>
       </c>
       <c r="I28" s="8">
-        <v>7459.6</v>
+        <v>7472.1</v>
       </c>
       <c r="J28" s="8">
         <v>5838.8</v>
       </c>
       <c r="K28" s="8">
-        <v>1360.6</v>
+        <v>1361.2</v>
       </c>
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
@@ -14880,16 +14932,16 @@
         <v>1080.8</v>
       </c>
       <c r="H29" s="8">
-        <v>12285.4</v>
+        <v>12285.3</v>
       </c>
       <c r="I29" s="8">
-        <v>6998.1</v>
+        <v>6998</v>
       </c>
       <c r="J29" s="8">
         <v>5287.2</v>
       </c>
       <c r="K29" s="8">
-        <v>1308.4000000000001</v>
+        <v>1306.2</v>
       </c>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
@@ -14913,16 +14965,16 @@
         <v>1131.0999999999999</v>
       </c>
       <c r="H30" s="8">
-        <v>12317.1</v>
+        <v>12300.4</v>
       </c>
       <c r="I30" s="8">
-        <v>7070.3</v>
+        <v>7053.6</v>
       </c>
       <c r="J30" s="8">
         <v>5246.8</v>
       </c>
       <c r="K30" s="8">
-        <v>1255.8</v>
+        <v>1255.7</v>
       </c>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
@@ -14946,16 +14998,16 @@
         <v>1371.6</v>
       </c>
       <c r="H31" s="8">
-        <v>12453.4</v>
+        <v>12456.1</v>
       </c>
       <c r="I31" s="8">
-        <v>7171.4</v>
+        <v>7174</v>
       </c>
       <c r="J31" s="8">
         <v>5282</v>
       </c>
       <c r="K31" s="8">
-        <v>1276.5999999999999</v>
+        <v>1277.8</v>
       </c>
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
@@ -14979,16 +15031,16 @@
         <v>1295.0999999999999</v>
       </c>
       <c r="H32" s="8">
-        <v>12487.2</v>
+        <v>12463.9</v>
       </c>
       <c r="I32" s="8">
-        <v>7241.2</v>
+        <v>7217.9</v>
       </c>
       <c r="J32" s="8">
         <v>5246</v>
       </c>
       <c r="K32" s="8">
-        <v>1350.6</v>
+        <v>1349.9</v>
       </c>
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
@@ -15012,16 +15064,16 @@
         <v>1473.5</v>
       </c>
       <c r="H33" s="8">
-        <v>12350</v>
+        <v>12380.5</v>
       </c>
       <c r="I33" s="8">
-        <v>7273.5</v>
+        <v>7304</v>
       </c>
       <c r="J33" s="8">
         <v>5076.5</v>
       </c>
       <c r="K33" s="8">
-        <v>1454.1</v>
+        <v>1455.3</v>
       </c>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
@@ -15045,16 +15097,16 @@
         <v>1536.3</v>
       </c>
       <c r="H34" s="8">
-        <v>11799.5</v>
+        <v>11794.1</v>
       </c>
       <c r="I34" s="8">
-        <v>7255.6</v>
+        <v>7250.2</v>
       </c>
       <c r="J34" s="8">
         <v>4543.8</v>
       </c>
       <c r="K34" s="8">
-        <v>1501.7</v>
+        <v>1501.3</v>
       </c>
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
@@ -15078,16 +15130,16 @@
         <v>1650.8</v>
       </c>
       <c r="H35" s="8">
-        <v>12014.4</v>
+        <v>12026.5</v>
       </c>
       <c r="I35" s="8">
-        <v>7318.3</v>
+        <v>7330.4</v>
       </c>
       <c r="J35" s="8">
         <v>4696.1000000000004</v>
       </c>
       <c r="K35" s="8">
-        <v>1583.7</v>
+        <v>1584.5</v>
       </c>
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
@@ -15111,16 +15163,16 @@
         <v>1732</v>
       </c>
       <c r="H36" s="8">
-        <v>12054</v>
+        <v>12047.6</v>
       </c>
       <c r="I36" s="8">
-        <v>7398.6</v>
+        <v>7392.3</v>
       </c>
       <c r="J36" s="8">
         <v>4655.3999999999996</v>
       </c>
       <c r="K36" s="8">
-        <v>1682.3</v>
+        <v>1681.6</v>
       </c>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
@@ -15144,16 +15196,16 @@
         <v>1729.9</v>
       </c>
       <c r="H37" s="8">
-        <v>12217.3</v>
+        <v>12212.8</v>
       </c>
       <c r="I37" s="8">
-        <v>7419.1</v>
+        <v>7414.7</v>
       </c>
       <c r="J37" s="8">
         <v>4798.2</v>
       </c>
       <c r="K37" s="8">
-        <v>1670.4</v>
+        <v>1669.8</v>
       </c>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
@@ -15177,16 +15229,16 @@
         <v>1649.5</v>
       </c>
       <c r="H38" s="8">
-        <v>11970.3</v>
+        <v>11957.2</v>
       </c>
       <c r="I38" s="8">
-        <v>7428.5</v>
+        <v>7415.4</v>
       </c>
       <c r="J38" s="8">
         <v>4541.8</v>
       </c>
       <c r="K38" s="8">
-        <v>1638</v>
+        <v>1638.2</v>
       </c>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
@@ -15210,16 +15262,16 @@
         <v>1848.5</v>
       </c>
       <c r="H39" s="8">
-        <v>12561.1</v>
+        <v>12573</v>
       </c>
       <c r="I39" s="8">
-        <v>7683.1</v>
+        <v>7695</v>
       </c>
       <c r="J39" s="8">
         <v>4878</v>
       </c>
       <c r="K39" s="8">
-        <v>1701.2</v>
+        <v>1702</v>
       </c>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
@@ -15243,16 +15295,16 @@
         <v>1880.9</v>
       </c>
       <c r="H40" s="8">
-        <v>12912.3</v>
+        <v>12944.8</v>
       </c>
       <c r="I40" s="8">
-        <v>7900.6</v>
+        <v>7933.1</v>
       </c>
       <c r="J40" s="8">
         <v>5011.7</v>
       </c>
       <c r="K40" s="8">
-        <v>1784.6</v>
+        <v>1786</v>
       </c>
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
@@ -15276,16 +15328,16 @@
         <v>1501.7</v>
       </c>
       <c r="H41" s="8">
-        <v>13236.7</v>
+        <v>13225</v>
       </c>
       <c r="I41" s="8">
-        <v>8109.2</v>
+        <v>8097.4</v>
       </c>
       <c r="J41" s="8">
         <v>5127.6000000000004</v>
       </c>
       <c r="K41" s="8">
-        <v>1896.3</v>
+        <v>1892.8</v>
       </c>
       <c r="L41" s="8"/>
       <c r="M41" s="8"/>
@@ -15309,16 +15361,16 @@
         <v>1750.9</v>
       </c>
       <c r="H42" s="8">
-        <v>13825.2</v>
+        <v>13826.2</v>
       </c>
       <c r="I42" s="8">
-        <v>8490.2999999999993</v>
+        <v>8491.2999999999993</v>
       </c>
       <c r="J42" s="8">
         <v>5334.9</v>
       </c>
       <c r="K42" s="8">
-        <v>1946.6</v>
+        <v>1946.7</v>
       </c>
       <c r="L42" s="8"/>
       <c r="M42" s="8"/>
@@ -15342,10 +15394,10 @@
         <v>1936.4</v>
       </c>
       <c r="H43" s="8">
-        <v>13521.6</v>
+        <v>13492.6</v>
       </c>
       <c r="I43" s="8">
-        <v>8235</v>
+        <v>8206</v>
       </c>
       <c r="J43" s="8">
         <v>5286.6</v>
@@ -15375,16 +15427,16 @@
         <v>1893.6</v>
       </c>
       <c r="H44" s="8">
-        <v>13309.4</v>
+        <v>13249</v>
       </c>
       <c r="I44" s="8">
-        <v>8147.5</v>
+        <v>8087.1</v>
       </c>
       <c r="J44" s="8">
         <v>5162</v>
       </c>
       <c r="K44" s="8">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
@@ -15408,16 +15460,16 @@
         <v>2097.3000000000002</v>
       </c>
       <c r="H45" s="8">
-        <v>12681</v>
+        <v>12733.2</v>
       </c>
       <c r="I45" s="8">
-        <v>7978.1</v>
+        <v>8030.4</v>
       </c>
       <c r="J45" s="8">
         <v>4702.8999999999996</v>
       </c>
       <c r="K45" s="8">
-        <v>1988.5</v>
+        <v>1990.4</v>
       </c>
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
@@ -15441,16 +15493,16 @@
         <v>2070.3000000000002</v>
       </c>
       <c r="H46" s="8">
-        <v>12687</v>
+        <v>12685.2</v>
       </c>
       <c r="I46" s="8">
-        <v>8153.9</v>
+        <v>8152.1</v>
       </c>
       <c r="J46" s="8">
         <v>4533.1000000000004</v>
       </c>
       <c r="K46" s="8">
-        <v>2025.9</v>
+        <v>2025</v>
       </c>
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
@@ -15474,16 +15526,16 @@
         <v>1975</v>
       </c>
       <c r="H47" s="8">
-        <v>12823.1</v>
+        <v>12840.9</v>
       </c>
       <c r="I47" s="8">
-        <v>8076.1</v>
+        <v>8093.9</v>
       </c>
       <c r="J47" s="8">
         <v>4747</v>
       </c>
       <c r="K47" s="8">
-        <v>1972.5</v>
+        <v>1974.3</v>
       </c>
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
@@ -15507,16 +15559,16 @@
         <v>2259.9</v>
       </c>
       <c r="H48" s="8">
-        <v>12870.5</v>
+        <v>12900.1</v>
       </c>
       <c r="I48" s="8">
-        <v>8278.7000000000007</v>
+        <v>8308.2999999999993</v>
       </c>
       <c r="J48" s="8">
         <v>4591.8</v>
       </c>
       <c r="K48" s="8">
-        <v>2112.6999999999998</v>
+        <v>2112.5</v>
       </c>
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
@@ -15540,16 +15592,16 @@
         <v>2287.1999999999998</v>
       </c>
       <c r="H49" s="8">
-        <v>13518.7</v>
+        <v>13527.3</v>
       </c>
       <c r="I49" s="8">
-        <v>8634.6</v>
+        <v>8643.2000000000007</v>
       </c>
       <c r="J49" s="8">
         <v>4884.2</v>
       </c>
       <c r="K49" s="8">
-        <v>2214</v>
+        <v>2214.6999999999998</v>
       </c>
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
@@ -15573,16 +15625,16 @@
         <v>2231.1999999999998</v>
       </c>
       <c r="H50" s="8">
-        <v>14036.4</v>
+        <v>14014.2</v>
       </c>
       <c r="I50" s="8">
-        <v>8735.2000000000007</v>
+        <v>8713</v>
       </c>
       <c r="J50" s="8">
         <v>5301.2</v>
       </c>
       <c r="K50" s="8">
-        <v>2228.3000000000002</v>
+        <v>2227.3000000000002</v>
       </c>
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
@@ -15606,16 +15658,16 @@
         <v>2565.9</v>
       </c>
       <c r="H51" s="8">
-        <v>14056.1</v>
+        <v>14052.7</v>
       </c>
       <c r="I51" s="8">
-        <v>8854.2000000000007</v>
+        <v>8850.7999999999993</v>
       </c>
       <c r="J51" s="8">
         <v>5201.8999999999996</v>
       </c>
       <c r="K51" s="8">
-        <v>2340.4</v>
+        <v>2340.6</v>
       </c>
       <c r="L51" s="8"/>
       <c r="M51" s="8"/>
@@ -15639,16 +15691,16 @@
         <v>2373.6</v>
       </c>
       <c r="H52" s="8">
-        <v>14059</v>
+        <v>14032.7</v>
       </c>
       <c r="I52" s="8">
-        <v>8903.7000000000007</v>
+        <v>8877.5</v>
       </c>
       <c r="J52" s="8">
         <v>5155.3</v>
       </c>
       <c r="K52" s="8">
-        <v>2339.1</v>
+        <v>2339.1999999999998</v>
       </c>
       <c r="L52" s="8"/>
       <c r="M52" s="8"/>
@@ -15672,16 +15724,16 @@
         <v>1931.4</v>
       </c>
       <c r="H53" s="8">
-        <v>14277.5</v>
+        <v>14269.3</v>
       </c>
       <c r="I53" s="8">
-        <v>8964.6</v>
+        <v>8956.5</v>
       </c>
       <c r="J53" s="8">
         <v>5312.9</v>
       </c>
       <c r="K53" s="8">
-        <v>2333.1999999999998</v>
+        <v>2329.4</v>
       </c>
       <c r="L53" s="8"/>
       <c r="M53" s="8"/>
@@ -15705,16 +15757,16 @@
         <v>2164.9</v>
       </c>
       <c r="H54" s="8">
-        <v>14423.6</v>
+        <v>14427.2</v>
       </c>
       <c r="I54" s="8">
-        <v>9175.2000000000007</v>
+        <v>9178.7000000000007</v>
       </c>
       <c r="J54" s="8">
         <v>5248.5</v>
       </c>
       <c r="K54" s="8">
-        <v>2411.3000000000002</v>
+        <v>2411.8000000000002</v>
       </c>
       <c r="L54" s="8"/>
       <c r="M54" s="8"/>
@@ -15738,16 +15790,16 @@
         <v>2730.2</v>
       </c>
       <c r="H55" s="8">
-        <v>14581.8</v>
+        <v>14538.6</v>
       </c>
       <c r="I55" s="8">
-        <v>9301.9</v>
+        <v>9258.7999999999993</v>
       </c>
       <c r="J55" s="8">
         <v>5279.8</v>
       </c>
       <c r="K55" s="8">
-        <v>2550.5</v>
+        <v>2549</v>
       </c>
       <c r="L55" s="8"/>
       <c r="M55" s="8"/>
@@ -15771,16 +15823,16 @@
         <v>2267</v>
       </c>
       <c r="H56" s="8">
-        <v>14509.6</v>
+        <v>14722</v>
       </c>
       <c r="I56" s="8">
-        <v>9259.2000000000007</v>
+        <v>9471.6</v>
       </c>
       <c r="J56" s="8">
         <v>5250.4</v>
       </c>
       <c r="K56" s="8">
-        <v>2552.9</v>
+        <v>2566.8000000000002</v>
       </c>
       <c r="L56" s="8"/>
       <c r="M56" s="8"/>
@@ -15804,16 +15856,16 @@
         <v>2744.9</v>
       </c>
       <c r="H57" s="8">
-        <v>15405.9</v>
+        <v>15249.2</v>
       </c>
       <c r="I57" s="8">
-        <v>9643.5</v>
+        <v>9486.7999999999993</v>
       </c>
       <c r="J57" s="8">
         <v>5762.4</v>
       </c>
       <c r="K57" s="8">
-        <v>2485.3000000000002</v>
+        <v>2475.4</v>
       </c>
       <c r="L57" s="8"/>
       <c r="M57" s="8"/>
@@ -15837,16 +15889,16 @@
         <v>2502.4</v>
       </c>
       <c r="H58" s="8">
-        <v>15542.3</v>
+        <v>15548.9</v>
       </c>
       <c r="I58" s="8">
-        <v>9512.4</v>
+        <v>9519</v>
       </c>
       <c r="J58" s="8">
         <v>6029.9</v>
       </c>
       <c r="K58" s="8">
-        <v>2443.1</v>
+        <v>2443.6999999999998</v>
       </c>
       <c r="L58" s="8"/>
       <c r="M58" s="8"/>
@@ -15870,16 +15922,16 @@
         <v>2419.1</v>
       </c>
       <c r="H59" s="8">
-        <v>15256.5</v>
+        <v>15284.9</v>
       </c>
       <c r="I59" s="8">
-        <v>9769.5</v>
+        <v>9797.7999999999993</v>
       </c>
       <c r="J59" s="8">
         <v>5487</v>
       </c>
       <c r="K59" s="8">
-        <v>2455.1</v>
+        <v>2456.4</v>
       </c>
       <c r="L59" s="8"/>
       <c r="M59" s="8"/>
@@ -15903,16 +15955,16 @@
         <v>2436.4</v>
       </c>
       <c r="H60" s="8">
-        <v>15038.6</v>
+        <v>15011</v>
       </c>
       <c r="I60" s="8">
-        <v>9516.7999999999993</v>
+        <v>9489.2999999999993</v>
       </c>
       <c r="J60" s="8">
         <v>5521.7</v>
       </c>
       <c r="K60" s="8">
-        <v>2291.6999999999998</v>
+        <v>2289.1999999999998</v>
       </c>
       <c r="L60" s="8"/>
       <c r="M60" s="8"/>
@@ -15936,16 +15988,16 @@
         <v>2413.4</v>
       </c>
       <c r="H61" s="8">
-        <v>14166.4</v>
+        <v>14154.7</v>
       </c>
       <c r="I61" s="8">
-        <v>9178.2000000000007</v>
+        <v>9166.5</v>
       </c>
       <c r="J61" s="8">
         <v>4988.1000000000004</v>
       </c>
       <c r="K61" s="8">
-        <v>2421.1999999999998</v>
+        <v>2421.9</v>
       </c>
       <c r="L61" s="8"/>
       <c r="M61" s="8"/>
@@ -15969,16 +16021,16 @@
         <v>2524.3000000000002</v>
       </c>
       <c r="H62" s="8">
-        <v>14328.4</v>
+        <v>14312.8</v>
       </c>
       <c r="I62" s="8">
-        <v>9291.7000000000007</v>
+        <v>9276</v>
       </c>
       <c r="J62" s="8">
         <v>5036.8</v>
       </c>
       <c r="K62" s="8">
-        <v>2413.5</v>
+        <v>2412.6999999999998</v>
       </c>
       <c r="L62" s="8"/>
       <c r="M62" s="8"/>
@@ -16002,16 +16054,16 @@
         <v>2637.9</v>
       </c>
       <c r="H63" s="8">
-        <v>14197.9</v>
+        <v>14202.1</v>
       </c>
       <c r="I63" s="8">
-        <v>9226.1</v>
+        <v>9230.2999999999993</v>
       </c>
       <c r="J63" s="8">
         <v>4971.8999999999996</v>
       </c>
       <c r="K63" s="8">
-        <v>2411.1999999999998</v>
+        <v>2410.8000000000002</v>
       </c>
       <c r="L63" s="8"/>
       <c r="M63" s="8"/>
@@ -16035,16 +16087,16 @@
         <v>2366.6999999999998</v>
       </c>
       <c r="H64" s="8">
-        <v>14608.6</v>
+        <v>14579.8</v>
       </c>
       <c r="I64" s="8">
-        <v>9427.7999999999993</v>
+        <v>9399.1</v>
       </c>
       <c r="J64" s="8">
         <v>5180.7</v>
       </c>
       <c r="K64" s="8">
-        <v>2405.9</v>
+        <v>2407.1999999999998</v>
       </c>
       <c r="L64" s="8"/>
       <c r="M64" s="8"/>
@@ -16068,16 +16120,16 @@
         <v>2055</v>
       </c>
       <c r="H65" s="8">
-        <v>14925.9</v>
+        <v>14963.5</v>
       </c>
       <c r="I65" s="8">
-        <v>9542.2000000000007</v>
+        <v>9579.7999999999993</v>
       </c>
       <c r="J65" s="8">
         <v>5383.7</v>
       </c>
       <c r="K65" s="8">
-        <v>2392.1999999999998</v>
+        <v>2389.1</v>
       </c>
       <c r="L65" s="8"/>
       <c r="M65" s="8"/>
@@ -16101,16 +16153,16 @@
         <v>2229.6999999999998</v>
       </c>
       <c r="H66" s="8">
-        <v>15397.2</v>
+        <v>15403.4</v>
       </c>
       <c r="I66" s="8">
-        <v>9764.2999999999993</v>
+        <v>9770.5</v>
       </c>
       <c r="J66" s="8">
         <v>5632.9</v>
       </c>
       <c r="K66" s="8">
-        <v>2489</v>
+        <v>2489.8000000000002</v>
       </c>
       <c r="L66" s="8"/>
       <c r="M66" s="8"/>
@@ -16134,16 +16186,16 @@
         <v>2638.2</v>
       </c>
       <c r="H67" s="8">
-        <v>15906.3</v>
+        <v>15908</v>
       </c>
       <c r="I67" s="8">
-        <v>10077.6</v>
+        <v>10079.299999999999</v>
       </c>
       <c r="J67" s="8">
         <v>5828.8</v>
       </c>
       <c r="K67" s="8">
-        <v>2575</v>
+        <v>2576.6999999999998</v>
       </c>
       <c r="L67" s="8"/>
       <c r="M67" s="8"/>
@@ -16167,16 +16219,16 @@
         <v>2413.4</v>
       </c>
       <c r="H68" s="8">
-        <v>16363.6</v>
+        <v>16305</v>
       </c>
       <c r="I68" s="8">
-        <v>10322.4</v>
+        <v>10263.700000000001</v>
       </c>
       <c r="J68" s="8">
         <v>6041.2</v>
       </c>
       <c r="K68" s="8">
-        <v>2630.5</v>
+        <v>2630.6</v>
       </c>
       <c r="L68" s="8"/>
       <c r="M68" s="8"/>
@@ -16200,16 +16252,16 @@
         <v>2927.7</v>
       </c>
       <c r="H69" s="8">
-        <v>17053</v>
+        <v>17101.5</v>
       </c>
       <c r="I69" s="8">
-        <v>10648.7</v>
+        <v>10697.2</v>
       </c>
       <c r="J69" s="8">
         <v>6404.3</v>
       </c>
       <c r="K69" s="8">
-        <v>2618.1</v>
+        <v>2616.9</v>
       </c>
       <c r="L69" s="8"/>
       <c r="M69" s="8"/>
@@ -16233,16 +16285,16 @@
         <v>2741.1</v>
       </c>
       <c r="H70" s="8">
-        <v>18301.400000000001</v>
+        <v>18290</v>
       </c>
       <c r="I70" s="8">
-        <v>11355</v>
+        <v>11343.6</v>
       </c>
       <c r="J70" s="8">
         <v>6946.4</v>
       </c>
       <c r="K70" s="8">
-        <v>2768.3</v>
+        <v>2769.5</v>
       </c>
       <c r="L70" s="8"/>
       <c r="M70" s="8"/>
@@ -16266,16 +16318,16 @@
         <v>2792</v>
       </c>
       <c r="H71" s="8">
-        <v>17403.400000000001</v>
+        <v>17431.2</v>
       </c>
       <c r="I71" s="8">
-        <v>10766</v>
+        <v>10793.8</v>
       </c>
       <c r="J71" s="8">
         <v>6637.4</v>
       </c>
       <c r="K71" s="8">
-        <v>2711.3</v>
+        <v>2712.6</v>
       </c>
       <c r="L71" s="8"/>
       <c r="M71" s="8"/>
@@ -16299,16 +16351,16 @@
         <v>2862.5</v>
       </c>
       <c r="H72" s="8">
-        <v>17397.599999999999</v>
+        <v>17436.599999999999</v>
       </c>
       <c r="I72" s="8">
-        <v>11016.7</v>
+        <v>11055.7</v>
       </c>
       <c r="J72" s="8">
         <v>6380.9</v>
       </c>
       <c r="K72" s="8">
-        <v>2730.2</v>
+        <v>2730.4</v>
       </c>
       <c r="L72" s="8"/>
       <c r="M72" s="8"/>
@@ -16332,16 +16384,16 @@
         <v>2518.3000000000002</v>
       </c>
       <c r="H73" s="8">
-        <v>16829.3</v>
+        <v>16745.3</v>
       </c>
       <c r="I73" s="8">
-        <v>10516.5</v>
+        <v>10432.4</v>
       </c>
       <c r="J73" s="8">
         <v>6312.9</v>
       </c>
       <c r="K73" s="8">
-        <v>2638.4</v>
+        <v>2636.2</v>
       </c>
       <c r="L73" s="8"/>
       <c r="M73" s="8"/>
@@ -16365,16 +16417,16 @@
         <v>2952.3</v>
       </c>
       <c r="H74" s="8">
-        <v>16814.400000000001</v>
+        <v>16849.8</v>
       </c>
       <c r="I74" s="8">
-        <v>10736.8</v>
+        <v>10772.3</v>
       </c>
       <c r="J74" s="8">
         <v>6077.6</v>
       </c>
       <c r="K74" s="8">
-        <v>2721</v>
+        <v>2721.1</v>
       </c>
       <c r="L74" s="8"/>
       <c r="M74" s="8"/>
@@ -16398,16 +16450,16 @@
         <v>2983.7</v>
       </c>
       <c r="H75" s="8">
-        <v>16983.7</v>
+        <v>16994</v>
       </c>
       <c r="I75" s="8">
-        <v>10651.3</v>
+        <v>10661.7</v>
       </c>
       <c r="J75" s="8">
         <v>6332.3</v>
       </c>
       <c r="K75" s="8">
-        <v>2707.1</v>
+        <v>2708</v>
       </c>
       <c r="L75" s="8"/>
       <c r="M75" s="8"/>
@@ -16431,16 +16483,16 @@
         <v>2634.8</v>
       </c>
       <c r="H76" s="8">
-        <v>16559.099999999999</v>
+        <v>16546.7</v>
       </c>
       <c r="I76" s="8">
-        <v>10373.200000000001</v>
+        <v>10360.9</v>
       </c>
       <c r="J76" s="8">
         <v>6185.9</v>
       </c>
       <c r="K76" s="8">
-        <v>2704.9</v>
+        <v>2707.1</v>
       </c>
       <c r="L76" s="8"/>
       <c r="M76" s="8"/>
@@ -16464,16 +16516,16 @@
         <v>2405.9</v>
       </c>
       <c r="H77" s="8">
-        <v>16895.400000000001</v>
+        <v>16870.900000000001</v>
       </c>
       <c r="I77" s="8">
-        <v>10801.7</v>
+        <v>10777.2</v>
       </c>
       <c r="J77" s="8">
         <v>6093.7</v>
       </c>
       <c r="K77" s="8">
-        <v>2767.6</v>
+        <v>2756.9</v>
       </c>
       <c r="L77" s="8"/>
       <c r="M77" s="8"/>
@@ -16497,16 +16549,16 @@
         <v>2392.9</v>
       </c>
       <c r="H78" s="8">
-        <v>15653.6</v>
+        <v>15697.1</v>
       </c>
       <c r="I78" s="8">
-        <v>9877.2999999999993</v>
+        <v>9920.7999999999993</v>
       </c>
       <c r="J78" s="8">
         <v>5776.2</v>
       </c>
       <c r="K78" s="8">
-        <v>2541.1</v>
+        <v>2546.6999999999998</v>
       </c>
       <c r="L78" s="8"/>
       <c r="M78" s="8"/>
@@ -16530,16 +16582,16 @@
         <v>2095</v>
       </c>
       <c r="H79" s="8">
-        <v>14559.8</v>
+        <v>14556.9</v>
       </c>
       <c r="I79" s="8">
-        <v>9147.5</v>
+        <v>9144.6</v>
       </c>
       <c r="J79" s="8">
         <v>5412.3</v>
       </c>
       <c r="K79" s="8">
-        <v>2285.4</v>
+        <v>2289.1</v>
       </c>
       <c r="L79" s="8"/>
       <c r="M79" s="8"/>
@@ -16563,16 +16615,16 @@
         <v>2311.9</v>
       </c>
       <c r="H80" s="8">
-        <v>13901.5</v>
+        <v>13854.6</v>
       </c>
       <c r="I80" s="8">
-        <v>8740.7999999999993</v>
+        <v>8694</v>
       </c>
       <c r="J80" s="8">
         <v>5160.7</v>
       </c>
       <c r="K80" s="8">
-        <v>2237.1999999999998</v>
+        <v>2233.9</v>
       </c>
       <c r="L80" s="8"/>
       <c r="M80" s="8"/>
@@ -16596,16 +16648,16 @@
         <v>2318.8000000000002</v>
       </c>
       <c r="H81" s="8">
-        <v>12962.6</v>
+        <v>12995.5</v>
       </c>
       <c r="I81" s="8">
-        <v>8171.2</v>
+        <v>8204.1</v>
       </c>
       <c r="J81" s="8">
         <v>4791.3999999999996</v>
       </c>
       <c r="K81" s="8">
-        <v>2159.8000000000002</v>
+        <v>2160.1</v>
       </c>
       <c r="L81" s="8"/>
       <c r="M81" s="8"/>
@@ -16629,16 +16681,16 @@
         <v>2126.6999999999998</v>
       </c>
       <c r="H82" s="8">
-        <v>12962.1</v>
+        <v>12960.4</v>
       </c>
       <c r="I82" s="8">
-        <v>8199.7999999999993</v>
+        <v>8198.1</v>
       </c>
       <c r="J82" s="8">
         <v>4762.3</v>
       </c>
       <c r="K82" s="8">
-        <v>2179.1999999999998</v>
+        <v>2181.4</v>
       </c>
       <c r="L82" s="8"/>
       <c r="M82" s="8"/>
@@ -16662,16 +16714,16 @@
         <v>2412.4</v>
       </c>
       <c r="H83" s="8">
-        <v>12783.1</v>
+        <v>12785.8</v>
       </c>
       <c r="I83" s="8">
-        <v>8133.4</v>
+        <v>8136.1</v>
       </c>
       <c r="J83" s="8">
         <v>4649.7</v>
       </c>
       <c r="K83" s="8">
-        <v>2252.9</v>
+        <v>2249.3000000000002</v>
       </c>
       <c r="L83" s="8"/>
       <c r="M83" s="8"/>
@@ -16695,16 +16747,16 @@
         <v>2200</v>
       </c>
       <c r="H84" s="8">
-        <v>12642.9</v>
+        <v>12619.8</v>
       </c>
       <c r="I84" s="8">
-        <v>7979.4</v>
+        <v>7956.3</v>
       </c>
       <c r="J84" s="8">
         <v>4663.5</v>
       </c>
       <c r="K84" s="8">
-        <v>2261.1</v>
+        <v>2261.1999999999998</v>
       </c>
       <c r="L84" s="8"/>
       <c r="M84" s="8"/>
@@ -16728,16 +16780,16 @@
         <v>2436</v>
       </c>
       <c r="H85" s="8">
-        <v>12975.2</v>
+        <v>12983.2</v>
       </c>
       <c r="I85" s="8">
-        <v>8234.2000000000007</v>
+        <v>8242.1</v>
       </c>
       <c r="J85" s="8">
         <v>4741</v>
       </c>
       <c r="K85" s="8">
-        <v>2361</v>
+        <v>2361.6999999999998</v>
       </c>
       <c r="L85" s="8"/>
       <c r="M85" s="8"/>
@@ -16761,16 +16813,16 @@
         <v>2611.6999999999998</v>
       </c>
       <c r="H86" s="8">
-        <v>13346.6</v>
+        <v>13372.7</v>
       </c>
       <c r="I86" s="8">
-        <v>8538.2000000000007</v>
+        <v>8564.2000000000007</v>
       </c>
       <c r="J86" s="8">
         <v>4808.3999999999996</v>
       </c>
       <c r="K86" s="8">
-        <v>2406</v>
+        <v>2406.8000000000002</v>
       </c>
       <c r="L86" s="8"/>
       <c r="M86" s="8"/>
@@ -16794,16 +16846,16 @@
         <v>3157.1</v>
       </c>
       <c r="H87" s="8">
-        <v>13098.1</v>
+        <v>13033.8</v>
       </c>
       <c r="I87" s="8">
-        <v>8605.7000000000007</v>
+        <v>8541.4</v>
       </c>
       <c r="J87" s="8">
         <v>4492.3999999999996</v>
       </c>
       <c r="K87" s="8">
-        <v>3077.3</v>
+        <v>3073.2</v>
       </c>
       <c r="L87" s="8"/>
       <c r="M87" s="8"/>
@@ -16827,16 +16879,16 @@
         <v>3880.5</v>
       </c>
       <c r="H88" s="8">
-        <v>13882.5</v>
+        <v>13929.3</v>
       </c>
       <c r="I88" s="8">
-        <v>9334</v>
+        <v>9380.7999999999993</v>
       </c>
       <c r="J88" s="8">
         <v>4548.5</v>
       </c>
       <c r="K88" s="8">
-        <v>3652.4</v>
+        <v>3658.9</v>
       </c>
       <c r="L88" s="8"/>
       <c r="M88" s="8"/>
@@ -16860,16 +16912,16 @@
         <v>3473.7</v>
       </c>
       <c r="H89" s="8">
-        <v>14894.1</v>
+        <v>14888.4</v>
       </c>
       <c r="I89" s="8">
-        <v>10233.299999999999</v>
+        <v>10227.6</v>
       </c>
       <c r="J89" s="8">
         <v>4660.8</v>
       </c>
       <c r="K89" s="8">
-        <v>4187.3999999999996</v>
+        <v>4177.8999999999996</v>
       </c>
       <c r="L89" s="8"/>
       <c r="M89" s="8"/>
@@ -16893,16 +16945,16 @@
         <v>4043.5</v>
       </c>
       <c r="H90" s="8">
-        <v>15364.9</v>
+        <v>15371.4</v>
       </c>
       <c r="I90" s="8">
-        <v>10780.9</v>
+        <v>10787.4</v>
       </c>
       <c r="J90" s="8">
         <v>4584</v>
       </c>
       <c r="K90" s="8">
-        <v>4525.5</v>
+        <v>4527.5</v>
       </c>
       <c r="L90" s="8"/>
       <c r="M90" s="8"/>
@@ -16926,16 +16978,16 @@
         <v>5237.6000000000004</v>
       </c>
       <c r="H91" s="8">
-        <v>16718.599999999999</v>
+        <v>16708.2</v>
       </c>
       <c r="I91" s="8">
-        <v>11969.4</v>
+        <v>11959</v>
       </c>
       <c r="J91" s="8">
         <v>4749.2</v>
       </c>
       <c r="K91" s="8">
-        <v>5079</v>
+        <v>5084.8</v>
       </c>
       <c r="L91" s="8"/>
       <c r="M91" s="8"/>
@@ -16959,16 +17011,16 @@
         <v>4908.7</v>
       </c>
       <c r="H92" s="8">
-        <v>17041.2</v>
+        <v>17012.8</v>
       </c>
       <c r="I92" s="8">
-        <v>11955.6</v>
+        <v>11927.2</v>
       </c>
       <c r="J92" s="8">
         <v>5085.6000000000004</v>
       </c>
       <c r="K92" s="8">
-        <v>5201.5</v>
+        <v>5190.7</v>
       </c>
       <c r="L92" s="8"/>
       <c r="M92" s="8"/>
@@ -16992,16 +17044,16 @@
         <v>5297</v>
       </c>
       <c r="H93" s="8">
-        <v>16852.099999999999</v>
+        <v>16857.3</v>
       </c>
       <c r="I93" s="8">
-        <v>11825.9</v>
+        <v>11831.1</v>
       </c>
       <c r="J93" s="8">
         <v>5026.2</v>
       </c>
       <c r="K93" s="8">
-        <v>5069.8</v>
+        <v>5077.8</v>
       </c>
       <c r="L93" s="8"/>
       <c r="M93" s="8"/>
@@ -17025,16 +17077,16 @@
         <v>5118.7</v>
       </c>
       <c r="H94" s="8">
-        <v>17206.099999999999</v>
+        <v>17215</v>
       </c>
       <c r="I94" s="8">
-        <v>11959.2</v>
+        <v>11968.1</v>
       </c>
       <c r="J94" s="8">
         <v>5246.9</v>
       </c>
       <c r="K94" s="8">
-        <v>4936.1000000000004</v>
+        <v>4935.3999999999996</v>
       </c>
       <c r="L94" s="8"/>
       <c r="M94" s="8"/>
@@ -17058,16 +17110,16 @@
         <v>4673.8999999999996</v>
       </c>
       <c r="H95" s="8">
-        <v>17168.7</v>
+        <v>17222.400000000001</v>
       </c>
       <c r="I95" s="8">
-        <v>11728.8</v>
+        <v>11782.5</v>
       </c>
       <c r="J95" s="8">
         <v>5439.9</v>
       </c>
       <c r="K95" s="8">
-        <v>4435.3999999999996</v>
+        <v>4441.2</v>
       </c>
       <c r="L95" s="8"/>
       <c r="M95" s="8"/>
@@ -17091,16 +17143,16 @@
         <v>3965.8</v>
       </c>
       <c r="H96" s="8">
-        <v>17355.5</v>
+        <v>17334.900000000001</v>
       </c>
       <c r="I96" s="8">
-        <v>11649.3</v>
+        <v>11628.8</v>
       </c>
       <c r="J96" s="8">
         <v>5706.2</v>
       </c>
       <c r="K96" s="8">
-        <v>4204.6000000000004</v>
+        <v>4205.8</v>
       </c>
       <c r="L96" s="8"/>
       <c r="M96" s="8"/>
@@ -17124,16 +17176,16 @@
         <v>4546.8999999999996</v>
       </c>
       <c r="H97" s="8">
-        <v>17874.7</v>
+        <v>17873.400000000001</v>
       </c>
       <c r="I97" s="8">
-        <v>12169.3</v>
+        <v>12168</v>
       </c>
       <c r="J97" s="8">
         <v>5705.4</v>
       </c>
       <c r="K97" s="8">
-        <v>4335.8999999999996</v>
+        <v>4330.6000000000004</v>
       </c>
       <c r="L97" s="8"/>
       <c r="M97" s="8"/>
@@ -17157,16 +17209,16 @@
         <v>4490</v>
       </c>
       <c r="H98" s="8">
-        <v>17615.900000000001</v>
+        <v>17599.599999999999</v>
       </c>
       <c r="I98" s="8">
-        <v>11821.8</v>
+        <v>11805.5</v>
       </c>
       <c r="J98" s="8">
         <v>5794.1</v>
       </c>
       <c r="K98" s="8">
-        <v>4268.7</v>
+        <v>4264.8999999999996</v>
       </c>
       <c r="L98" s="8"/>
       <c r="M98" s="8"/>
@@ -17190,16 +17242,16 @@
         <v>3722.9</v>
       </c>
       <c r="H99" s="8">
-        <v>17077.400000000001</v>
+        <v>17072.3</v>
       </c>
       <c r="I99" s="8">
-        <v>11092.1</v>
+        <v>11087</v>
       </c>
       <c r="J99" s="8">
         <v>5985.3</v>
       </c>
       <c r="K99" s="8">
-        <v>3546</v>
+        <v>3551.7</v>
       </c>
       <c r="L99" s="8"/>
       <c r="M99" s="8"/>
@@ -17223,16 +17275,16 @@
         <v>3498.6</v>
       </c>
       <c r="H100" s="8">
-        <v>16495.5</v>
+        <v>16489.8</v>
       </c>
       <c r="I100" s="8">
-        <v>10610.7</v>
+        <v>10605</v>
       </c>
       <c r="J100" s="8">
         <v>5884.8</v>
       </c>
       <c r="K100" s="8">
-        <v>3253.2</v>
+        <v>3247.5</v>
       </c>
       <c r="L100" s="8"/>
       <c r="M100" s="8"/>
@@ -17256,16 +17308,16 @@
         <v>2384.1999999999998</v>
       </c>
       <c r="H101" s="8">
-        <v>15953.7</v>
+        <v>15939.1</v>
       </c>
       <c r="I101" s="8">
-        <v>10122.4</v>
+        <v>10107.799999999999</v>
       </c>
       <c r="J101" s="8">
         <v>5831.3</v>
       </c>
       <c r="K101" s="8">
-        <v>2945.4</v>
+        <v>2945.1</v>
       </c>
       <c r="L101" s="8"/>
       <c r="M101" s="8"/>
@@ -17289,16 +17341,16 @@
         <v>2363.6</v>
       </c>
       <c r="H102" s="8">
-        <v>15668.9</v>
+        <v>15672.3</v>
       </c>
       <c r="I102" s="8">
-        <v>9793.1</v>
+        <v>9796.5</v>
       </c>
       <c r="J102" s="8">
         <v>5875.8</v>
       </c>
       <c r="K102" s="8">
-        <v>2647.2</v>
+        <v>2648.5</v>
       </c>
       <c r="L102" s="8"/>
       <c r="M102" s="8"/>
@@ -17322,16 +17374,16 @@
         <v>2447</v>
       </c>
       <c r="H103" s="8">
-        <v>15523.2</v>
+        <v>15549.5</v>
       </c>
       <c r="I103" s="8">
-        <v>9576.5</v>
+        <v>9602.7999999999993</v>
       </c>
       <c r="J103" s="8">
         <v>5946.7</v>
       </c>
       <c r="K103" s="8">
-        <v>2323.8000000000002</v>
+        <v>2328.6</v>
       </c>
       <c r="L103" s="8"/>
       <c r="M103" s="8"/>
@@ -17355,16 +17407,16 @@
         <v>2172.6</v>
       </c>
       <c r="H104" s="8">
-        <v>15254.9</v>
+        <v>15260.8</v>
       </c>
       <c r="I104" s="8">
-        <v>9356.4</v>
+        <v>9362.4</v>
       </c>
       <c r="J104" s="8">
         <v>5898.4</v>
       </c>
       <c r="K104" s="8">
-        <v>2270.6</v>
+        <v>2270.8000000000002</v>
       </c>
       <c r="L104" s="8"/>
       <c r="M104" s="8"/>
@@ -17388,16 +17440,16 @@
         <v>2339.9</v>
       </c>
       <c r="H105" s="8">
-        <v>15428.7</v>
+        <v>15426.3</v>
       </c>
       <c r="I105" s="8">
-        <v>9439.5</v>
+        <v>9437.1</v>
       </c>
       <c r="J105" s="8">
         <v>5989.2</v>
       </c>
       <c r="K105" s="8">
-        <v>2307.9</v>
+        <v>2310.6999999999998</v>
       </c>
       <c r="L105" s="8"/>
       <c r="M105" s="8"/>
@@ -17421,16 +17473,16 @@
         <v>2237.1999999999998</v>
       </c>
       <c r="H106" s="8">
-        <v>15117.5</v>
+        <v>15111.3</v>
       </c>
       <c r="I106" s="8">
-        <v>9128.9</v>
+        <v>9122.7000000000007</v>
       </c>
       <c r="J106" s="8">
         <v>5988.7</v>
       </c>
       <c r="K106" s="8">
-        <v>2104.1999999999998</v>
+        <v>2100.1</v>
       </c>
       <c r="L106" s="8"/>
       <c r="M106" s="8"/>
@@ -17454,16 +17506,16 @@
         <v>2195.6999999999998</v>
       </c>
       <c r="H107" s="8">
-        <v>15051.2</v>
+        <v>15047.6</v>
       </c>
       <c r="I107" s="8">
-        <v>9294.4</v>
+        <v>9290.7999999999993</v>
       </c>
       <c r="J107" s="8">
         <v>5756.8</v>
       </c>
       <c r="K107" s="8">
-        <v>2166.4</v>
+        <v>2166</v>
       </c>
       <c r="L107" s="8"/>
       <c r="M107" s="8"/>
@@ -17487,16 +17539,16 @@
         <v>2106.4</v>
       </c>
       <c r="H108" s="8">
-        <v>14637</v>
+        <v>14623.3</v>
       </c>
       <c r="I108" s="8">
-        <v>9235.7000000000007</v>
+        <v>9222</v>
       </c>
       <c r="J108" s="8">
         <v>5401.3</v>
       </c>
       <c r="K108" s="8">
-        <v>2106.8000000000002</v>
+        <v>2104.4</v>
       </c>
       <c r="L108" s="8"/>
       <c r="M108" s="8"/>
@@ -17520,16 +17572,16 @@
         <v>2137.6999999999998</v>
       </c>
       <c r="H109" s="8">
-        <v>14610.3</v>
+        <v>14620.8</v>
       </c>
       <c r="I109" s="8">
-        <v>9136.2000000000007</v>
+        <v>9146.7000000000007</v>
       </c>
       <c r="J109" s="8">
         <v>5474.1</v>
       </c>
       <c r="K109" s="8">
-        <v>2102</v>
+        <v>2098.9</v>
       </c>
       <c r="L109" s="8"/>
       <c r="M109" s="8"/>
@@ -17553,16 +17605,16 @@
         <v>2080</v>
       </c>
       <c r="H110" s="8">
-        <v>14661.5</v>
+        <v>14641.2</v>
       </c>
       <c r="I110" s="8">
-        <v>9176.7999999999993</v>
+        <v>9156.4</v>
       </c>
       <c r="J110" s="8">
         <v>5484.8</v>
       </c>
       <c r="K110" s="8">
-        <v>2023</v>
+        <v>2024.9</v>
       </c>
       <c r="L110" s="8"/>
       <c r="M110" s="8"/>
@@ -17586,16 +17638,16 @@
         <v>2317.4</v>
       </c>
       <c r="H111" s="8">
-        <v>14710.3</v>
+        <v>14712</v>
       </c>
       <c r="I111" s="8">
-        <v>9320.4</v>
+        <v>9322.1</v>
       </c>
       <c r="J111" s="8">
         <v>5389.9</v>
       </c>
       <c r="K111" s="8">
-        <v>2074.1</v>
+        <v>2073.8000000000002</v>
       </c>
       <c r="L111" s="8"/>
       <c r="M111" s="8"/>
@@ -17619,16 +17671,16 @@
         <v>2398</v>
       </c>
       <c r="H112" s="8">
-        <v>14993.2</v>
+        <v>15027.4</v>
       </c>
       <c r="I112" s="8">
-        <v>9419.9</v>
+        <v>9454.1</v>
       </c>
       <c r="J112" s="8">
         <v>5573.3</v>
       </c>
       <c r="K112" s="8">
-        <v>2260.9</v>
+        <v>2267.4</v>
       </c>
       <c r="L112" s="8"/>
       <c r="M112" s="8"/>
@@ -17652,16 +17704,16 @@
         <v>1586.6</v>
       </c>
       <c r="H113" s="8">
-        <v>14163.3</v>
+        <v>14154.1</v>
       </c>
       <c r="I113" s="8">
-        <v>9019.2999999999993</v>
+        <v>9010.1</v>
       </c>
       <c r="J113" s="8">
         <v>5144</v>
       </c>
       <c r="K113" s="8">
-        <v>2015.6</v>
+        <v>2014.5</v>
       </c>
       <c r="L113" s="8"/>
       <c r="M113" s="8"/>
@@ -17685,16 +17737,16 @@
         <v>1732.8</v>
       </c>
       <c r="H114" s="8">
-        <v>14063.7</v>
+        <v>14065.5</v>
       </c>
       <c r="I114" s="8">
-        <v>8871.6</v>
+        <v>8873.4</v>
       </c>
       <c r="J114" s="8">
         <v>5192.1000000000004</v>
       </c>
       <c r="K114" s="8">
-        <v>1944.5</v>
+        <v>1945.5</v>
       </c>
       <c r="L114" s="8"/>
       <c r="M114" s="8"/>
@@ -17718,7 +17770,7 @@
         <v>2240.9</v>
       </c>
       <c r="H115" s="8">
-        <v>13625.4</v>
+        <v>13625.5</v>
       </c>
       <c r="I115" s="8">
         <v>8826.9</v>
@@ -17727,7 +17779,7 @@
         <v>4798.5</v>
       </c>
       <c r="K115" s="8">
-        <v>2088.4</v>
+        <v>2085.1</v>
       </c>
       <c r="L115" s="8"/>
       <c r="M115" s="8"/>
@@ -17751,16 +17803,16 @@
         <v>1988.4</v>
       </c>
       <c r="H116" s="8">
-        <v>13996.2</v>
+        <v>13989.8</v>
       </c>
       <c r="I116" s="8">
-        <v>9006.4</v>
+        <v>9000</v>
       </c>
       <c r="J116" s="8">
         <v>4989.8</v>
       </c>
       <c r="K116" s="8">
-        <v>2172.6999999999998</v>
+        <v>2176.3000000000002</v>
       </c>
       <c r="L116" s="8"/>
       <c r="M116" s="8"/>
@@ -17784,16 +17836,16 @@
         <v>2331.1</v>
       </c>
       <c r="H117" s="8">
-        <v>14235.1</v>
+        <v>14241.7</v>
       </c>
       <c r="I117" s="8">
-        <v>9080</v>
+        <v>9086.7000000000007</v>
       </c>
       <c r="J117" s="8">
         <v>5155</v>
       </c>
       <c r="K117" s="8">
-        <v>2155</v>
+        <v>2153.6</v>
       </c>
       <c r="L117" s="8"/>
       <c r="M117" s="8"/>
@@ -17817,16 +17869,16 @@
         <v>2162.9</v>
       </c>
       <c r="H118" s="8">
-        <v>14138</v>
+        <v>14135.7</v>
       </c>
       <c r="I118" s="8">
-        <v>9099.2000000000007</v>
+        <v>9097</v>
       </c>
       <c r="J118" s="8">
         <v>5038.7</v>
       </c>
       <c r="K118" s="8">
-        <v>2097.1</v>
+        <v>2093</v>
       </c>
       <c r="L118" s="8"/>
       <c r="M118" s="8"/>
@@ -17850,16 +17902,16 @@
         <v>2060.6999999999998</v>
       </c>
       <c r="H119" s="8">
-        <v>14093.5</v>
+        <v>14083.4</v>
       </c>
       <c r="I119" s="8">
-        <v>9042.2999999999993</v>
+        <v>9032.2999999999993</v>
       </c>
       <c r="J119" s="8">
         <v>5051.2</v>
       </c>
       <c r="K119" s="8">
-        <v>2087</v>
+        <v>2089.5</v>
       </c>
       <c r="L119" s="8"/>
       <c r="M119" s="8"/>
@@ -17883,16 +17935,16 @@
         <v>2250.9</v>
       </c>
       <c r="H120" s="8">
-        <v>14164.3</v>
+        <v>14168.7</v>
       </c>
       <c r="I120" s="8">
-        <v>9034.5</v>
+        <v>9038.9</v>
       </c>
       <c r="J120" s="8">
         <v>5129.8</v>
       </c>
       <c r="K120" s="8">
-        <v>2191.1999999999998</v>
+        <v>2190.4</v>
       </c>
       <c r="L120" s="8"/>
       <c r="M120" s="8"/>
@@ -17916,16 +17968,16 @@
         <v>2336.6999999999998</v>
       </c>
       <c r="H121" s="8">
-        <v>13918.8</v>
+        <v>13939</v>
       </c>
       <c r="I121" s="8">
-        <v>8779.7999999999993</v>
+        <v>8800</v>
       </c>
       <c r="J121" s="8">
         <v>5138.8999999999996</v>
       </c>
       <c r="K121" s="8">
-        <v>2274.3000000000002</v>
+        <v>2275.5</v>
       </c>
       <c r="L121" s="8"/>
       <c r="M121" s="8"/>
@@ -17949,16 +18001,16 @@
         <v>2442.8000000000002</v>
       </c>
       <c r="H122" s="8">
-        <v>13867.8</v>
+        <v>13855.4</v>
       </c>
       <c r="I122" s="8">
-        <v>8871.7000000000007</v>
+        <v>8859.4</v>
       </c>
       <c r="J122" s="8">
         <v>4996.1000000000004</v>
       </c>
       <c r="K122" s="8">
-        <v>2439.3000000000002</v>
+        <v>2440.1999999999998</v>
       </c>
       <c r="L122" s="8"/>
       <c r="M122" s="8"/>
@@ -17982,16 +18034,16 @@
         <v>2870</v>
       </c>
       <c r="H123" s="8">
-        <v>14050.4</v>
+        <v>14034.2</v>
       </c>
       <c r="I123" s="8">
-        <v>8971.1</v>
+        <v>8954.9</v>
       </c>
       <c r="J123" s="8">
         <v>5079.3</v>
       </c>
       <c r="K123" s="8">
-        <v>2511.1</v>
+        <v>2507.3000000000002</v>
       </c>
       <c r="L123" s="8"/>
       <c r="M123" s="8"/>
@@ -18015,16 +18067,16 @@
         <v>2959.8</v>
       </c>
       <c r="H124" s="8">
-        <v>14724</v>
+        <v>14730.5</v>
       </c>
       <c r="I124" s="8">
-        <v>9399.2000000000007</v>
+        <v>9405.7000000000007</v>
       </c>
       <c r="J124" s="8">
         <v>5324.8</v>
       </c>
       <c r="K124" s="8">
-        <v>2887.1</v>
+        <v>2892.2</v>
       </c>
       <c r="L124" s="8"/>
       <c r="M124" s="8"/>
@@ -18048,16 +18100,16 @@
         <v>2300</v>
       </c>
       <c r="H125" s="8">
-        <v>14767.7</v>
+        <v>14772.3</v>
       </c>
       <c r="I125" s="8">
-        <v>9392.6</v>
+        <v>9397.2000000000007</v>
       </c>
       <c r="J125" s="8">
         <v>5375</v>
       </c>
       <c r="K125" s="8">
-        <v>2740.6</v>
+        <v>2738.2</v>
       </c>
       <c r="L125" s="8"/>
       <c r="M125" s="8"/>
@@ -18081,16 +18133,16 @@
         <v>2082.4</v>
       </c>
       <c r="H126" s="8">
-        <v>14072.3</v>
+        <v>14076.4</v>
       </c>
       <c r="I126" s="8">
-        <v>8672.2999999999993</v>
+        <v>8676.4</v>
       </c>
       <c r="J126" s="8">
         <v>5400</v>
       </c>
       <c r="K126" s="8">
-        <v>2235.3000000000002</v>
+        <v>2236.4</v>
       </c>
       <c r="L126" s="8"/>
       <c r="M126" s="8"/>
@@ -18114,16 +18166,16 @@
         <v>2252.3000000000002</v>
       </c>
       <c r="H127" s="8">
-        <v>14094.2</v>
+        <v>14092.3</v>
       </c>
       <c r="I127" s="8">
-        <v>8705.2000000000007</v>
+        <v>8703.2999999999993</v>
       </c>
       <c r="J127" s="8">
         <v>5389</v>
       </c>
       <c r="K127" s="8">
-        <v>2232.6999999999998</v>
+        <v>2236.6999999999998</v>
       </c>
       <c r="L127" s="8"/>
       <c r="M127" s="8"/>
@@ -18147,16 +18199,16 @@
         <v>2022.2</v>
       </c>
       <c r="H128" s="8">
-        <v>14347</v>
+        <v>14347.9</v>
       </c>
       <c r="I128" s="8">
-        <v>8924.2999999999993</v>
+        <v>8925.2000000000007</v>
       </c>
       <c r="J128" s="8">
         <v>5422.7</v>
       </c>
       <c r="K128" s="8">
-        <v>2252.1999999999998</v>
+        <v>2253.6999999999998</v>
       </c>
       <c r="L128" s="8"/>
       <c r="M128" s="8"/>
@@ -18180,16 +18232,16 @@
         <v>2656.1</v>
       </c>
       <c r="H129" s="8">
-        <v>14506.9</v>
+        <v>14511.8</v>
       </c>
       <c r="I129" s="8">
-        <v>9106</v>
+        <v>9110.9</v>
       </c>
       <c r="J129" s="8">
         <v>5400.9</v>
       </c>
       <c r="K129" s="8">
-        <v>2365.4</v>
+        <v>2359.1</v>
       </c>
       <c r="L129" s="8"/>
       <c r="M129" s="8"/>
@@ -18213,16 +18265,16 @@
         <v>2485.3000000000002</v>
       </c>
       <c r="H130" s="8">
-        <v>14737.7</v>
+        <v>14733.1</v>
       </c>
       <c r="I130" s="8">
-        <v>9254</v>
+        <v>9249.2999999999993</v>
       </c>
       <c r="J130" s="8">
         <v>5483.7</v>
       </c>
       <c r="K130" s="8">
-        <v>2462.9</v>
+        <v>2464</v>
       </c>
       <c r="L130" s="8"/>
       <c r="M130" s="8"/>
@@ -18246,16 +18298,16 @@
         <v>2580</v>
       </c>
       <c r="H131" s="8">
-        <v>14778.8</v>
+        <v>14779.3</v>
       </c>
       <c r="I131" s="8">
-        <v>9279.6</v>
+        <v>9280.2000000000007</v>
       </c>
       <c r="J131" s="8">
         <v>5499.1</v>
       </c>
       <c r="K131" s="8">
-        <v>2529.9</v>
+        <v>2528.5</v>
       </c>
       <c r="L131" s="8"/>
       <c r="M131" s="8"/>
@@ -18279,16 +18331,16 @@
         <v>2606.1</v>
       </c>
       <c r="H132" s="8">
-        <v>14869.1</v>
+        <v>14874</v>
       </c>
       <c r="I132" s="8">
-        <v>9436.2999999999993</v>
+        <v>9441.2999999999993</v>
       </c>
       <c r="J132" s="8">
         <v>5432.7</v>
       </c>
       <c r="K132" s="8">
-        <v>2564</v>
+        <v>2563.4</v>
       </c>
       <c r="L132" s="8"/>
       <c r="M132" s="8"/>
@@ -18312,10 +18364,10 @@
         <v>2454.6999999999998</v>
       </c>
       <c r="H133" s="8">
-        <v>15102.3</v>
+        <v>15098.3</v>
       </c>
       <c r="I133" s="8">
-        <v>9496.6</v>
+        <v>9492.6</v>
       </c>
       <c r="J133" s="8">
         <v>5605.7</v>
@@ -18345,16 +18397,16 @@
         <v>2765.2</v>
       </c>
       <c r="H134" s="8">
-        <v>14893.9</v>
+        <v>14901.5</v>
       </c>
       <c r="I134" s="8">
-        <v>9377.5</v>
+        <v>9385.2000000000007</v>
       </c>
       <c r="J134" s="8">
         <v>5516.3</v>
       </c>
       <c r="K134" s="8">
-        <v>2509</v>
+        <v>2506.5</v>
       </c>
       <c r="L134" s="8"/>
       <c r="M134" s="8"/>
@@ -18378,16 +18430,16 @@
         <v>2639.7</v>
       </c>
       <c r="H135" s="8">
-        <v>15194.9</v>
+        <v>15183.4</v>
       </c>
       <c r="I135" s="8">
-        <v>9442.4</v>
+        <v>9430.9</v>
       </c>
       <c r="J135" s="8">
         <v>5752.5</v>
       </c>
       <c r="K135" s="8">
-        <v>2372.9</v>
+        <v>2373.6999999999998</v>
       </c>
       <c r="L135" s="8"/>
       <c r="M135" s="8"/>
@@ -18411,16 +18463,16 @@
         <v>2239.6999999999998</v>
       </c>
       <c r="H136" s="8">
-        <v>15373.5</v>
+        <v>15371.3</v>
       </c>
       <c r="I136" s="8">
-        <v>9530.2999999999993</v>
+        <v>9528.1</v>
       </c>
       <c r="J136" s="8">
         <v>5843.2</v>
       </c>
       <c r="K136" s="8">
-        <v>2275</v>
+        <v>2279.8000000000002</v>
       </c>
       <c r="L136" s="8"/>
       <c r="M136" s="8"/>
@@ -18444,16 +18496,16 @@
         <v>2052.1</v>
       </c>
       <c r="H137" s="8">
-        <v>15897.6</v>
+        <v>15889.7</v>
       </c>
       <c r="I137" s="8">
-        <v>9798.1</v>
+        <v>9790.2000000000007</v>
       </c>
       <c r="J137" s="8">
         <v>6099.5</v>
       </c>
       <c r="K137" s="8">
-        <v>2358.1999999999998</v>
+        <v>2357</v>
       </c>
       <c r="L137" s="8"/>
       <c r="M137" s="8"/>
@@ -18477,16 +18529,16 @@
         <v>2086.4</v>
       </c>
       <c r="H138" s="8">
-        <v>16137.2</v>
+        <v>16136.2</v>
       </c>
       <c r="I138" s="8">
-        <v>9874.2000000000007</v>
+        <v>9873.2000000000007</v>
       </c>
       <c r="J138" s="8">
         <v>6263</v>
       </c>
       <c r="K138" s="8">
-        <v>2354.1</v>
+        <v>2356</v>
       </c>
       <c r="L138" s="8"/>
       <c r="M138" s="8"/>
@@ -18510,16 +18562,16 @@
         <v>2277.6</v>
       </c>
       <c r="H139" s="8">
-        <v>16877.3</v>
+        <v>16884.2</v>
       </c>
       <c r="I139" s="8">
-        <v>10345.1</v>
+        <v>10351.9</v>
       </c>
       <c r="J139" s="8">
         <v>6532.2</v>
       </c>
       <c r="K139" s="8">
-        <v>2424.4</v>
+        <v>2431.1</v>
       </c>
       <c r="L139" s="8"/>
       <c r="M139" s="8"/>
@@ -18543,16 +18595,16 @@
         <v>2405.1</v>
       </c>
       <c r="H140" s="8">
-        <v>16939.900000000001</v>
+        <v>16936.599999999999</v>
       </c>
       <c r="I140" s="8">
-        <v>10301.9</v>
+        <v>10298.6</v>
       </c>
       <c r="J140" s="8">
         <v>6638</v>
       </c>
       <c r="K140" s="8">
-        <v>2439.6999999999998</v>
+        <v>2437.5</v>
       </c>
       <c r="L140" s="8"/>
       <c r="M140" s="8"/>
@@ -18576,16 +18628,16 @@
         <v>2760.1</v>
       </c>
       <c r="H141" s="8">
-        <v>17209.2</v>
+        <v>17236.2</v>
       </c>
       <c r="I141" s="8">
-        <v>10408.9</v>
+        <v>10435.9</v>
       </c>
       <c r="J141" s="8">
         <v>6800.2</v>
       </c>
       <c r="K141" s="8">
-        <v>2506.1</v>
+        <v>2501.6999999999998</v>
       </c>
       <c r="L141" s="8"/>
       <c r="M141" s="8"/>
@@ -18609,16 +18661,16 @@
         <v>2474</v>
       </c>
       <c r="H142" s="8">
-        <v>17322.400000000001</v>
+        <v>17302.5</v>
       </c>
       <c r="I142" s="8">
-        <v>10494.6</v>
+        <v>10474.700000000001</v>
       </c>
       <c r="J142" s="8">
         <v>6827.8</v>
       </c>
       <c r="K142" s="8">
-        <v>2539.1999999999998</v>
+        <v>2540</v>
       </c>
       <c r="L142" s="8"/>
       <c r="M142" s="8"/>
@@ -18642,16 +18694,16 @@
         <v>2714.4</v>
       </c>
       <c r="H143" s="8">
-        <v>17462.400000000001</v>
+        <v>17475.099999999999</v>
       </c>
       <c r="I143" s="8">
-        <v>10507.6</v>
+        <v>10520.3</v>
       </c>
       <c r="J143" s="8">
         <v>6954.8</v>
       </c>
       <c r="K143" s="8">
-        <v>2575.1</v>
+        <v>2569.5</v>
       </c>
       <c r="L143" s="8"/>
       <c r="M143" s="8"/>
@@ -18675,10 +18727,10 @@
         <v>2486.1999999999998</v>
       </c>
       <c r="H144" s="8">
-        <v>17384</v>
+        <v>17361.8</v>
       </c>
       <c r="I144" s="8">
-        <v>10257.6</v>
+        <v>10235.5</v>
       </c>
       <c r="J144" s="8">
         <v>7126.3</v>
@@ -18708,16 +18760,16 @@
         <v>2483.9</v>
       </c>
       <c r="H145" s="8">
-        <v>18183</v>
+        <v>18204.099999999999</v>
       </c>
       <c r="I145" s="8">
-        <v>10739.9</v>
+        <v>10760.9</v>
       </c>
       <c r="J145" s="8">
         <v>7443.2</v>
       </c>
       <c r="K145" s="8">
-        <v>2506.8000000000002</v>
+        <v>2507.6</v>
       </c>
       <c r="L145" s="8"/>
       <c r="M145" s="8"/>
@@ -18750,7 +18802,7 @@
         <v>7798.8</v>
       </c>
       <c r="K146" s="8">
-        <v>2502</v>
+        <v>2499.8000000000002</v>
       </c>
       <c r="L146" s="8"/>
       <c r="M146" s="8"/>
@@ -18774,16 +18826,16 @@
         <v>2753.9</v>
       </c>
       <c r="H147" s="8">
-        <v>19250</v>
+        <v>19219</v>
       </c>
       <c r="I147" s="8">
-        <v>11209.9</v>
+        <v>11178.8</v>
       </c>
       <c r="J147" s="8">
         <v>8040.1</v>
       </c>
       <c r="K147" s="8">
-        <v>2527.3000000000002</v>
+        <v>2527.1</v>
       </c>
       <c r="L147" s="8"/>
       <c r="M147" s="8"/>
@@ -18807,16 +18859,16 @@
         <v>2536.6</v>
       </c>
       <c r="H148" s="8">
-        <v>18992.099999999999</v>
+        <v>19003.599999999999</v>
       </c>
       <c r="I148" s="8">
-        <v>10937.9</v>
+        <v>10949.4</v>
       </c>
       <c r="J148" s="8">
         <v>8054.2</v>
       </c>
       <c r="K148" s="8">
-        <v>2427.1999999999998</v>
+        <v>2432.6</v>
       </c>
       <c r="L148" s="8"/>
       <c r="M148" s="8"/>
@@ -18840,16 +18892,16 @@
         <v>2183.4</v>
       </c>
       <c r="H149" s="8">
-        <v>19151.099999999999</v>
+        <v>19167.2</v>
       </c>
       <c r="I149" s="8">
-        <v>11163.6</v>
+        <v>11179.7</v>
       </c>
       <c r="J149" s="8">
         <v>7987.5</v>
       </c>
       <c r="K149" s="8">
-        <v>2551.6</v>
+        <v>2553.5</v>
       </c>
       <c r="L149" s="8"/>
       <c r="M149" s="8"/>
@@ -18873,16 +18925,16 @@
         <v>2293.5</v>
       </c>
       <c r="H150" s="8">
-        <v>19371.3</v>
+        <v>19368.099999999999</v>
       </c>
       <c r="I150" s="8">
-        <v>11442.5</v>
+        <v>11439.4</v>
       </c>
       <c r="J150" s="8">
         <v>7928.7</v>
       </c>
       <c r="K150" s="8">
-        <v>2591.3000000000002</v>
+        <v>2593.1999999999998</v>
       </c>
       <c r="L150" s="8"/>
       <c r="M150" s="8"/>
@@ -18906,16 +18958,16 @@
         <v>2541.6999999999998</v>
       </c>
       <c r="H151" s="8">
-        <v>19482.099999999999</v>
+        <v>19488.8</v>
       </c>
       <c r="I151" s="8">
-        <v>11373.6</v>
+        <v>11380.3</v>
       </c>
       <c r="J151" s="8">
         <v>8108.5</v>
       </c>
       <c r="K151" s="8">
-        <v>2603.9</v>
+        <v>2607.5</v>
       </c>
       <c r="L151" s="8"/>
       <c r="M151" s="8"/>
@@ -18939,16 +18991,16 @@
         <v>2373.6999999999998</v>
       </c>
       <c r="H152" s="8">
-        <v>19608.400000000001</v>
+        <v>19589.8</v>
       </c>
       <c r="I152" s="8">
-        <v>11331</v>
+        <v>11312.3</v>
       </c>
       <c r="J152" s="8">
         <v>8277.5</v>
       </c>
       <c r="K152" s="8">
-        <v>2501.8000000000002</v>
+        <v>2498.1999999999998</v>
       </c>
       <c r="L152" s="8"/>
       <c r="M152" s="8"/>
@@ -18972,16 +19024,16 @@
         <v>2706.4</v>
       </c>
       <c r="H153" s="8">
-        <v>19492.5</v>
+        <v>19509.099999999999</v>
       </c>
       <c r="I153" s="8">
-        <v>11221.1</v>
+        <v>11237.7</v>
       </c>
       <c r="J153" s="8">
         <v>8271.4</v>
       </c>
       <c r="K153" s="8">
-        <v>2566.8000000000002</v>
+        <v>2562.5</v>
       </c>
       <c r="L153" s="8"/>
       <c r="M153" s="8"/>
@@ -19005,16 +19057,16 @@
         <v>2627.9</v>
       </c>
       <c r="H154" s="8">
-        <v>19630.7</v>
+        <v>19640.7</v>
       </c>
       <c r="I154" s="8">
-        <v>11382.5</v>
+        <v>11392.5</v>
       </c>
       <c r="J154" s="8">
         <v>8248.2000000000007</v>
       </c>
       <c r="K154" s="8">
-        <v>2627.6</v>
+        <v>2628.2</v>
       </c>
       <c r="L154" s="8"/>
       <c r="M154" s="8"/>
@@ -19038,16 +19090,16 @@
         <v>2623.8</v>
       </c>
       <c r="H155" s="8">
-        <v>19838.5</v>
+        <v>19825.7</v>
       </c>
       <c r="I155" s="8">
-        <v>11298.7</v>
+        <v>11285.9</v>
       </c>
       <c r="J155" s="8">
         <v>8539.7999999999993</v>
       </c>
       <c r="K155" s="8">
-        <v>2493.4</v>
+        <v>2492.1999999999998</v>
       </c>
       <c r="L155" s="8"/>
       <c r="M155" s="8"/>
@@ -19071,16 +19123,16 @@
         <v>2375.6999999999998</v>
       </c>
       <c r="H156" s="8">
-        <v>19648.7</v>
+        <v>19629.900000000001</v>
       </c>
       <c r="I156" s="8">
-        <v>10991.5</v>
+        <v>10972.7</v>
       </c>
       <c r="J156" s="8">
         <v>8657.2000000000007</v>
       </c>
       <c r="K156" s="8">
-        <v>2481.3000000000002</v>
+        <v>2481.6999999999998</v>
       </c>
       <c r="L156" s="8"/>
       <c r="M156" s="8"/>
@@ -19104,16 +19156,16 @@
         <v>2582.6</v>
       </c>
       <c r="H157" s="8">
-        <v>19979.5</v>
+        <v>19995.2</v>
       </c>
       <c r="I157" s="8">
-        <v>11103.7</v>
+        <v>11119.3</v>
       </c>
       <c r="J157" s="8">
         <v>8875.9</v>
       </c>
       <c r="K157" s="8">
-        <v>2479.9</v>
+        <v>2476.3000000000002</v>
       </c>
       <c r="L157" s="8"/>
       <c r="M157" s="8"/>
@@ -19137,16 +19189,16 @@
         <v>2734</v>
       </c>
       <c r="H158" s="8">
-        <v>20553.7</v>
+        <v>20585.2</v>
       </c>
       <c r="I158" s="8">
-        <v>11395.1</v>
+        <v>11426.6</v>
       </c>
       <c r="J158" s="8">
         <v>9158.7000000000007</v>
       </c>
       <c r="K158" s="8">
-        <v>2500.9</v>
+        <v>2500.6</v>
       </c>
       <c r="L158" s="8"/>
       <c r="M158" s="8"/>
@@ -19170,16 +19222,16 @@
         <v>2557.9</v>
       </c>
       <c r="H159" s="8">
-        <v>20104</v>
+        <v>20048.3</v>
       </c>
       <c r="I159" s="8">
-        <v>11000.1</v>
+        <v>10944.4</v>
       </c>
       <c r="J159" s="8">
         <v>9103.7999999999993</v>
       </c>
       <c r="K159" s="8">
-        <v>2419.4</v>
+        <v>2421.9</v>
       </c>
       <c r="L159" s="8"/>
       <c r="M159" s="8"/>
@@ -19203,16 +19255,16 @@
         <v>2605.3000000000002</v>
       </c>
       <c r="H160" s="8">
-        <v>20429.400000000001</v>
+        <v>20464</v>
       </c>
       <c r="I160" s="8">
-        <v>11343.5</v>
+        <v>11378.1</v>
       </c>
       <c r="J160" s="8">
         <v>9085.9</v>
       </c>
       <c r="K160" s="8">
-        <v>2389.8000000000002</v>
+        <v>2390</v>
       </c>
       <c r="L160" s="8"/>
       <c r="M160" s="8"/>
@@ -19236,16 +19288,16 @@
         <v>1936.8</v>
       </c>
       <c r="H161" s="8">
-        <v>20724.2</v>
+        <v>20694.8</v>
       </c>
       <c r="I161" s="8">
-        <v>11547.5</v>
+        <v>11518.1</v>
       </c>
       <c r="J161" s="8">
         <v>9176.7000000000007</v>
       </c>
       <c r="K161" s="8">
-        <v>2354.3000000000002</v>
+        <v>2358.5</v>
       </c>
       <c r="L161" s="8"/>
       <c r="M161" s="8"/>
@@ -19269,16 +19321,16 @@
         <v>2223.3000000000002</v>
       </c>
       <c r="H162" s="8">
-        <v>20113</v>
+        <v>20106</v>
       </c>
       <c r="I162" s="8">
-        <v>11282.8</v>
+        <v>11275.9</v>
       </c>
       <c r="J162" s="8">
         <v>8830.1</v>
       </c>
       <c r="K162" s="8">
-        <v>2507.9</v>
+        <v>2509.1</v>
       </c>
       <c r="L162" s="8"/>
       <c r="M162" s="8"/>
@@ -19302,16 +19354,16 @@
         <v>2590.8000000000002</v>
       </c>
       <c r="H163" s="8">
-        <v>21233.5</v>
+        <v>21249</v>
       </c>
       <c r="I163" s="8">
-        <v>11714</v>
+        <v>11729.5</v>
       </c>
       <c r="J163" s="8">
         <v>9519.6</v>
       </c>
       <c r="K163" s="8">
-        <v>2563.9</v>
+        <v>2569</v>
       </c>
       <c r="L163" s="8"/>
       <c r="M163" s="8"/>
@@ -19335,16 +19387,16 @@
         <v>2379.5</v>
       </c>
       <c r="H164" s="8">
-        <v>21906.6</v>
+        <v>21845.200000000001</v>
       </c>
       <c r="I164" s="8">
-        <v>11834.6</v>
+        <v>11773.2</v>
       </c>
       <c r="J164" s="8">
         <v>10072</v>
       </c>
       <c r="K164" s="8">
-        <v>2554.1</v>
+        <v>2555.1</v>
       </c>
       <c r="L164" s="8"/>
       <c r="M164" s="8"/>
@@ -19368,16 +19420,16 @@
         <v>2450.8000000000002</v>
       </c>
       <c r="H165" s="8">
-        <v>20283</v>
+        <v>20341.5</v>
       </c>
       <c r="I165" s="8">
-        <v>11107.7</v>
+        <v>11166.1</v>
       </c>
       <c r="J165" s="8">
         <v>9175.2999999999993</v>
       </c>
       <c r="K165" s="8">
-        <v>2404.9</v>
+        <v>2401.4</v>
       </c>
       <c r="L165" s="8"/>
       <c r="M165" s="8"/>
@@ -19401,16 +19453,16 @@
         <v>2610.6</v>
       </c>
       <c r="H166" s="8">
-        <v>21112.2</v>
+        <v>21125</v>
       </c>
       <c r="I166" s="8">
-        <v>11981.3</v>
+        <v>11994.2</v>
       </c>
       <c r="J166" s="8">
         <v>9130.9</v>
       </c>
       <c r="K166" s="8">
-        <v>2484.9</v>
+        <v>2480.4</v>
       </c>
       <c r="L166" s="8"/>
       <c r="M166" s="8"/>
@@ -19434,16 +19486,16 @@
         <v>2536.6999999999998</v>
       </c>
       <c r="H167" s="8">
-        <v>21149.1</v>
+        <v>21175.9</v>
       </c>
       <c r="I167" s="8">
-        <v>12309.1</v>
+        <v>12335.8</v>
       </c>
       <c r="J167" s="8">
         <v>8840.1</v>
       </c>
       <c r="K167" s="8">
-        <v>2436.8000000000002</v>
+        <v>2436.3000000000002</v>
       </c>
       <c r="L167" s="8"/>
       <c r="M167" s="8"/>
@@ -19467,16 +19519,16 @@
         <v>2308.5</v>
       </c>
       <c r="H168" s="8">
-        <v>21738.5</v>
+        <v>21707.8</v>
       </c>
       <c r="I168" s="8">
-        <v>13249</v>
+        <v>13218.3</v>
       </c>
       <c r="J168" s="8">
         <v>8489.5</v>
       </c>
       <c r="K168" s="8">
-        <v>2415</v>
+        <v>2410.6</v>
       </c>
       <c r="L168" s="8"/>
       <c r="M168" s="8"/>
@@ -19500,16 +19552,16 @@
         <v>2580.8000000000002</v>
       </c>
       <c r="H169" s="8">
-        <v>20930.7</v>
+        <v>20944.5</v>
       </c>
       <c r="I169" s="8">
-        <v>13552.2</v>
+        <v>13566.1</v>
       </c>
       <c r="J169" s="8">
         <v>7378.4</v>
       </c>
       <c r="K169" s="8">
-        <v>2450.6999999999998</v>
+        <v>2445.8000000000002</v>
       </c>
       <c r="L169" s="8"/>
       <c r="M169" s="8"/>
@@ -19533,16 +19585,16 @@
         <v>2451.9</v>
       </c>
       <c r="H170" s="8">
-        <v>20031.099999999999</v>
+        <v>20027.2</v>
       </c>
       <c r="I170" s="8">
-        <v>13149.8</v>
+        <v>13146</v>
       </c>
       <c r="J170" s="8">
         <v>6881.3</v>
       </c>
       <c r="K170" s="8">
-        <v>2332.1</v>
+        <v>2333.9</v>
       </c>
       <c r="L170" s="8"/>
       <c r="M170" s="8"/>
@@ -19566,16 +19618,16 @@
         <v>2561.8000000000002</v>
       </c>
       <c r="H171" s="8">
-        <v>19653.3</v>
+        <v>19638.599999999999</v>
       </c>
       <c r="I171" s="8">
-        <v>12998.3</v>
+        <v>12983.7</v>
       </c>
       <c r="J171" s="8">
         <v>6655</v>
       </c>
       <c r="K171" s="8">
-        <v>2347.8000000000002</v>
+        <v>2349.6999999999998</v>
       </c>
       <c r="L171" s="8"/>
       <c r="M171" s="8"/>
@@ -19599,16 +19651,16 @@
         <v>2676.5</v>
       </c>
       <c r="H172" s="8">
-        <v>19596.8</v>
+        <v>19590.7</v>
       </c>
       <c r="I172" s="8">
-        <v>12898.5</v>
+        <v>12892.4</v>
       </c>
       <c r="J172" s="8">
         <v>6698.3</v>
       </c>
       <c r="K172" s="8">
-        <v>2454.9</v>
+        <v>2463.4</v>
       </c>
       <c r="L172" s="8"/>
       <c r="M172" s="8"/>
@@ -19632,16 +19684,16 @@
         <v>1919.1</v>
       </c>
       <c r="H173" s="8">
-        <v>19123.2</v>
+        <v>19076.400000000001</v>
       </c>
       <c r="I173" s="8">
-        <v>12513.3</v>
+        <v>12466.4</v>
       </c>
       <c r="J173" s="8">
         <v>6610</v>
       </c>
       <c r="K173" s="8">
-        <v>2408.1999999999998</v>
+        <v>2412.4</v>
       </c>
       <c r="L173" s="8"/>
       <c r="M173" s="8"/>
@@ -19665,16 +19717,16 @@
         <v>2231.9</v>
       </c>
       <c r="H174" s="8">
-        <v>19297.099999999999</v>
+        <v>19334.7</v>
       </c>
       <c r="I174" s="8">
-        <v>12678.7</v>
+        <v>12716.3</v>
       </c>
       <c r="J174" s="8">
         <v>6618.4</v>
       </c>
       <c r="K174" s="8">
-        <v>2403.6999999999998</v>
+        <v>2400.9</v>
       </c>
       <c r="L174" s="8"/>
       <c r="M174" s="8"/>
@@ -19698,16 +19750,16 @@
         <v>2338.9</v>
       </c>
       <c r="H175" s="8">
-        <v>19107.900000000001</v>
+        <v>19101.3</v>
       </c>
       <c r="I175" s="8">
-        <v>12452.6</v>
+        <v>12446</v>
       </c>
       <c r="J175" s="8">
         <v>6655.3</v>
       </c>
       <c r="K175" s="8">
-        <v>2348.1</v>
+        <v>2352.1</v>
       </c>
       <c r="L175" s="8"/>
       <c r="M175" s="8"/>
@@ -19731,16 +19783,16 @@
         <v>2359</v>
       </c>
       <c r="H176" s="8">
-        <v>19676.8</v>
+        <v>19610.2</v>
       </c>
       <c r="I176" s="8">
-        <v>12773.4</v>
+        <v>12706.8</v>
       </c>
       <c r="J176" s="8">
         <v>6903.4</v>
       </c>
       <c r="K176" s="8">
-        <v>2482.6</v>
+        <v>2482.5</v>
       </c>
       <c r="L176" s="8"/>
       <c r="M176" s="8"/>
@@ -19764,16 +19816,16 @@
         <v>2560.1</v>
       </c>
       <c r="H177" s="8">
-        <v>19931.7</v>
+        <v>20039.2</v>
       </c>
       <c r="I177" s="8">
-        <v>12726.1</v>
+        <v>12833.6</v>
       </c>
       <c r="J177" s="8">
         <v>7205.6</v>
       </c>
       <c r="K177" s="8">
-        <v>2436.3000000000002</v>
+        <v>2430.6</v>
       </c>
       <c r="L177" s="8"/>
       <c r="M177" s="8"/>
@@ -19797,16 +19849,16 @@
         <v>2524</v>
       </c>
       <c r="H178" s="8">
-        <v>20229.2</v>
+        <v>20215</v>
       </c>
       <c r="I178" s="8">
-        <v>12717.4</v>
+        <v>12703.3</v>
       </c>
       <c r="J178" s="8">
         <v>7511.8</v>
       </c>
       <c r="K178" s="8">
-        <v>2421.1</v>
+        <v>2420.1</v>
       </c>
       <c r="L178" s="8"/>
       <c r="M178" s="8"/>
@@ -19830,16 +19882,16 @@
         <v>2278.1999999999998</v>
       </c>
       <c r="H179" s="8">
-        <v>20096</v>
+        <v>20080.7</v>
       </c>
       <c r="I179" s="8">
-        <v>12444.3</v>
+        <v>12429</v>
       </c>
       <c r="J179" s="8">
         <v>7651.7</v>
       </c>
       <c r="K179" s="8">
-        <v>2351</v>
+        <v>2351.1</v>
       </c>
       <c r="L179" s="8"/>
       <c r="M179" s="8"/>
@@ -19863,16 +19915,16 @@
         <v>2373.5</v>
       </c>
       <c r="H180" s="8">
-        <v>19866.3</v>
+        <v>19887.2</v>
       </c>
       <c r="I180" s="8">
-        <v>12308.5</v>
+        <v>12329.4</v>
       </c>
       <c r="J180" s="8">
         <v>7557.8</v>
       </c>
       <c r="K180" s="8">
-        <v>2277.4</v>
+        <v>2268.8000000000002</v>
       </c>
       <c r="L180" s="8"/>
       <c r="M180" s="8"/>
@@ -19896,16 +19948,16 @@
         <v>2405.6999999999998</v>
       </c>
       <c r="H181" s="8">
-        <v>20771.900000000001</v>
+        <v>20777.5</v>
       </c>
       <c r="I181" s="8">
-        <v>12461.3</v>
+        <v>12466.9</v>
       </c>
       <c r="J181" s="8">
         <v>8310.6</v>
       </c>
       <c r="K181" s="8">
-        <v>2338.9</v>
+        <v>2342.4</v>
       </c>
       <c r="L181" s="8"/>
       <c r="M181" s="8"/>
@@ -19929,16 +19981,16 @@
         <v>2419.6999999999998</v>
       </c>
       <c r="H182" s="8">
-        <v>21178.9</v>
+        <v>21195.5</v>
       </c>
       <c r="I182" s="8">
-        <v>12597</v>
+        <v>12613.6</v>
       </c>
       <c r="J182" s="8">
         <v>8581.9</v>
       </c>
       <c r="K182" s="8">
-        <v>2378.9</v>
+        <v>2375.8000000000002</v>
       </c>
       <c r="L182" s="8"/>
       <c r="M182" s="8"/>
@@ -19962,16 +20014,16 @@
         <v>2713</v>
       </c>
       <c r="H183" s="8">
-        <v>21505.5</v>
+        <v>21482.3</v>
       </c>
       <c r="I183" s="8">
-        <v>12706</v>
+        <v>12682.8</v>
       </c>
       <c r="J183" s="8">
         <v>8799.5</v>
       </c>
       <c r="K183" s="8">
-        <v>2347</v>
+        <v>2345.8000000000002</v>
       </c>
       <c r="L183" s="8"/>
       <c r="M183" s="8"/>
@@ -19995,16 +20047,16 @@
         <v>2490.6</v>
       </c>
       <c r="H184" s="8">
-        <v>21982</v>
+        <v>22009.599999999999</v>
       </c>
       <c r="I184" s="8">
-        <v>13058.2</v>
+        <v>13085.8</v>
       </c>
       <c r="J184" s="8">
         <v>8923.9</v>
       </c>
       <c r="K184" s="8">
-        <v>2373.1</v>
+        <v>2384</v>
       </c>
       <c r="L184" s="8"/>
       <c r="M184" s="8"/>
@@ -20028,16 +20080,16 @@
         <v>1955.4</v>
       </c>
       <c r="H185" s="8">
-        <v>22206.400000000001</v>
+        <v>22119.4</v>
       </c>
       <c r="I185" s="8">
-        <v>13204.1</v>
+        <v>13117.1</v>
       </c>
       <c r="J185" s="8">
         <v>9002.4</v>
       </c>
       <c r="K185" s="8">
-        <v>2355.8000000000002</v>
+        <v>2356.6999999999998</v>
       </c>
       <c r="L185" s="8"/>
       <c r="M185" s="8"/>
@@ -20061,16 +20113,16 @@
         <v>2061</v>
       </c>
       <c r="H186" s="8">
-        <v>21704.5</v>
+        <v>21675.5</v>
       </c>
       <c r="I186" s="8">
-        <v>13161.1</v>
+        <v>13132.1</v>
       </c>
       <c r="J186" s="8">
         <v>8543.4</v>
       </c>
       <c r="K186" s="8">
-        <v>2319.3000000000002</v>
+        <v>2318.5</v>
       </c>
       <c r="L186" s="8"/>
       <c r="M186" s="8"/>
@@ -20094,16 +20146,16 @@
         <v>2543.4</v>
       </c>
       <c r="H187" s="8">
-        <v>22670.5</v>
+        <v>22610.9</v>
       </c>
       <c r="I187" s="8">
-        <v>13770</v>
+        <v>13710.4</v>
       </c>
       <c r="J187" s="8">
         <v>8900.5</v>
       </c>
       <c r="K187" s="8">
-        <v>2426.3000000000002</v>
+        <v>2426.1</v>
       </c>
       <c r="L187" s="8"/>
       <c r="M187" s="8"/>
@@ -20127,16 +20179,16 @@
         <v>2099.9</v>
       </c>
       <c r="H188" s="8">
-        <v>22241.4</v>
+        <v>22564.1</v>
       </c>
       <c r="I188" s="8">
-        <v>13546.8</v>
+        <v>13869.5</v>
       </c>
       <c r="J188" s="8">
         <v>8694.6</v>
       </c>
       <c r="K188" s="8">
-        <v>2451.3000000000002</v>
+        <v>2473.3000000000002</v>
       </c>
       <c r="L188" s="8"/>
       <c r="M188" s="8"/>
@@ -20160,16 +20212,16 @@
         <v>2713.9</v>
       </c>
       <c r="H189" s="8">
-        <v>22430.1</v>
+        <v>22254.7</v>
       </c>
       <c r="I189" s="8">
-        <v>14044.2</v>
+        <v>13868.9</v>
       </c>
       <c r="J189" s="8">
         <v>8385.9</v>
       </c>
       <c r="K189" s="8">
-        <v>2481.8000000000002</v>
+        <v>2458.1999999999998</v>
       </c>
       <c r="L189" s="8"/>
       <c r="M189" s="8"/>
@@ -20193,16 +20245,16 @@
         <v>2752.7</v>
       </c>
       <c r="H190" s="8">
-        <v>22120.2</v>
+        <v>22131.7</v>
       </c>
       <c r="I190" s="8">
-        <v>13970</v>
+        <v>13981.5</v>
       </c>
       <c r="J190" s="8">
         <v>8150.2</v>
       </c>
       <c r="K190" s="8">
-        <v>2665.2</v>
+        <v>2667.1</v>
       </c>
       <c r="L190" s="8"/>
       <c r="M190" s="8"/>
@@ -20226,16 +20278,16 @@
         <v>2934.5</v>
       </c>
       <c r="H191" s="8">
-        <v>22144.5</v>
+        <v>22149.1</v>
       </c>
       <c r="I191" s="8">
-        <v>14250.8</v>
+        <v>14255.5</v>
       </c>
       <c r="J191" s="8">
         <v>7893.6</v>
       </c>
       <c r="K191" s="8">
-        <v>3028.8</v>
+        <v>3022.5</v>
       </c>
       <c r="L191" s="8"/>
       <c r="M191" s="8"/>
@@ -20259,16 +20311,16 @@
         <v>3341.9</v>
       </c>
       <c r="H192" s="8">
-        <v>22487.1</v>
+        <v>22401.1</v>
       </c>
       <c r="I192" s="8">
-        <v>14554.3</v>
+        <v>14468.4</v>
       </c>
       <c r="J192" s="8">
         <v>7932.7</v>
       </c>
       <c r="K192" s="8">
-        <v>3226.1</v>
+        <v>3222.4</v>
       </c>
       <c r="L192" s="8"/>
       <c r="M192" s="8"/>
@@ -20292,16 +20344,16 @@
         <v>3089.1</v>
       </c>
       <c r="H193" s="8">
-        <v>22068.400000000001</v>
+        <v>22103.200000000001</v>
       </c>
       <c r="I193" s="8">
-        <v>14281.4</v>
+        <v>14316.2</v>
       </c>
       <c r="J193" s="8">
         <v>7787</v>
       </c>
       <c r="K193" s="8">
-        <v>3071.7</v>
+        <v>3070.3</v>
       </c>
       <c r="L193" s="8"/>
       <c r="M193" s="8"/>
@@ -20325,16 +20377,16 @@
         <v>3298.4</v>
       </c>
       <c r="H194" s="8">
-        <v>21637.7</v>
+        <v>21643.599999999999</v>
       </c>
       <c r="I194" s="8">
-        <v>14120.5</v>
+        <v>14126.5</v>
       </c>
       <c r="J194" s="8">
         <v>7517.1</v>
       </c>
       <c r="K194" s="8">
-        <v>3133.8</v>
+        <v>3128.3</v>
       </c>
       <c r="L194" s="8"/>
       <c r="M194" s="8"/>
@@ -20358,16 +20410,16 @@
         <v>3676.9</v>
       </c>
       <c r="H195" s="8">
-        <v>21532</v>
+        <v>21488.400000000001</v>
       </c>
       <c r="I195" s="8">
-        <v>14151.2</v>
+        <v>14107.6</v>
       </c>
       <c r="J195" s="8">
         <v>7380.9</v>
       </c>
       <c r="K195" s="8">
-        <v>3217.8</v>
+        <v>3223.7</v>
       </c>
       <c r="L195" s="8"/>
       <c r="M195" s="8"/>
@@ -20391,16 +20443,16 @@
         <v>3298.4</v>
       </c>
       <c r="H196" s="8">
-        <v>21137.7</v>
+        <v>21184.6</v>
       </c>
       <c r="I196" s="8">
-        <v>13985.8</v>
+        <v>14032.7</v>
       </c>
       <c r="J196" s="8">
         <v>7151.9</v>
       </c>
       <c r="K196" s="8">
-        <v>3227.2</v>
+        <v>3242.6</v>
       </c>
       <c r="L196" s="8"/>
       <c r="M196" s="8"/>
@@ -20424,16 +20476,16 @@
         <v>2776.5</v>
       </c>
       <c r="H197" s="8">
-        <v>21067</v>
+        <v>21009.1</v>
       </c>
       <c r="I197" s="8">
-        <v>14139.1</v>
+        <v>14081.2</v>
       </c>
       <c r="J197" s="8">
         <v>6927.9</v>
       </c>
       <c r="K197" s="8">
-        <v>3198.5</v>
+        <v>3192.5</v>
       </c>
       <c r="L197" s="8"/>
       <c r="M197" s="8"/>
@@ -20457,16 +20509,16 @@
         <v>2911.4</v>
       </c>
       <c r="H198" s="8">
-        <v>21055.599999999999</v>
+        <v>21013.8</v>
       </c>
       <c r="I198" s="8">
-        <v>14118.9</v>
+        <v>14077.1</v>
       </c>
       <c r="J198" s="8">
         <v>6936.7</v>
       </c>
       <c r="K198" s="8">
-        <v>3275.5</v>
+        <v>3273.7</v>
       </c>
       <c r="L198" s="8"/>
       <c r="M198" s="8"/>
@@ -20490,16 +20542,16 @@
         <v>3155.2</v>
       </c>
       <c r="H199" s="8">
-        <v>20431.7</v>
+        <v>20451</v>
       </c>
       <c r="I199" s="8">
-        <v>13826</v>
+        <v>13845.3</v>
       </c>
       <c r="J199" s="8">
         <v>6605.7</v>
       </c>
       <c r="K199" s="8">
-        <v>3225.1</v>
+        <v>3235.1</v>
       </c>
       <c r="L199" s="8"/>
       <c r="M199" s="8"/>
@@ -20523,16 +20575,16 @@
         <v>2966.6</v>
       </c>
       <c r="H200" s="8">
-        <v>20311.3</v>
+        <v>20241.400000000001</v>
       </c>
       <c r="I200" s="8">
-        <v>13872.4</v>
+        <v>13802.4</v>
       </c>
       <c r="J200" s="8">
         <v>6438.9</v>
       </c>
       <c r="K200" s="8">
-        <v>3231.6</v>
+        <v>3235.3</v>
       </c>
       <c r="L200" s="8"/>
       <c r="M200" s="8"/>
@@ -20556,16 +20608,16 @@
         <v>3591.2</v>
       </c>
       <c r="H201" s="8">
-        <v>20737.3</v>
+        <v>20835.8</v>
       </c>
       <c r="I201" s="8">
-        <v>14213.8</v>
+        <v>14312.3</v>
       </c>
       <c r="J201" s="8">
         <v>6523.5</v>
       </c>
       <c r="K201" s="8">
-        <v>3315.2</v>
+        <v>3310.8</v>
       </c>
       <c r="L201" s="8"/>
       <c r="M201" s="8"/>
@@ -20589,16 +20641,16 @@
         <v>3380.3</v>
       </c>
       <c r="H202" s="8">
-        <v>20300.099999999999</v>
+        <v>20352.3</v>
       </c>
       <c r="I202" s="8">
-        <v>13979.2</v>
+        <v>14031.5</v>
       </c>
       <c r="J202" s="8">
         <v>6320.9</v>
       </c>
       <c r="K202" s="8">
-        <v>3363.9</v>
+        <v>3361.4</v>
       </c>
       <c r="L202" s="8"/>
       <c r="M202" s="8"/>
@@ -20622,16 +20674,16 @@
         <v>3356.2</v>
       </c>
       <c r="H203" s="8">
-        <v>20271.7</v>
+        <v>20263.8</v>
       </c>
       <c r="I203" s="8">
-        <v>13965.4</v>
+        <v>13957.5</v>
       </c>
       <c r="J203" s="8">
         <v>6306.2</v>
       </c>
       <c r="K203" s="8">
-        <v>3348.9</v>
+        <v>3336.8</v>
       </c>
       <c r="L203" s="8"/>
       <c r="M203" s="8"/>
@@ -20655,16 +20707,16 @@
         <v>3319.8</v>
       </c>
       <c r="H204" s="8">
-        <v>19395</v>
+        <v>19418.5</v>
       </c>
       <c r="I204" s="8">
-        <v>13363.4</v>
+        <v>13386.9</v>
       </c>
       <c r="J204" s="8">
         <v>6031.6</v>
       </c>
       <c r="K204" s="8">
-        <v>3235.5</v>
+        <v>3232.9</v>
       </c>
       <c r="L204" s="8"/>
       <c r="M204" s="8"/>
@@ -20688,16 +20740,16 @@
         <v>2998.9</v>
       </c>
       <c r="H205" s="8">
-        <v>18727.2</v>
+        <v>18649.900000000001</v>
       </c>
       <c r="I205" s="8">
-        <v>12893.1</v>
+        <v>12815.9</v>
       </c>
       <c r="J205" s="8">
         <v>5834</v>
       </c>
       <c r="K205" s="8">
-        <v>3109.2</v>
+        <v>3111.3</v>
       </c>
       <c r="L205" s="8"/>
       <c r="M205" s="8"/>
@@ -20721,16 +20773,16 @@
         <v>3474.1</v>
       </c>
       <c r="H206" s="8">
-        <v>18792.8</v>
+        <v>18868.5</v>
       </c>
       <c r="I206" s="8">
-        <v>13148.5</v>
+        <v>13224.2</v>
       </c>
       <c r="J206" s="8">
         <v>5644.2</v>
       </c>
       <c r="K206" s="8">
-        <v>3174.1</v>
+        <v>3158.8</v>
       </c>
       <c r="L206" s="8"/>
       <c r="M206" s="8"/>
@@ -20754,16 +20806,16 @@
         <v>3570.6</v>
       </c>
       <c r="H207" s="8">
-        <v>17817.900000000001</v>
+        <v>17805.3</v>
       </c>
       <c r="I207" s="8">
-        <v>12479.8</v>
+        <v>12467.2</v>
       </c>
       <c r="J207" s="8">
         <v>5338.1</v>
       </c>
       <c r="K207" s="8">
-        <v>3132.2</v>
+        <v>3144.3</v>
       </c>
       <c r="L207" s="8"/>
       <c r="M207" s="8"/>
@@ -20787,16 +20839,16 @@
         <v>2905.1</v>
       </c>
       <c r="H208" s="8">
-        <v>16911.400000000001</v>
+        <v>16980.7</v>
       </c>
       <c r="I208" s="8">
-        <v>11787.7</v>
+        <v>11856.9</v>
       </c>
       <c r="J208" s="8">
         <v>5123.8</v>
       </c>
       <c r="K208" s="8">
-        <v>2805.5</v>
+        <v>2817.6</v>
       </c>
       <c r="L208" s="8"/>
       <c r="M208" s="8"/>
@@ -20820,16 +20872,16 @@
         <v>2444.6999999999998</v>
       </c>
       <c r="H209" s="8">
-        <v>16609.3</v>
+        <v>16418.599999999999</v>
       </c>
       <c r="I209" s="8">
-        <v>11690.7</v>
+        <v>11500</v>
       </c>
       <c r="J209" s="8">
         <v>4918.6000000000004</v>
       </c>
       <c r="K209" s="8">
-        <v>2831.3</v>
+        <v>2829.9</v>
       </c>
       <c r="L209" s="8"/>
       <c r="M209" s="8"/>
@@ -20853,16 +20905,16 @@
         <v>2651.8</v>
       </c>
       <c r="H210" s="8">
-        <v>16939.599999999999</v>
+        <v>16879.7</v>
       </c>
       <c r="I210" s="8">
-        <v>12045.7</v>
+        <v>11985.8</v>
       </c>
       <c r="J210" s="8">
         <v>4893.8999999999996</v>
       </c>
       <c r="K210" s="8">
-        <v>2981.9</v>
+        <v>2979.1</v>
       </c>
       <c r="L210" s="8"/>
       <c r="M210" s="8"/>
@@ -20886,16 +20938,16 @@
         <v>2917.6</v>
       </c>
       <c r="H211" s="8">
-        <v>16423.8</v>
+        <v>16417.900000000001</v>
       </c>
       <c r="I211" s="8">
-        <v>11597.7</v>
+        <v>11591.8</v>
       </c>
       <c r="J211" s="8">
         <v>4826.1000000000004</v>
       </c>
       <c r="K211" s="8">
-        <v>2985</v>
+        <v>2994.6</v>
       </c>
       <c r="L211" s="8"/>
       <c r="M211" s="8"/>
@@ -20919,16 +20971,16 @@
         <v>2851.7</v>
       </c>
       <c r="H212" s="8">
-        <v>16623.3</v>
+        <v>16591.5</v>
       </c>
       <c r="I212" s="8">
-        <v>11838.1</v>
+        <v>11806.4</v>
       </c>
       <c r="J212" s="8">
         <v>4785.1000000000004</v>
       </c>
       <c r="K212" s="8">
-        <v>3066.6</v>
+        <v>3068.4</v>
       </c>
       <c r="L212" s="8"/>
       <c r="M212" s="8"/>
@@ -20952,16 +21004,16 @@
         <v>3366.3</v>
       </c>
       <c r="H213" s="8">
-        <v>16294.4</v>
+        <v>16470.8</v>
       </c>
       <c r="I213" s="8">
-        <v>11557.6</v>
+        <v>11734</v>
       </c>
       <c r="J213" s="8">
         <v>4736.8</v>
       </c>
       <c r="K213" s="8">
-        <v>3146.6</v>
+        <v>3147.4</v>
       </c>
       <c r="L213" s="8"/>
       <c r="M213" s="8"/>
@@ -20985,16 +21037,16 @@
         <v>3110.5</v>
       </c>
       <c r="H214" s="8">
-        <v>16672.3</v>
+        <v>16630</v>
       </c>
       <c r="I214" s="8">
-        <v>11907.9</v>
+        <v>11865.6</v>
       </c>
       <c r="J214" s="8">
         <v>4764.5</v>
       </c>
       <c r="K214" s="8">
-        <v>3235.7</v>
+        <v>3234.2</v>
       </c>
       <c r="L214" s="8"/>
       <c r="M214" s="8"/>
@@ -21024,16 +21076,16 @@
         <v>270</v>
       </c>
       <c r="H215" s="8">
-        <v>16996.099999999999</v>
+        <v>17053.2</v>
       </c>
       <c r="I215" s="8">
-        <v>12146.9</v>
+        <v>12204</v>
       </c>
       <c r="J215" s="8">
         <v>4849.2</v>
       </c>
       <c r="K215" s="8">
-        <v>3430.5</v>
+        <v>3409.1</v>
       </c>
       <c r="L215" s="8"/>
       <c r="M215" s="8"/>
@@ -21063,16 +21115,16 @@
         <v>269.2</v>
       </c>
       <c r="H216" s="8">
-        <v>17896.5</v>
+        <v>17885</v>
       </c>
       <c r="I216" s="8">
-        <v>12659.3</v>
+        <v>12647.8</v>
       </c>
       <c r="J216" s="8">
         <v>5237.1000000000004</v>
       </c>
       <c r="K216" s="8">
-        <v>3662.2</v>
+        <v>3668.6</v>
       </c>
       <c r="L216" s="8"/>
       <c r="M216" s="8"/>
@@ -21102,16 +21154,16 @@
         <v>236</v>
       </c>
       <c r="H217" s="8">
-        <v>18020.900000000001</v>
+        <v>18083.900000000001</v>
       </c>
       <c r="I217" s="8">
-        <v>12976.1</v>
+        <v>13039.1</v>
       </c>
       <c r="J217" s="8">
         <v>5044.8999999999996</v>
       </c>
       <c r="K217" s="8">
-        <v>3657.9</v>
+        <v>3649.9</v>
       </c>
       <c r="L217" s="8"/>
       <c r="M217" s="8"/>
@@ -21141,16 +21193,16 @@
         <v>267.2</v>
       </c>
       <c r="H218" s="8">
-        <v>18593.599999999999</v>
+        <v>18533.400000000001</v>
       </c>
       <c r="I218" s="8">
-        <v>13459.8</v>
+        <v>13399.5</v>
       </c>
       <c r="J218" s="8">
         <v>5133.8</v>
       </c>
       <c r="K218" s="8">
-        <v>3704.2</v>
+        <v>3689.7</v>
       </c>
       <c r="L218" s="8"/>
       <c r="M218" s="8"/>
@@ -21180,16 +21232,16 @@
         <v>270.89999999999998</v>
       </c>
       <c r="H219" s="8">
-        <v>19303.7</v>
+        <v>19285.099999999999</v>
       </c>
       <c r="I219" s="8">
-        <v>13951</v>
+        <v>13932.4</v>
       </c>
       <c r="J219" s="8">
         <v>5352.7</v>
       </c>
       <c r="K219" s="8">
-        <v>3874.5</v>
+        <v>3894.8</v>
       </c>
       <c r="L219" s="8"/>
       <c r="M219" s="8"/>
@@ -21219,16 +21271,16 @@
         <v>256.89999999999998</v>
       </c>
       <c r="H220" s="8">
-        <v>19572.5</v>
+        <v>19627.599999999999</v>
       </c>
       <c r="I220" s="8">
-        <v>14186.8</v>
+        <v>14241.8</v>
       </c>
       <c r="J220" s="8">
         <v>5385.7</v>
       </c>
       <c r="K220" s="8">
-        <v>3970.1</v>
+        <v>3982.3</v>
       </c>
       <c r="L220" s="8"/>
       <c r="M220" s="8"/>
@@ -21258,16 +21310,16 @@
         <v>177.8</v>
       </c>
       <c r="H221" s="8">
-        <v>19515</v>
+        <v>19389.8</v>
       </c>
       <c r="I221" s="8">
-        <v>14206.7</v>
+        <v>14081.5</v>
       </c>
       <c r="J221" s="8">
         <v>5308.3</v>
       </c>
       <c r="K221" s="8">
-        <v>4046.2</v>
+        <v>4049.3</v>
       </c>
       <c r="L221" s="8"/>
       <c r="M221" s="8"/>
@@ -21297,16 +21349,16 @@
         <v>163.69999999999999</v>
       </c>
       <c r="H222" s="8">
-        <v>19000</v>
+        <v>18859.900000000001</v>
       </c>
       <c r="I222" s="8">
-        <v>13788.4</v>
+        <v>13648.3</v>
       </c>
       <c r="J222" s="8">
         <v>5211.6000000000004</v>
       </c>
       <c r="K222" s="8">
-        <v>4018.5</v>
+        <v>4024</v>
       </c>
       <c r="L222" s="8"/>
       <c r="M222" s="8"/>
@@ -21336,16 +21388,16 @@
         <v>196.4</v>
       </c>
       <c r="H223" s="8">
-        <v>19216.900000000001</v>
+        <v>19210.5</v>
       </c>
       <c r="I223" s="8">
-        <v>14182.8</v>
+        <v>14176.4</v>
       </c>
       <c r="J223" s="8">
         <v>5034.1000000000004</v>
       </c>
       <c r="K223" s="8">
-        <v>4162.5</v>
+        <v>4152.5</v>
       </c>
       <c r="L223" s="8"/>
       <c r="M223" s="8"/>
@@ -21375,16 +21427,16 @@
         <v>199</v>
       </c>
       <c r="H224" s="8">
-        <v>18445.099999999999</v>
+        <v>18384.099999999999</v>
       </c>
       <c r="I224" s="8">
-        <v>13506.1</v>
+        <v>13445.1</v>
       </c>
       <c r="J224" s="8">
         <v>4938.8999999999996</v>
       </c>
       <c r="K224" s="8">
-        <v>4142.6000000000004</v>
+        <v>4146.7</v>
       </c>
       <c r="L224" s="8"/>
       <c r="M224" s="8"/>
@@ -21414,16 +21466,16 @@
         <v>196</v>
       </c>
       <c r="H225" s="8">
-        <v>16360.8</v>
+        <v>16490.099999999999</v>
       </c>
       <c r="I225" s="8">
-        <v>12180.5</v>
+        <v>12309.8</v>
       </c>
       <c r="J225" s="8">
         <v>4180.3</v>
       </c>
       <c r="K225" s="8">
-        <v>3736.2</v>
+        <v>3756.9</v>
       </c>
       <c r="L225" s="8"/>
       <c r="M225" s="8"/>
@@ -21453,16 +21505,16 @@
         <v>232.9</v>
       </c>
       <c r="H226" s="8">
-        <v>17383.900000000001</v>
+        <v>17486.8</v>
       </c>
       <c r="I226" s="8">
-        <v>12928.9</v>
+        <v>13031.8</v>
       </c>
       <c r="J226" s="8">
         <v>4455</v>
       </c>
       <c r="K226" s="8">
-        <v>3949</v>
+        <v>3926.9</v>
       </c>
       <c r="L226" s="8"/>
       <c r="M226" s="8"/>
@@ -21492,16 +21544,16 @@
         <v>245.1</v>
       </c>
       <c r="H227" s="8">
-        <v>19005.8</v>
+        <v>19064.599999999999</v>
       </c>
       <c r="I227" s="8">
-        <v>14371</v>
+        <v>14429.8</v>
       </c>
       <c r="J227" s="8">
         <v>4634.8</v>
       </c>
       <c r="K227" s="8">
-        <v>4408.3</v>
+        <v>4395.1000000000004</v>
       </c>
       <c r="L227" s="8"/>
       <c r="M227" s="8"/>
@@ -21531,16 +21583,16 @@
         <v>251.1</v>
       </c>
       <c r="H228" s="8">
-        <v>21306.3</v>
+        <v>21346.5</v>
       </c>
       <c r="I228" s="8">
-        <v>16356.7</v>
+        <v>16396.900000000001</v>
       </c>
       <c r="J228" s="8">
         <v>4949.6000000000004</v>
       </c>
       <c r="K228" s="8">
-        <v>5085.8</v>
+        <v>5077.8999999999996</v>
       </c>
       <c r="L228" s="8"/>
       <c r="M228" s="8"/>
@@ -21570,16 +21622,16 @@
         <v>297.89999999999998</v>
       </c>
       <c r="H229" s="8">
-        <v>22586.400000000001</v>
+        <v>22514</v>
       </c>
       <c r="I229" s="8">
-        <v>17317.599999999999</v>
+        <v>17245.2</v>
       </c>
       <c r="J229" s="8">
         <v>5268.8</v>
       </c>
       <c r="K229" s="8">
-        <v>5401.5</v>
+        <v>5393.3</v>
       </c>
       <c r="L229" s="8"/>
       <c r="M229" s="8"/>
@@ -21609,16 +21661,16 @@
         <v>280.5</v>
       </c>
       <c r="H230" s="8">
-        <v>22975.7</v>
+        <v>23002.799999999999</v>
       </c>
       <c r="I230" s="8">
-        <v>17665.599999999999</v>
+        <v>17692.7</v>
       </c>
       <c r="J230" s="8">
         <v>5310.1</v>
       </c>
       <c r="K230" s="8">
-        <v>5549.6</v>
+        <v>5547.5</v>
       </c>
       <c r="L230" s="8"/>
       <c r="M230" s="8"/>
@@ -21648,16 +21700,16 @@
         <v>309.2</v>
       </c>
       <c r="H231" s="8">
-        <v>23981.9</v>
+        <v>23991.4</v>
       </c>
       <c r="I231" s="8">
-        <v>18467.8</v>
+        <v>18477.3</v>
       </c>
       <c r="J231" s="8">
         <v>5514.1</v>
       </c>
       <c r="K231" s="8">
-        <v>5696.4</v>
+        <v>5699.7</v>
       </c>
       <c r="L231" s="8"/>
       <c r="M231" s="8"/>
@@ -21687,16 +21739,16 @@
         <v>351.8</v>
       </c>
       <c r="H232" s="8">
-        <v>25603.1</v>
+        <v>25533.1</v>
       </c>
       <c r="I232" s="8">
-        <v>19615.7</v>
+        <v>19545.7</v>
       </c>
       <c r="J232" s="8">
         <v>5987.4</v>
       </c>
       <c r="K232" s="8">
-        <v>6342.6</v>
+        <v>6364.7</v>
       </c>
       <c r="L232" s="8"/>
       <c r="M232" s="8"/>
@@ -21726,16 +21778,16 @@
         <v>307.39999999999998</v>
       </c>
       <c r="H233" s="8">
-        <v>27850.799999999999</v>
+        <v>27621</v>
       </c>
       <c r="I233" s="8">
-        <v>21405.1</v>
+        <v>21175.200000000001</v>
       </c>
       <c r="J233" s="8">
         <v>6445.8</v>
       </c>
       <c r="K233" s="8">
-        <v>6937</v>
+        <v>6989.9</v>
       </c>
       <c r="L233" s="8"/>
       <c r="M233" s="8"/>
@@ -21765,16 +21817,16 @@
         <v>308.10000000000002</v>
       </c>
       <c r="H234" s="8">
-        <v>28367.5</v>
+        <v>28184</v>
       </c>
       <c r="I234" s="8">
-        <v>21478.799999999999</v>
+        <v>21295.3</v>
       </c>
       <c r="J234" s="8">
         <v>6888.7</v>
       </c>
       <c r="K234" s="8">
-        <v>6740.9</v>
+        <v>6730.6</v>
       </c>
       <c r="L234" s="8"/>
       <c r="M234" s="8"/>
@@ -21804,16 +21856,16 @@
         <v>440.5</v>
       </c>
       <c r="H235" s="8">
-        <v>29751</v>
+        <v>29751.4</v>
       </c>
       <c r="I235" s="8">
-        <v>21980.7</v>
+        <v>21981.1</v>
       </c>
       <c r="J235" s="8">
         <v>7770.3</v>
       </c>
       <c r="K235" s="8">
-        <v>6705.9</v>
+        <v>6686.4</v>
       </c>
       <c r="L235" s="8"/>
       <c r="M235" s="8"/>
@@ -21843,16 +21895,16 @@
         <v>439.1</v>
       </c>
       <c r="H236" s="8">
-        <v>30911</v>
+        <v>31016.5</v>
       </c>
       <c r="I236" s="8">
-        <v>22828.3</v>
+        <v>22933.8</v>
       </c>
       <c r="J236" s="8">
         <v>8082.7</v>
       </c>
       <c r="K236" s="8">
-        <v>6721.8</v>
+        <v>6746.5</v>
       </c>
       <c r="L236" s="8"/>
       <c r="M236" s="8"/>
@@ -21882,16 +21934,16 @@
         <v>513.1</v>
       </c>
       <c r="H237" s="8">
-        <v>32218</v>
+        <v>32511.4</v>
       </c>
       <c r="I237" s="8">
-        <v>23174.1</v>
+        <v>23467.5</v>
       </c>
       <c r="J237" s="8">
         <v>9043.9</v>
       </c>
       <c r="K237" s="8">
-        <v>6777.4</v>
+        <v>6782.3</v>
       </c>
       <c r="L237" s="8"/>
       <c r="M237" s="8"/>
@@ -21921,16 +21973,16 @@
         <v>550.5</v>
       </c>
       <c r="H238" s="8">
-        <v>31552.3</v>
+        <v>31597.8</v>
       </c>
       <c r="I238" s="8">
-        <v>22618.5</v>
+        <v>22664</v>
       </c>
       <c r="J238" s="8">
         <v>8933.7999999999993</v>
       </c>
       <c r="K238" s="8">
-        <v>6335.1</v>
+        <v>6317.1</v>
       </c>
       <c r="L238" s="8"/>
       <c r="M238" s="8"/>
@@ -21960,16 +22012,16 @@
         <v>517.6</v>
       </c>
       <c r="H239" s="8">
-        <v>31913.9</v>
+        <v>31967.4</v>
       </c>
       <c r="I239" s="8">
-        <v>22612.2</v>
+        <v>22665.7</v>
       </c>
       <c r="J239" s="8">
         <v>9301.7000000000007</v>
       </c>
       <c r="K239" s="8">
-        <v>6031.2</v>
+        <v>6026.6</v>
       </c>
       <c r="L239" s="8"/>
       <c r="M239" s="8"/>
@@ -21999,16 +22051,16 @@
         <v>524.1</v>
       </c>
       <c r="H240" s="8">
-        <v>31256</v>
+        <v>31305</v>
       </c>
       <c r="I240" s="8">
-        <v>21794.799999999999</v>
+        <v>21843.9</v>
       </c>
       <c r="J240" s="8">
         <v>9461.1</v>
       </c>
       <c r="K240" s="8">
-        <v>5695.1</v>
+        <v>5665.4</v>
       </c>
       <c r="L240" s="8"/>
       <c r="M240" s="8"/>
@@ -22038,16 +22090,16 @@
         <v>474.2</v>
       </c>
       <c r="H241" s="8">
-        <v>30902.1</v>
+        <v>30826.1</v>
       </c>
       <c r="I241" s="8">
-        <v>21071.7</v>
+        <v>20995.7</v>
       </c>
       <c r="J241" s="8">
         <v>9830.4</v>
       </c>
       <c r="K241" s="8">
-        <v>5499.3</v>
+        <v>5474</v>
       </c>
       <c r="L241" s="8"/>
       <c r="M241" s="8"/>
@@ -22077,16 +22129,16 @@
         <v>491.1</v>
       </c>
       <c r="H242" s="8">
-        <v>30422.3</v>
+        <v>30450.9</v>
       </c>
       <c r="I242" s="8">
-        <v>20265.7</v>
+        <v>20294.2</v>
       </c>
       <c r="J242" s="8">
         <v>10156.6</v>
       </c>
       <c r="K242" s="8">
-        <v>5270.8</v>
+        <v>5288.8</v>
       </c>
       <c r="L242" s="8"/>
       <c r="M242" s="8"/>
@@ -22116,16 +22168,16 @@
         <v>605</v>
       </c>
       <c r="H243" s="8">
-        <v>32160.7</v>
+        <v>32129.8</v>
       </c>
       <c r="I243" s="8">
-        <v>21592.400000000001</v>
+        <v>21561.4</v>
       </c>
       <c r="J243" s="8">
         <v>10568.3</v>
       </c>
       <c r="K243" s="8">
-        <v>5354.6</v>
+        <v>5354</v>
       </c>
       <c r="L243" s="8"/>
       <c r="M243" s="8"/>
@@ -22155,16 +22207,16 @@
         <v>618.29999999999995</v>
       </c>
       <c r="H244" s="8">
-        <v>32712.799999999999</v>
+        <v>32775</v>
       </c>
       <c r="I244" s="8">
-        <v>21943.599999999999</v>
+        <v>22005.8</v>
       </c>
       <c r="J244" s="8">
         <v>10769.2</v>
       </c>
       <c r="K244" s="8">
-        <v>5538.7</v>
+        <v>5579.9</v>
       </c>
       <c r="L244" s="8"/>
       <c r="M244" s="8"/>
@@ -22194,16 +22246,16 @@
         <v>413.7</v>
       </c>
       <c r="H245" s="8">
-        <v>33409.300000000003</v>
+        <v>33199.9</v>
       </c>
       <c r="I245" s="8">
-        <v>22098.2</v>
+        <v>21888.799999999999</v>
       </c>
       <c r="J245" s="8">
         <v>11311.1</v>
       </c>
       <c r="K245" s="8">
-        <v>5245.2</v>
+        <v>5237.3999999999996</v>
       </c>
       <c r="L245" s="8"/>
       <c r="M245" s="8"/>
@@ -22233,16 +22285,16 @@
         <v>380.1</v>
       </c>
       <c r="H246" s="8">
-        <v>32443.599999999999</v>
+        <v>32222.7</v>
       </c>
       <c r="I246" s="8">
-        <v>21084.1</v>
+        <v>20863.2</v>
       </c>
       <c r="J246" s="8">
         <v>11359.5</v>
       </c>
       <c r="K246" s="8">
-        <v>4737.8999999999996</v>
+        <v>4728</v>
       </c>
       <c r="L246" s="8"/>
       <c r="M246" s="8"/>
@@ -22272,16 +22324,16 @@
         <v>477.5</v>
       </c>
       <c r="H247" s="8">
-        <v>33114.800000000003</v>
+        <v>32746</v>
       </c>
       <c r="I247" s="8">
-        <v>21474.400000000001</v>
+        <v>21105.599999999999</v>
       </c>
       <c r="J247" s="8">
         <v>11640.4</v>
       </c>
       <c r="K247" s="8">
-        <v>5040.6000000000004</v>
+        <v>5008</v>
       </c>
       <c r="L247" s="8"/>
       <c r="M247" s="8"/>
@@ -22311,21 +22363,60 @@
         <v>376.2</v>
       </c>
       <c r="H248" s="8">
-        <v>30988.799999999999</v>
+        <v>31823.8</v>
       </c>
       <c r="I248" s="8">
-        <v>19905.099999999999</v>
+        <v>20740.099999999999</v>
       </c>
       <c r="J248" s="8">
         <v>11083.7</v>
       </c>
       <c r="K248" s="8">
-        <v>4725.6000000000004</v>
+        <v>4822.2</v>
       </c>
       <c r="L248" s="8"/>
       <c r="M248" s="8"/>
       <c r="N248" s="8"/>
       <c r="O248" s="8"/>
+    </row>
+    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A249" s="9">
+        <v>44682</v>
+      </c>
+      <c r="B249" s="8">
+        <v>33766.300000000003</v>
+      </c>
+      <c r="C249" s="8">
+        <v>22153.7</v>
+      </c>
+      <c r="D249" s="8">
+        <v>11612.6</v>
+      </c>
+      <c r="E249" s="8">
+        <v>5533.3</v>
+      </c>
+      <c r="F249" s="8">
+        <v>5097.7</v>
+      </c>
+      <c r="G249" s="8">
+        <v>435.6</v>
+      </c>
+      <c r="H249" s="8">
+        <v>32367.7</v>
+      </c>
+      <c r="I249" s="8">
+        <v>21184.9</v>
+      </c>
+      <c r="J249" s="8">
+        <v>11182.9</v>
+      </c>
+      <c r="K249" s="8">
+        <v>4984.3999999999996</v>
+      </c>
+      <c r="L249" s="8"/>
+      <c r="M249" s="8"/>
+      <c r="N249" s="8"/>
+      <c r="O249" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data-raw/abs/5601.0/560101.xlsx
+++ b/data-raw/abs/5601.0/560101.xlsx
@@ -12,50 +12,50 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A108268693J">Data1!$I$1:$I$10,Data1!$I$11:$I$249</definedName>
-    <definedName name="A108268693J_Data">Data1!$I$11:$I$249</definedName>
-    <definedName name="A108268693J_Latest">Data1!$I$249</definedName>
-    <definedName name="A108271213V">Data1!$F$1:$F$10,Data1!$F$11:$F$249</definedName>
-    <definedName name="A108271213V_Data">Data1!$F$11:$F$249</definedName>
-    <definedName name="A108271213V_Latest">Data1!$F$249</definedName>
-    <definedName name="A108273775J">Data1!$J$1:$J$10,Data1!$J$11:$J$249</definedName>
-    <definedName name="A108273775J_Data">Data1!$J$11:$J$249</definedName>
-    <definedName name="A108273775J_Latest">Data1!$J$249</definedName>
-    <definedName name="A108276981A">Data1!$D$1:$D$10,Data1!$D$11:$D$249</definedName>
-    <definedName name="A108276981A_Data">Data1!$D$11:$D$249</definedName>
-    <definedName name="A108276981A_Latest">Data1!$D$249</definedName>
-    <definedName name="A108277457X">Data1!$K$1:$K$10,Data1!$K$11:$K$249</definedName>
-    <definedName name="A108277457X_Data">Data1!$K$11:$K$249</definedName>
-    <definedName name="A108277457X_Latest">Data1!$K$249</definedName>
-    <definedName name="A108284387K">Data1!$N$1:$N$10,Data1!$N$11:$N$249</definedName>
-    <definedName name="A108284387K_Data">Data1!$N$11:$N$249</definedName>
-    <definedName name="A108284387K_Latest">Data1!$N$249</definedName>
-    <definedName name="A108284569X">Data1!$L$1:$L$10,Data1!$L$11:$L$249</definedName>
-    <definedName name="A108284569X_Data">Data1!$L$11:$L$249</definedName>
-    <definedName name="A108284569X_Latest">Data1!$L$249</definedName>
-    <definedName name="A108292360K">Data1!$O$1:$O$10,Data1!$O$11:$O$249</definedName>
-    <definedName name="A108292360K_Data">Data1!$O$11:$O$249</definedName>
-    <definedName name="A108292360K_Latest">Data1!$O$249</definedName>
-    <definedName name="A108292822T">Data1!$M$1:$M$10,Data1!$M$11:$M$249</definedName>
-    <definedName name="A108292822T_Data">Data1!$M$11:$M$249</definedName>
-    <definedName name="A108292822T_Latest">Data1!$M$249</definedName>
-    <definedName name="A108294614K">Data1!$G$1:$G$10,Data1!$G$215:$G$249</definedName>
-    <definedName name="A108294614K_Data">Data1!$G$215:$G$249</definedName>
-    <definedName name="A108294614K_Latest">Data1!$G$249</definedName>
-    <definedName name="A108295286C">Data1!$B$1:$B$10,Data1!$B$11:$B$249</definedName>
-    <definedName name="A108295286C_Data">Data1!$B$11:$B$249</definedName>
-    <definedName name="A108295286C_Latest">Data1!$B$249</definedName>
-    <definedName name="A108296973X">Data1!$H$1:$H$10,Data1!$H$11:$H$249</definedName>
-    <definedName name="A108296973X_Data">Data1!$H$11:$H$249</definedName>
-    <definedName name="A108296973X_Latest">Data1!$H$249</definedName>
-    <definedName name="A108299115J">Data1!$C$1:$C$10,Data1!$C$11:$C$249</definedName>
-    <definedName name="A108299115J_Data">Data1!$C$11:$C$249</definedName>
-    <definedName name="A108299115J_Latest">Data1!$C$249</definedName>
-    <definedName name="A108299885C">Data1!$E$1:$E$10,Data1!$E$215:$E$249</definedName>
-    <definedName name="A108299885C_Data">Data1!$E$215:$E$249</definedName>
-    <definedName name="A108299885C_Latest">Data1!$E$249</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$249</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$249</definedName>
+    <definedName name="A108268693J">Data1!$I$1:$I$10,Data1!$I$11:$I$250</definedName>
+    <definedName name="A108268693J_Data">Data1!$I$11:$I$250</definedName>
+    <definedName name="A108268693J_Latest">Data1!$I$250</definedName>
+    <definedName name="A108271213V">Data1!$F$1:$F$10,Data1!$F$11:$F$250</definedName>
+    <definedName name="A108271213V_Data">Data1!$F$11:$F$250</definedName>
+    <definedName name="A108271213V_Latest">Data1!$F$250</definedName>
+    <definedName name="A108273775J">Data1!$J$1:$J$10,Data1!$J$11:$J$250</definedName>
+    <definedName name="A108273775J_Data">Data1!$J$11:$J$250</definedName>
+    <definedName name="A108273775J_Latest">Data1!$J$250</definedName>
+    <definedName name="A108276981A">Data1!$D$1:$D$10,Data1!$D$11:$D$250</definedName>
+    <definedName name="A108276981A_Data">Data1!$D$11:$D$250</definedName>
+    <definedName name="A108276981A_Latest">Data1!$D$250</definedName>
+    <definedName name="A108277457X">Data1!$K$1:$K$10,Data1!$K$11:$K$250</definedName>
+    <definedName name="A108277457X_Data">Data1!$K$11:$K$250</definedName>
+    <definedName name="A108277457X_Latest">Data1!$K$250</definedName>
+    <definedName name="A108284387K">Data1!$N$1:$N$10,Data1!$N$11:$N$250</definedName>
+    <definedName name="A108284387K_Data">Data1!$N$11:$N$250</definedName>
+    <definedName name="A108284387K_Latest">Data1!$N$250</definedName>
+    <definedName name="A108284569X">Data1!$L$1:$L$10,Data1!$L$11:$L$250</definedName>
+    <definedName name="A108284569X_Data">Data1!$L$11:$L$250</definedName>
+    <definedName name="A108284569X_Latest">Data1!$L$250</definedName>
+    <definedName name="A108292360K">Data1!$O$1:$O$10,Data1!$O$11:$O$250</definedName>
+    <definedName name="A108292360K_Data">Data1!$O$11:$O$250</definedName>
+    <definedName name="A108292360K_Latest">Data1!$O$250</definedName>
+    <definedName name="A108292822T">Data1!$M$1:$M$10,Data1!$M$11:$M$250</definedName>
+    <definedName name="A108292822T_Data">Data1!$M$11:$M$250</definedName>
+    <definedName name="A108292822T_Latest">Data1!$M$250</definedName>
+    <definedName name="A108294614K">Data1!$G$1:$G$10,Data1!$G$215:$G$250</definedName>
+    <definedName name="A108294614K_Data">Data1!$G$215:$G$250</definedName>
+    <definedName name="A108294614K_Latest">Data1!$G$250</definedName>
+    <definedName name="A108295286C">Data1!$B$1:$B$10,Data1!$B$11:$B$250</definedName>
+    <definedName name="A108295286C_Data">Data1!$B$11:$B$250</definedName>
+    <definedName name="A108295286C_Latest">Data1!$B$250</definedName>
+    <definedName name="A108296973X">Data1!$H$1:$H$10,Data1!$H$11:$H$250</definedName>
+    <definedName name="A108296973X_Data">Data1!$H$11:$H$250</definedName>
+    <definedName name="A108296973X_Latest">Data1!$H$250</definedName>
+    <definedName name="A108299115J">Data1!$C$1:$C$10,Data1!$C$11:$C$250</definedName>
+    <definedName name="A108299115J_Data">Data1!$C$11:$C$250</definedName>
+    <definedName name="A108299115J_Latest">Data1!$C$250</definedName>
+    <definedName name="A108299885C">Data1!$E$1:$E$10,Data1!$E$215:$E$250</definedName>
+    <definedName name="A108299885C_Data">Data1!$E$215:$E$250</definedName>
+    <definedName name="A108299885C_Latest">Data1!$E$250</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$250</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$250</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -12521,6 +12521,58 @@
       </text>
     </comment>
     <comment ref="O249" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L250" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M250" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N250" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O250" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13372,10 +13424,10 @@
         <v>37438</v>
       </c>
       <c r="G12" s="9">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="H12" s="10">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>15</v>
@@ -13404,10 +13456,10 @@
         <v>37438</v>
       </c>
       <c r="G13" s="9">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="H13" s="10">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>15</v>
@@ -13436,10 +13488,10 @@
         <v>37438</v>
       </c>
       <c r="G14" s="9">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="H14" s="10">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>15</v>
@@ -13468,10 +13520,10 @@
         <v>43647</v>
       </c>
       <c r="G15" s="9">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="H15" s="10">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>15</v>
@@ -13500,10 +13552,10 @@
         <v>37438</v>
       </c>
       <c r="G16" s="9">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="H16" s="10">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>15</v>
@@ -13532,10 +13584,10 @@
         <v>43647</v>
       </c>
       <c r="G17" s="9">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="H17" s="10">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>15</v>
@@ -13564,10 +13616,10 @@
         <v>37438</v>
       </c>
       <c r="G18" s="9">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="H18" s="10">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>15</v>
@@ -13596,10 +13648,10 @@
         <v>37438</v>
       </c>
       <c r="G19" s="9">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="H19" s="10">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>15</v>
@@ -13628,10 +13680,10 @@
         <v>37438</v>
       </c>
       <c r="G20" s="9">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="H20" s="10">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>15</v>
@@ -13660,10 +13712,10 @@
         <v>37438</v>
       </c>
       <c r="G21" s="9">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="H21" s="10">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>15</v>
@@ -13692,10 +13744,10 @@
         <v>37438</v>
       </c>
       <c r="G22" s="9">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="H22" s="10">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>15</v>
@@ -13724,10 +13776,10 @@
         <v>37438</v>
       </c>
       <c r="G23" s="9">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="H23" s="10">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>15</v>
@@ -13756,10 +13808,10 @@
         <v>37438</v>
       </c>
       <c r="G24" s="9">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="H24" s="10">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>15</v>
@@ -13788,10 +13840,10 @@
         <v>37438</v>
       </c>
       <c r="G25" s="9">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="H25" s="10">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>15</v>
@@ -13840,7 +13892,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O249"/>
+  <dimension ref="A1:O250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -14185,46 +14237,46 @@
         <v>12</v>
       </c>
       <c r="B8" s="6">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="C8" s="6">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="D8" s="6">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="E8" s="6">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="F8" s="6">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="G8" s="6">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="H8" s="6">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="I8" s="6">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="J8" s="6">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="K8" s="6">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="L8" s="6">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="M8" s="6">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="N8" s="6">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="O8" s="6">
-        <v>44682</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -14232,46 +14284,46 @@
         <v>13</v>
       </c>
       <c r="B9" s="1">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C9" s="1">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D9" s="1">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E9" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F9" s="1">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G9" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H9" s="1">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I9" s="1">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J9" s="1">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K9" s="1">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L9" s="1">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M9" s="1">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N9" s="1">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O9" s="1">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -22384,10 +22436,10 @@
         <v>44682</v>
       </c>
       <c r="B249" s="8">
-        <v>33766.300000000003</v>
+        <v>33786.699999999997</v>
       </c>
       <c r="C249" s="8">
-        <v>22153.7</v>
+        <v>22174.1</v>
       </c>
       <c r="D249" s="8">
         <v>11612.6</v>
@@ -22402,10 +22454,10 @@
         <v>435.6</v>
       </c>
       <c r="H249" s="8">
-        <v>32367.7</v>
+        <v>32387.3</v>
       </c>
       <c r="I249" s="8">
-        <v>21184.9</v>
+        <v>21204.400000000001</v>
       </c>
       <c r="J249" s="8">
         <v>11182.9</v>
@@ -22417,6 +22469,45 @@
       <c r="M249" s="8"/>
       <c r="N249" s="8"/>
       <c r="O249" s="8"/>
+    </row>
+    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A250" s="9">
+        <v>44713</v>
+      </c>
+      <c r="B250" s="8">
+        <v>32353.3</v>
+      </c>
+      <c r="C250" s="8">
+        <v>21126.7</v>
+      </c>
+      <c r="D250" s="8">
+        <v>11226.6</v>
+      </c>
+      <c r="E250" s="8">
+        <v>4941.7</v>
+      </c>
+      <c r="F250" s="8">
+        <v>4570.3</v>
+      </c>
+      <c r="G250" s="8">
+        <v>371.4</v>
+      </c>
+      <c r="H250" s="8">
+        <v>30972.9</v>
+      </c>
+      <c r="I250" s="8">
+        <v>20497</v>
+      </c>
+      <c r="J250" s="8">
+        <v>10475.9</v>
+      </c>
+      <c r="K250" s="8">
+        <v>4488.2</v>
+      </c>
+      <c r="L250" s="8"/>
+      <c r="M250" s="8"/>
+      <c r="N250" s="8"/>
+      <c r="O250" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data-raw/abs/5601.0/560101.xlsx
+++ b/data-raw/abs/5601.0/560101.xlsx
@@ -12,50 +12,50 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A108268693J">Data1!$I$1:$I$10,Data1!$I$11:$I$250</definedName>
-    <definedName name="A108268693J_Data">Data1!$I$11:$I$250</definedName>
-    <definedName name="A108268693J_Latest">Data1!$I$250</definedName>
-    <definedName name="A108271213V">Data1!$F$1:$F$10,Data1!$F$11:$F$250</definedName>
-    <definedName name="A108271213V_Data">Data1!$F$11:$F$250</definedName>
-    <definedName name="A108271213V_Latest">Data1!$F$250</definedName>
-    <definedName name="A108273775J">Data1!$J$1:$J$10,Data1!$J$11:$J$250</definedName>
-    <definedName name="A108273775J_Data">Data1!$J$11:$J$250</definedName>
-    <definedName name="A108273775J_Latest">Data1!$J$250</definedName>
-    <definedName name="A108276981A">Data1!$D$1:$D$10,Data1!$D$11:$D$250</definedName>
-    <definedName name="A108276981A_Data">Data1!$D$11:$D$250</definedName>
-    <definedName name="A108276981A_Latest">Data1!$D$250</definedName>
-    <definedName name="A108277457X">Data1!$K$1:$K$10,Data1!$K$11:$K$250</definedName>
-    <definedName name="A108277457X_Data">Data1!$K$11:$K$250</definedName>
-    <definedName name="A108277457X_Latest">Data1!$K$250</definedName>
-    <definedName name="A108284387K">Data1!$N$1:$N$10,Data1!$N$11:$N$250</definedName>
-    <definedName name="A108284387K_Data">Data1!$N$11:$N$250</definedName>
-    <definedName name="A108284387K_Latest">Data1!$N$250</definedName>
-    <definedName name="A108284569X">Data1!$L$1:$L$10,Data1!$L$11:$L$250</definedName>
-    <definedName name="A108284569X_Data">Data1!$L$11:$L$250</definedName>
-    <definedName name="A108284569X_Latest">Data1!$L$250</definedName>
-    <definedName name="A108292360K">Data1!$O$1:$O$10,Data1!$O$11:$O$250</definedName>
-    <definedName name="A108292360K_Data">Data1!$O$11:$O$250</definedName>
-    <definedName name="A108292360K_Latest">Data1!$O$250</definedName>
-    <definedName name="A108292822T">Data1!$M$1:$M$10,Data1!$M$11:$M$250</definedName>
-    <definedName name="A108292822T_Data">Data1!$M$11:$M$250</definedName>
-    <definedName name="A108292822T_Latest">Data1!$M$250</definedName>
-    <definedName name="A108294614K">Data1!$G$1:$G$10,Data1!$G$215:$G$250</definedName>
-    <definedName name="A108294614K_Data">Data1!$G$215:$G$250</definedName>
-    <definedName name="A108294614K_Latest">Data1!$G$250</definedName>
-    <definedName name="A108295286C">Data1!$B$1:$B$10,Data1!$B$11:$B$250</definedName>
-    <definedName name="A108295286C_Data">Data1!$B$11:$B$250</definedName>
-    <definedName name="A108295286C_Latest">Data1!$B$250</definedName>
-    <definedName name="A108296973X">Data1!$H$1:$H$10,Data1!$H$11:$H$250</definedName>
-    <definedName name="A108296973X_Data">Data1!$H$11:$H$250</definedName>
-    <definedName name="A108296973X_Latest">Data1!$H$250</definedName>
-    <definedName name="A108299115J">Data1!$C$1:$C$10,Data1!$C$11:$C$250</definedName>
-    <definedName name="A108299115J_Data">Data1!$C$11:$C$250</definedName>
-    <definedName name="A108299115J_Latest">Data1!$C$250</definedName>
-    <definedName name="A108299885C">Data1!$E$1:$E$10,Data1!$E$215:$E$250</definedName>
-    <definedName name="A108299885C_Data">Data1!$E$215:$E$250</definedName>
-    <definedName name="A108299885C_Latest">Data1!$E$250</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$250</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$250</definedName>
+    <definedName name="A108268693J">Data1!$I$1:$I$10,Data1!$I$11:$I$251</definedName>
+    <definedName name="A108268693J_Data">Data1!$I$11:$I$251</definedName>
+    <definedName name="A108268693J_Latest">Data1!$I$251</definedName>
+    <definedName name="A108271213V">Data1!$F$1:$F$10,Data1!$F$11:$F$251</definedName>
+    <definedName name="A108271213V_Data">Data1!$F$11:$F$251</definedName>
+    <definedName name="A108271213V_Latest">Data1!$F$251</definedName>
+    <definedName name="A108273775J">Data1!$J$1:$J$10,Data1!$J$11:$J$251</definedName>
+    <definedName name="A108273775J_Data">Data1!$J$11:$J$251</definedName>
+    <definedName name="A108273775J_Latest">Data1!$J$251</definedName>
+    <definedName name="A108276981A">Data1!$D$1:$D$10,Data1!$D$11:$D$251</definedName>
+    <definedName name="A108276981A_Data">Data1!$D$11:$D$251</definedName>
+    <definedName name="A108276981A_Latest">Data1!$D$251</definedName>
+    <definedName name="A108277457X">Data1!$K$1:$K$10,Data1!$K$11:$K$251</definedName>
+    <definedName name="A108277457X_Data">Data1!$K$11:$K$251</definedName>
+    <definedName name="A108277457X_Latest">Data1!$K$251</definedName>
+    <definedName name="A108284387K">Data1!$N$1:$N$10,Data1!$N$11:$N$251</definedName>
+    <definedName name="A108284387K_Data">Data1!$N$11:$N$251</definedName>
+    <definedName name="A108284387K_Latest">Data1!$N$251</definedName>
+    <definedName name="A108284569X">Data1!$L$1:$L$10,Data1!$L$11:$L$251</definedName>
+    <definedName name="A108284569X_Data">Data1!$L$11:$L$251</definedName>
+    <definedName name="A108284569X_Latest">Data1!$L$251</definedName>
+    <definedName name="A108292360K">Data1!$O$1:$O$10,Data1!$O$11:$O$251</definedName>
+    <definedName name="A108292360K_Data">Data1!$O$11:$O$251</definedName>
+    <definedName name="A108292360K_Latest">Data1!$O$251</definedName>
+    <definedName name="A108292822T">Data1!$M$1:$M$10,Data1!$M$11:$M$251</definedName>
+    <definedName name="A108292822T_Data">Data1!$M$11:$M$251</definedName>
+    <definedName name="A108292822T_Latest">Data1!$M$251</definedName>
+    <definedName name="A108294614K">Data1!$G$1:$G$10,Data1!$G$215:$G$251</definedName>
+    <definedName name="A108294614K_Data">Data1!$G$215:$G$251</definedName>
+    <definedName name="A108294614K_Latest">Data1!$G$251</definedName>
+    <definedName name="A108295286C">Data1!$B$1:$B$10,Data1!$B$11:$B$251</definedName>
+    <definedName name="A108295286C_Data">Data1!$B$11:$B$251</definedName>
+    <definedName name="A108295286C_Latest">Data1!$B$251</definedName>
+    <definedName name="A108296973X">Data1!$H$1:$H$10,Data1!$H$11:$H$251</definedName>
+    <definedName name="A108296973X_Data">Data1!$H$11:$H$251</definedName>
+    <definedName name="A108296973X_Latest">Data1!$H$251</definedName>
+    <definedName name="A108299115J">Data1!$C$1:$C$10,Data1!$C$11:$C$251</definedName>
+    <definedName name="A108299115J_Data">Data1!$C$11:$C$251</definedName>
+    <definedName name="A108299115J_Latest">Data1!$C$251</definedName>
+    <definedName name="A108299885C">Data1!$E$1:$E$10,Data1!$E$215:$E$251</definedName>
+    <definedName name="A108299885C_Data">Data1!$E$215:$E$251</definedName>
+    <definedName name="A108299885C_Latest">Data1!$E$251</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$251</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$251</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -12573,6 +12573,58 @@
       </text>
     </comment>
     <comment ref="O250" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L251" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M251" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N251" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O251" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13424,10 +13476,10 @@
         <v>37438</v>
       </c>
       <c r="G12" s="9">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="H12" s="10">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>15</v>
@@ -13456,10 +13508,10 @@
         <v>37438</v>
       </c>
       <c r="G13" s="9">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="H13" s="10">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>15</v>
@@ -13488,10 +13540,10 @@
         <v>37438</v>
       </c>
       <c r="G14" s="9">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="H14" s="10">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>15</v>
@@ -13520,10 +13572,10 @@
         <v>43647</v>
       </c>
       <c r="G15" s="9">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="H15" s="10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>15</v>
@@ -13552,10 +13604,10 @@
         <v>37438</v>
       </c>
       <c r="G16" s="9">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="H16" s="10">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>15</v>
@@ -13584,10 +13636,10 @@
         <v>43647</v>
       </c>
       <c r="G17" s="9">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="H17" s="10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>15</v>
@@ -13616,10 +13668,10 @@
         <v>37438</v>
       </c>
       <c r="G18" s="9">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="H18" s="10">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>15</v>
@@ -13648,10 +13700,10 @@
         <v>37438</v>
       </c>
       <c r="G19" s="9">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="H19" s="10">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>15</v>
@@ -13680,10 +13732,10 @@
         <v>37438</v>
       </c>
       <c r="G20" s="9">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="H20" s="10">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>15</v>
@@ -13712,10 +13764,10 @@
         <v>37438</v>
       </c>
       <c r="G21" s="9">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="H21" s="10">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>15</v>
@@ -13744,10 +13796,10 @@
         <v>37438</v>
       </c>
       <c r="G22" s="9">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="H22" s="10">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>15</v>
@@ -13776,10 +13828,10 @@
         <v>37438</v>
       </c>
       <c r="G23" s="9">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="H23" s="10">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>15</v>
@@ -13808,10 +13860,10 @@
         <v>37438</v>
       </c>
       <c r="G24" s="9">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="H24" s="10">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>15</v>
@@ -13840,10 +13892,10 @@
         <v>37438</v>
       </c>
       <c r="G25" s="9">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="H25" s="10">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>15</v>
@@ -13892,7 +13944,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O250"/>
+  <dimension ref="A1:O251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -14237,46 +14289,46 @@
         <v>12</v>
       </c>
       <c r="B8" s="6">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="C8" s="6">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="D8" s="6">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="E8" s="6">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="F8" s="6">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="G8" s="6">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="H8" s="6">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="I8" s="6">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="J8" s="6">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="K8" s="6">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="L8" s="6">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="M8" s="6">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="N8" s="6">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="O8" s="6">
-        <v>44713</v>
+        <v>44743</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -14284,46 +14336,46 @@
         <v>13</v>
       </c>
       <c r="B9" s="1">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C9" s="1">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D9" s="1">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E9" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F9" s="1">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G9" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H9" s="1">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I9" s="1">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J9" s="1">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K9" s="1">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L9" s="1">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M9" s="1">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N9" s="1">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O9" s="1">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -22508,6 +22560,45 @@
       <c r="M250" s="8"/>
       <c r="N250" s="8"/>
       <c r="O250" s="8"/>
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A251" s="9">
+        <v>44743</v>
+      </c>
+      <c r="B251" s="8">
+        <v>27883.9</v>
+      </c>
+      <c r="C251" s="8">
+        <v>18658.900000000001</v>
+      </c>
+      <c r="D251" s="8">
+        <v>9225</v>
+      </c>
+      <c r="E251" s="8">
+        <v>4202.2</v>
+      </c>
+      <c r="F251" s="8">
+        <v>3911.9</v>
+      </c>
+      <c r="G251" s="8">
+        <v>290.3</v>
+      </c>
+      <c r="H251" s="8">
+        <v>28351.3</v>
+      </c>
+      <c r="I251" s="8">
+        <v>19053.599999999999</v>
+      </c>
+      <c r="J251" s="8">
+        <v>9297.7000000000007</v>
+      </c>
+      <c r="K251" s="8">
+        <v>4061.2</v>
+      </c>
+      <c r="L251" s="8"/>
+      <c r="M251" s="8"/>
+      <c r="N251" s="8"/>
+      <c r="O251" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data-raw/abs/5601.0/560101.xlsx
+++ b/data-raw/abs/5601.0/560101.xlsx
@@ -12,50 +12,50 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A108268693J">Data1!$I$1:$I$10,Data1!$I$11:$I$251</definedName>
-    <definedName name="A108268693J_Data">Data1!$I$11:$I$251</definedName>
-    <definedName name="A108268693J_Latest">Data1!$I$251</definedName>
-    <definedName name="A108271213V">Data1!$F$1:$F$10,Data1!$F$11:$F$251</definedName>
-    <definedName name="A108271213V_Data">Data1!$F$11:$F$251</definedName>
-    <definedName name="A108271213V_Latest">Data1!$F$251</definedName>
-    <definedName name="A108273775J">Data1!$J$1:$J$10,Data1!$J$11:$J$251</definedName>
-    <definedName name="A108273775J_Data">Data1!$J$11:$J$251</definedName>
-    <definedName name="A108273775J_Latest">Data1!$J$251</definedName>
-    <definedName name="A108276981A">Data1!$D$1:$D$10,Data1!$D$11:$D$251</definedName>
-    <definedName name="A108276981A_Data">Data1!$D$11:$D$251</definedName>
-    <definedName name="A108276981A_Latest">Data1!$D$251</definedName>
-    <definedName name="A108277457X">Data1!$K$1:$K$10,Data1!$K$11:$K$251</definedName>
-    <definedName name="A108277457X_Data">Data1!$K$11:$K$251</definedName>
-    <definedName name="A108277457X_Latest">Data1!$K$251</definedName>
-    <definedName name="A108284387K">Data1!$N$1:$N$10,Data1!$N$11:$N$251</definedName>
-    <definedName name="A108284387K_Data">Data1!$N$11:$N$251</definedName>
-    <definedName name="A108284387K_Latest">Data1!$N$251</definedName>
-    <definedName name="A108284569X">Data1!$L$1:$L$10,Data1!$L$11:$L$251</definedName>
-    <definedName name="A108284569X_Data">Data1!$L$11:$L$251</definedName>
-    <definedName name="A108284569X_Latest">Data1!$L$251</definedName>
-    <definedName name="A108292360K">Data1!$O$1:$O$10,Data1!$O$11:$O$251</definedName>
-    <definedName name="A108292360K_Data">Data1!$O$11:$O$251</definedName>
-    <definedName name="A108292360K_Latest">Data1!$O$251</definedName>
-    <definedName name="A108292822T">Data1!$M$1:$M$10,Data1!$M$11:$M$251</definedName>
-    <definedName name="A108292822T_Data">Data1!$M$11:$M$251</definedName>
-    <definedName name="A108292822T_Latest">Data1!$M$251</definedName>
-    <definedName name="A108294614K">Data1!$G$1:$G$10,Data1!$G$215:$G$251</definedName>
-    <definedName name="A108294614K_Data">Data1!$G$215:$G$251</definedName>
-    <definedName name="A108294614K_Latest">Data1!$G$251</definedName>
-    <definedName name="A108295286C">Data1!$B$1:$B$10,Data1!$B$11:$B$251</definedName>
-    <definedName name="A108295286C_Data">Data1!$B$11:$B$251</definedName>
-    <definedName name="A108295286C_Latest">Data1!$B$251</definedName>
-    <definedName name="A108296973X">Data1!$H$1:$H$10,Data1!$H$11:$H$251</definedName>
-    <definedName name="A108296973X_Data">Data1!$H$11:$H$251</definedName>
-    <definedName name="A108296973X_Latest">Data1!$H$251</definedName>
-    <definedName name="A108299115J">Data1!$C$1:$C$10,Data1!$C$11:$C$251</definedName>
-    <definedName name="A108299115J_Data">Data1!$C$11:$C$251</definedName>
-    <definedName name="A108299115J_Latest">Data1!$C$251</definedName>
-    <definedName name="A108299885C">Data1!$E$1:$E$10,Data1!$E$215:$E$251</definedName>
-    <definedName name="A108299885C_Data">Data1!$E$215:$E$251</definedName>
-    <definedName name="A108299885C_Latest">Data1!$E$251</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$251</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$251</definedName>
+    <definedName name="A108268693J">Data1!$I$1:$I$10,Data1!$I$11:$I$252</definedName>
+    <definedName name="A108268693J_Data">Data1!$I$11:$I$252</definedName>
+    <definedName name="A108268693J_Latest">Data1!$I$252</definedName>
+    <definedName name="A108271213V">Data1!$F$1:$F$10,Data1!$F$11:$F$252</definedName>
+    <definedName name="A108271213V_Data">Data1!$F$11:$F$252</definedName>
+    <definedName name="A108271213V_Latest">Data1!$F$252</definedName>
+    <definedName name="A108273775J">Data1!$J$1:$J$10,Data1!$J$11:$J$252</definedName>
+    <definedName name="A108273775J_Data">Data1!$J$11:$J$252</definedName>
+    <definedName name="A108273775J_Latest">Data1!$J$252</definedName>
+    <definedName name="A108276981A">Data1!$D$1:$D$10,Data1!$D$11:$D$252</definedName>
+    <definedName name="A108276981A_Data">Data1!$D$11:$D$252</definedName>
+    <definedName name="A108276981A_Latest">Data1!$D$252</definedName>
+    <definedName name="A108277457X">Data1!$K$1:$K$10,Data1!$K$11:$K$252</definedName>
+    <definedName name="A108277457X_Data">Data1!$K$11:$K$252</definedName>
+    <definedName name="A108277457X_Latest">Data1!$K$252</definedName>
+    <definedName name="A108284387K">Data1!$N$1:$N$10,Data1!$N$11:$N$252</definedName>
+    <definedName name="A108284387K_Data">Data1!$N$11:$N$252</definedName>
+    <definedName name="A108284387K_Latest">Data1!$N$252</definedName>
+    <definedName name="A108284569X">Data1!$L$1:$L$10,Data1!$L$11:$L$252</definedName>
+    <definedName name="A108284569X_Data">Data1!$L$11:$L$252</definedName>
+    <definedName name="A108284569X_Latest">Data1!$L$252</definedName>
+    <definedName name="A108292360K">Data1!$O$1:$O$10,Data1!$O$11:$O$252</definedName>
+    <definedName name="A108292360K_Data">Data1!$O$11:$O$252</definedName>
+    <definedName name="A108292360K_Latest">Data1!$O$252</definedName>
+    <definedName name="A108292822T">Data1!$M$1:$M$10,Data1!$M$11:$M$252</definedName>
+    <definedName name="A108292822T_Data">Data1!$M$11:$M$252</definedName>
+    <definedName name="A108292822T_Latest">Data1!$M$252</definedName>
+    <definedName name="A108294614K">Data1!$G$1:$G$10,Data1!$G$215:$G$252</definedName>
+    <definedName name="A108294614K_Data">Data1!$G$215:$G$252</definedName>
+    <definedName name="A108294614K_Latest">Data1!$G$252</definedName>
+    <definedName name="A108295286C">Data1!$B$1:$B$10,Data1!$B$11:$B$252</definedName>
+    <definedName name="A108295286C_Data">Data1!$B$11:$B$252</definedName>
+    <definedName name="A108295286C_Latest">Data1!$B$252</definedName>
+    <definedName name="A108296973X">Data1!$H$1:$H$10,Data1!$H$11:$H$252</definedName>
+    <definedName name="A108296973X_Data">Data1!$H$11:$H$252</definedName>
+    <definedName name="A108296973X_Latest">Data1!$H$252</definedName>
+    <definedName name="A108299115J">Data1!$C$1:$C$10,Data1!$C$11:$C$252</definedName>
+    <definedName name="A108299115J_Data">Data1!$C$11:$C$252</definedName>
+    <definedName name="A108299115J_Latest">Data1!$C$252</definedName>
+    <definedName name="A108299885C">Data1!$E$1:$E$10,Data1!$E$215:$E$252</definedName>
+    <definedName name="A108299885C_Data">Data1!$E$215:$E$252</definedName>
+    <definedName name="A108299885C_Latest">Data1!$E$252</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$252</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$252</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -12625,6 +12625,58 @@
       </text>
     </comment>
     <comment ref="O251" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L252" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M252" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N252" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O252" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13476,10 +13528,10 @@
         <v>37438</v>
       </c>
       <c r="G12" s="9">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="H12" s="10">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>15</v>
@@ -13508,10 +13560,10 @@
         <v>37438</v>
       </c>
       <c r="G13" s="9">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="H13" s="10">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>15</v>
@@ -13540,10 +13592,10 @@
         <v>37438</v>
       </c>
       <c r="G14" s="9">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="H14" s="10">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>15</v>
@@ -13572,10 +13624,10 @@
         <v>43647</v>
       </c>
       <c r="G15" s="9">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="H15" s="10">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>15</v>
@@ -13604,10 +13656,10 @@
         <v>37438</v>
       </c>
       <c r="G16" s="9">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="H16" s="10">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>15</v>
@@ -13636,10 +13688,10 @@
         <v>43647</v>
       </c>
       <c r="G17" s="9">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="H17" s="10">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>15</v>
@@ -13668,10 +13720,10 @@
         <v>37438</v>
       </c>
       <c r="G18" s="9">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="H18" s="10">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>15</v>
@@ -13700,10 +13752,10 @@
         <v>37438</v>
       </c>
       <c r="G19" s="9">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="H19" s="10">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>15</v>
@@ -13732,10 +13784,10 @@
         <v>37438</v>
       </c>
       <c r="G20" s="9">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="H20" s="10">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>15</v>
@@ -13764,10 +13816,10 @@
         <v>37438</v>
       </c>
       <c r="G21" s="9">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="H21" s="10">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>15</v>
@@ -13796,10 +13848,10 @@
         <v>37438</v>
       </c>
       <c r="G22" s="9">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="H22" s="10">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>15</v>
@@ -13828,10 +13880,10 @@
         <v>37438</v>
       </c>
       <c r="G23" s="9">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="H23" s="10">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>15</v>
@@ -13860,10 +13912,10 @@
         <v>37438</v>
       </c>
       <c r="G24" s="9">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="H24" s="10">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>15</v>
@@ -13892,10 +13944,10 @@
         <v>37438</v>
       </c>
       <c r="G25" s="9">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="H25" s="10">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>15</v>
@@ -13944,7 +13996,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O251"/>
+  <dimension ref="A1:O252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -14289,46 +14341,46 @@
         <v>12</v>
       </c>
       <c r="B8" s="6">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="C8" s="6">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="D8" s="6">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="E8" s="6">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="F8" s="6">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="G8" s="6">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="H8" s="6">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="I8" s="6">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="J8" s="6">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="K8" s="6">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="L8" s="6">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="M8" s="6">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="N8" s="6">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="O8" s="6">
-        <v>44743</v>
+        <v>44774</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -14336,46 +14388,46 @@
         <v>13</v>
       </c>
       <c r="B9" s="1">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C9" s="1">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D9" s="1">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E9" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F9" s="1">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G9" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H9" s="1">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I9" s="1">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J9" s="1">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K9" s="1">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L9" s="1">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M9" s="1">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N9" s="1">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O9" s="1">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -22599,6 +22651,45 @@
       <c r="M251" s="8"/>
       <c r="N251" s="8"/>
       <c r="O251" s="8"/>
+    </row>
+    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A252" s="9">
+        <v>44774</v>
+      </c>
+      <c r="B252" s="8">
+        <v>28551.599999999999</v>
+      </c>
+      <c r="C252" s="8">
+        <v>19081.5</v>
+      </c>
+      <c r="D252" s="8">
+        <v>9470</v>
+      </c>
+      <c r="E252" s="8">
+        <v>4899.3999999999996</v>
+      </c>
+      <c r="F252" s="8">
+        <v>4596.8</v>
+      </c>
+      <c r="G252" s="8">
+        <v>302.7</v>
+      </c>
+      <c r="H252" s="8">
+        <v>27393.4</v>
+      </c>
+      <c r="I252" s="8">
+        <v>18539.3</v>
+      </c>
+      <c r="J252" s="8">
+        <v>8854.1</v>
+      </c>
+      <c r="K252" s="8">
+        <v>4345.1000000000004</v>
+      </c>
+      <c r="L252" s="8"/>
+      <c r="M252" s="8"/>
+      <c r="N252" s="8"/>
+      <c r="O252" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
